--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Установка приложения</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
   <si>
     <r>
@@ -1927,7 +1930,7 @@
       <alignment shrinkToFit="false" vertical="bottom" wrapText="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment shrinkToFit="false" vertical="bottom" wrapText="false"/>
     </xf>
@@ -1959,11 +1962,20 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="8" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="8" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="8" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyFill="true" applyFont="true" borderId="0" fillId="7" fontId="0" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
@@ -2275,57 +2287,59 @@
         <v>8</v>
       </c>
       <c r="C3" s="10" t="n"/>
-      <c r="D3" s="10" t="n"/>
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="10" t="n"/>
       <c r="F3" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row customFormat="true" customHeight="true" ht="56.6929473876953" outlineLevel="0" r="4" s="9">
-      <c r="A4" s="11" t="s"/>
-      <c r="B4" s="11" t="s"/>
-      <c r="C4" s="11" t="s"/>
-      <c r="D4" s="11" t="s"/>
-      <c r="E4" s="11" t="s"/>
+      <c r="A4" s="12" t="s"/>
+      <c r="B4" s="12" t="s"/>
+      <c r="C4" s="12" t="s"/>
+      <c r="D4" s="13" t="s"/>
+      <c r="E4" s="12" t="s"/>
       <c r="F4" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row customFormat="true" customHeight="true" ht="56.6929473876953" outlineLevel="0" r="5" s="9">
-      <c r="A5" s="11" t="s"/>
-      <c r="B5" s="11" t="s"/>
-      <c r="C5" s="11" t="s"/>
-      <c r="D5" s="11" t="s"/>
-      <c r="E5" s="11" t="s"/>
+      <c r="A5" s="12" t="s"/>
+      <c r="B5" s="12" t="s"/>
+      <c r="C5" s="12" t="s"/>
+      <c r="D5" s="13" t="s"/>
+      <c r="E5" s="12" t="s"/>
       <c r="F5" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row customFormat="true" customHeight="true" ht="56.6929473876953" outlineLevel="0" r="6" s="9">
-      <c r="A6" s="12" t="s"/>
-      <c r="B6" s="12" t="s"/>
-      <c r="C6" s="12" t="s"/>
-      <c r="D6" s="12" t="s"/>
-      <c r="E6" s="12" t="s"/>
+      <c r="A6" s="14" t="s"/>
+      <c r="B6" s="14" t="s"/>
+      <c r="C6" s="14" t="s"/>
+      <c r="D6" s="15" t="s"/>
+      <c r="E6" s="14" t="s"/>
       <c r="F6" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row customFormat="true" customHeight="true" ht="15.75" outlineLevel="0" r="7" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row customFormat="true" customHeight="true" ht="15.75" outlineLevel="0" r="7" s="16">
       <c r="A7" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="7" t="s"/>
       <c r="C7" s="7" t="s"/>
@@ -2335,400 +2349,414 @@
       <c r="G7" s="8" t="s"/>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="8">
-      <c r="A8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="14" t="n"/>
-      <c r="D8" s="14" t="n"/>
-      <c r="E8" s="15" t="n"/>
-      <c r="F8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="C8" s="17" t="n"/>
+      <c r="D8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="18" t="n"/>
+      <c r="F8" s="19" t="s">
         <v>21</v>
       </c>
+      <c r="G8" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="9">
-      <c r="A9" s="18" t="s"/>
-      <c r="B9" s="18" t="s"/>
-      <c r="C9" s="18" t="s"/>
-      <c r="D9" s="18" t="s"/>
-      <c r="E9" s="19" t="s"/>
-      <c r="F9" s="16" t="s">
+      <c r="A9" s="21" t="s"/>
+      <c r="B9" s="21" t="s"/>
+      <c r="C9" s="21" t="s"/>
+      <c r="D9" s="13" t="s"/>
+      <c r="E9" s="22" t="s"/>
+      <c r="F9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="10">
+      <c r="A10" s="21" t="s"/>
+      <c r="B10" s="21" t="s"/>
+      <c r="C10" s="21" t="s"/>
+      <c r="D10" s="13" t="s"/>
+      <c r="E10" s="22" t="s"/>
+      <c r="F10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="11">
+      <c r="A11" s="23" t="s"/>
+      <c r="B11" s="23" t="s"/>
+      <c r="C11" s="23" t="s"/>
+      <c r="D11" s="15" t="s"/>
+      <c r="E11" s="24" t="s"/>
+      <c r="F11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="12">
+      <c r="A12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="17" t="n"/>
+      <c r="D12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="18" t="n"/>
+      <c r="F12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="17" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="13">
+      <c r="A13" s="21" t="s"/>
+      <c r="B13" s="21" t="s"/>
+      <c r="C13" s="21" t="s"/>
+      <c r="D13" s="13" t="s"/>
+      <c r="E13" s="22" t="s"/>
+      <c r="F13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="14">
+      <c r="A14" s="21" t="s"/>
+      <c r="B14" s="21" t="s"/>
+      <c r="C14" s="21" t="s"/>
+      <c r="D14" s="13" t="s"/>
+      <c r="E14" s="22" t="s"/>
+      <c r="F14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="15">
+      <c r="A15" s="23" t="s"/>
+      <c r="B15" s="23" t="s"/>
+      <c r="C15" s="23" t="s"/>
+      <c r="D15" s="15" t="s"/>
+      <c r="E15" s="24" t="s"/>
+      <c r="F15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="16">
+      <c r="A16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="17" t="n"/>
+      <c r="D16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="18" t="n"/>
+      <c r="F16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="17">
+      <c r="A17" s="21" t="s"/>
+      <c r="B17" s="21" t="s"/>
+      <c r="C17" s="21" t="s"/>
+      <c r="D17" s="13" t="s"/>
+      <c r="E17" s="22" t="s"/>
+      <c r="F17" s="19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="10">
-      <c r="A10" s="18" t="s"/>
-      <c r="B10" s="18" t="s"/>
-      <c r="C10" s="18" t="s"/>
-      <c r="D10" s="18" t="s"/>
-      <c r="E10" s="19" t="s"/>
-      <c r="F10" s="16" t="s">
+      <c r="G17" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="17" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="18">
+      <c r="A18" s="21" t="s"/>
+      <c r="B18" s="21" t="s"/>
+      <c r="C18" s="21" t="s"/>
+      <c r="D18" s="13" t="s"/>
+      <c r="E18" s="22" t="s"/>
+      <c r="F18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="19">
+      <c r="A19" s="23" t="s"/>
+      <c r="B19" s="23" t="s"/>
+      <c r="C19" s="23" t="s"/>
+      <c r="D19" s="15" t="s"/>
+      <c r="E19" s="24" t="s"/>
+      <c r="F19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="20">
+      <c r="A20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="17" t="n"/>
+      <c r="D20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="18" t="n"/>
+      <c r="F20" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="21">
+      <c r="A21" s="21" t="s"/>
+      <c r="B21" s="22" t="s"/>
+      <c r="C21" s="21" t="s"/>
+      <c r="D21" s="13" t="s"/>
+      <c r="E21" s="22" t="s"/>
+      <c r="F21" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="22">
+      <c r="A22" s="21" t="s"/>
+      <c r="B22" s="22" t="s"/>
+      <c r="C22" s="21" t="s"/>
+      <c r="D22" s="13" t="s"/>
+      <c r="E22" s="22" t="s"/>
+      <c r="F22" s="19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="11">
-      <c r="A11" s="20" t="s"/>
-      <c r="B11" s="20" t="s"/>
-      <c r="C11" s="20" t="s"/>
-      <c r="D11" s="20" t="s"/>
-      <c r="E11" s="21" t="s"/>
-      <c r="F11" s="16" t="s">
+      <c r="G22" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="17" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="23">
+      <c r="A23" s="23" t="s"/>
+      <c r="B23" s="24" t="s"/>
+      <c r="C23" s="23" t="s"/>
+      <c r="D23" s="15" t="s"/>
+      <c r="E23" s="24" t="s"/>
+      <c r="F23" s="19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="12">
-      <c r="A12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="14" t="n"/>
-      <c r="D12" s="14" t="n"/>
-      <c r="E12" s="15" t="n"/>
-      <c r="F12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="17" t="s">
+      <c r="G23" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="24">
+      <c r="A24" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="17" t="n"/>
+      <c r="D24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="18" t="n"/>
+      <c r="F24" s="19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="13">
-      <c r="A13" s="18" t="s"/>
-      <c r="B13" s="18" t="s"/>
-      <c r="C13" s="18" t="s"/>
-      <c r="D13" s="18" t="s"/>
-      <c r="E13" s="19" t="s"/>
-      <c r="F13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="14">
-      <c r="A14" s="18" t="s"/>
-      <c r="B14" s="18" t="s"/>
-      <c r="C14" s="18" t="s"/>
-      <c r="D14" s="18" t="s"/>
-      <c r="E14" s="19" t="s"/>
-      <c r="F14" s="16" t="s">
+      <c r="G24" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="25">
+      <c r="A25" s="21" t="s"/>
+      <c r="B25" s="22" t="s"/>
+      <c r="C25" s="21" t="s"/>
+      <c r="D25" s="13" t="s"/>
+      <c r="E25" s="22" t="s"/>
+      <c r="F25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="17" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="26">
+      <c r="A26" s="21" t="s"/>
+      <c r="B26" s="22" t="s"/>
+      <c r="C26" s="21" t="s"/>
+      <c r="D26" s="13" t="s"/>
+      <c r="E26" s="22" t="s"/>
+      <c r="F26" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="27">
+      <c r="A27" s="23" t="s"/>
+      <c r="B27" s="24" t="s"/>
+      <c r="C27" s="23" t="s"/>
+      <c r="D27" s="15" t="s"/>
+      <c r="E27" s="24" t="s"/>
+      <c r="F27" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="28">
+      <c r="A28" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="17" t="n"/>
+      <c r="D28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="18" t="n"/>
+      <c r="F28" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="29">
+      <c r="A29" s="21" t="s"/>
+      <c r="B29" s="21" t="s"/>
+      <c r="C29" s="21" t="s"/>
+      <c r="D29" s="13" t="s"/>
+      <c r="E29" s="22" t="s"/>
+      <c r="F29" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="30">
+      <c r="A30" s="21" t="s"/>
+      <c r="B30" s="21" t="s"/>
+      <c r="C30" s="21" t="s"/>
+      <c r="D30" s="13" t="s"/>
+      <c r="E30" s="22" t="s"/>
+      <c r="F30" s="19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="15">
-      <c r="A15" s="20" t="s"/>
-      <c r="B15" s="20" t="s"/>
-      <c r="C15" s="20" t="s"/>
-      <c r="D15" s="20" t="s"/>
-      <c r="E15" s="21" t="s"/>
-      <c r="F15" s="16" t="s">
+      <c r="G30" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="16">
-      <c r="A16" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="14" t="n"/>
-      <c r="D16" s="14" t="n"/>
-      <c r="E16" s="15" t="n"/>
-      <c r="F16" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="17" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="31">
+      <c r="A31" s="23" t="s"/>
+      <c r="B31" s="23" t="s"/>
+      <c r="C31" s="23" t="s"/>
+      <c r="D31" s="15" t="s"/>
+      <c r="E31" s="24" t="s"/>
+      <c r="F31" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="32">
+      <c r="A32" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="17" t="n"/>
+      <c r="D32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="18" t="n"/>
+      <c r="F32" s="19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="17">
-      <c r="A17" s="18" t="s"/>
-      <c r="B17" s="18" t="s"/>
-      <c r="C17" s="18" t="s"/>
-      <c r="D17" s="18" t="s"/>
-      <c r="E17" s="19" t="s"/>
-      <c r="F17" s="16" t="s">
+      <c r="G32" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="17" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="33">
+      <c r="A33" s="21" t="s"/>
+      <c r="B33" s="21" t="s"/>
+      <c r="C33" s="21" t="s"/>
+      <c r="D33" s="13" t="s"/>
+      <c r="E33" s="22" t="s"/>
+      <c r="F33" s="19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="18">
-      <c r="A18" s="18" t="s"/>
-      <c r="B18" s="18" t="s"/>
-      <c r="C18" s="18" t="s"/>
-      <c r="D18" s="18" t="s"/>
-      <c r="E18" s="19" t="s"/>
-      <c r="F18" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="19">
-      <c r="A19" s="20" t="s"/>
-      <c r="B19" s="20" t="s"/>
-      <c r="C19" s="20" t="s"/>
-      <c r="D19" s="20" t="s"/>
-      <c r="E19" s="21" t="s"/>
-      <c r="F19" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="20">
-      <c r="A20" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="14" t="n"/>
-      <c r="D20" s="14" t="n"/>
-      <c r="E20" s="15" t="n"/>
-      <c r="F20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="21">
-      <c r="A21" s="18" t="s"/>
-      <c r="B21" s="19" t="s"/>
-      <c r="C21" s="18" t="s"/>
-      <c r="D21" s="18" t="s"/>
-      <c r="E21" s="19" t="s"/>
-      <c r="F21" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="22">
-      <c r="A22" s="18" t="s"/>
-      <c r="B22" s="19" t="s"/>
-      <c r="C22" s="18" t="s"/>
-      <c r="D22" s="18" t="s"/>
-      <c r="E22" s="19" t="s"/>
-      <c r="F22" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="23">
-      <c r="A23" s="20" t="s"/>
-      <c r="B23" s="21" t="s"/>
-      <c r="C23" s="20" t="s"/>
-      <c r="D23" s="20" t="s"/>
-      <c r="E23" s="21" t="s"/>
-      <c r="F23" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="24">
-      <c r="A24" s="14" t="s">
+      <c r="G33" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="34">
+      <c r="A34" s="21" t="s"/>
+      <c r="B34" s="21" t="s"/>
+      <c r="C34" s="21" t="s"/>
+      <c r="D34" s="13" t="s"/>
+      <c r="E34" s="22" t="s"/>
+      <c r="F34" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="35">
+      <c r="A35" s="23" t="s"/>
+      <c r="B35" s="23" t="s"/>
+      <c r="C35" s="23" t="s"/>
+      <c r="D35" s="15" t="s"/>
+      <c r="E35" s="24" t="s"/>
+      <c r="F35" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="14" t="n"/>
-      <c r="D24" s="14" t="n"/>
-      <c r="E24" s="15" t="n"/>
-      <c r="F24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="25">
-      <c r="A25" s="18" t="s"/>
-      <c r="B25" s="19" t="s"/>
-      <c r="C25" s="18" t="s"/>
-      <c r="D25" s="18" t="s"/>
-      <c r="E25" s="19" t="s"/>
-      <c r="F25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="26">
-      <c r="A26" s="18" t="s"/>
-      <c r="B26" s="19" t="s"/>
-      <c r="C26" s="18" t="s"/>
-      <c r="D26" s="18" t="s"/>
-      <c r="E26" s="19" t="s"/>
-      <c r="F26" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="27">
-      <c r="A27" s="20" t="s"/>
-      <c r="B27" s="21" t="s"/>
-      <c r="C27" s="20" t="s"/>
-      <c r="D27" s="20" t="s"/>
-      <c r="E27" s="21" t="s"/>
-      <c r="F27" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="28">
-      <c r="A28" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="14" t="n"/>
-      <c r="D28" s="14" t="n"/>
-      <c r="E28" s="15" t="n"/>
-      <c r="F28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="29">
-      <c r="A29" s="18" t="s"/>
-      <c r="B29" s="18" t="s"/>
-      <c r="C29" s="18" t="s"/>
-      <c r="D29" s="18" t="s"/>
-      <c r="E29" s="19" t="s"/>
-      <c r="F29" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="30">
-      <c r="A30" s="18" t="s"/>
-      <c r="B30" s="18" t="s"/>
-      <c r="C30" s="18" t="s"/>
-      <c r="D30" s="18" t="s"/>
-      <c r="E30" s="19" t="s"/>
-      <c r="F30" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="31">
-      <c r="A31" s="20" t="s"/>
-      <c r="B31" s="20" t="s"/>
-      <c r="C31" s="20" t="s"/>
-      <c r="D31" s="20" t="s"/>
-      <c r="E31" s="21" t="s"/>
-      <c r="F31" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="32">
-      <c r="A32" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="14" t="n"/>
-      <c r="D32" s="14" t="n"/>
-      <c r="E32" s="15" t="n"/>
-      <c r="F32" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="33">
-      <c r="A33" s="18" t="s"/>
-      <c r="B33" s="18" t="s"/>
-      <c r="C33" s="18" t="s"/>
-      <c r="D33" s="18" t="s"/>
-      <c r="E33" s="19" t="s"/>
-      <c r="F33" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="34">
-      <c r="A34" s="18" t="s"/>
-      <c r="B34" s="18" t="s"/>
-      <c r="C34" s="18" t="s"/>
-      <c r="D34" s="18" t="s"/>
-      <c r="E34" s="19" t="s"/>
-      <c r="F34" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="35">
-      <c r="A35" s="20" t="s"/>
-      <c r="B35" s="20" t="s"/>
-      <c r="C35" s="20" t="s"/>
-      <c r="D35" s="20" t="s"/>
-      <c r="E35" s="21" t="s"/>
-      <c r="F35" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>41</v>
       </c>
     </row>
     <row outlineLevel="0" r="36">
       <c r="A36" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B36" s="7" t="s"/>
       <c r="C36" s="7" t="s"/>
@@ -2738,183 +2766,199 @@
       <c r="G36" s="8" t="s"/>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="37">
-      <c r="A37" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="14" t="s">
+      <c r="A37" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="14" t="n"/>
-      <c r="D37" s="14" t="n"/>
-      <c r="E37" s="15" t="n"/>
-      <c r="F37" s="16" t="s">
+      <c r="B37" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="C37" s="17" t="n"/>
+      <c r="D37" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="18" t="n"/>
+      <c r="F37" s="19" t="s">
         <v>59</v>
       </c>
+      <c r="G37" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="38">
-      <c r="A38" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="15" t="s">
+      <c r="A38" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="14" t="n"/>
-      <c r="D38" s="14" t="n"/>
-      <c r="E38" s="15" t="n"/>
-      <c r="F38" s="17" t="s">
+      <c r="B38" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="C38" s="17" t="n"/>
+      <c r="D38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="18" t="n"/>
+      <c r="F38" s="20" t="s">
         <v>63</v>
       </c>
+      <c r="G38" s="20" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="39">
-      <c r="A39" s="20" t="s"/>
-      <c r="B39" s="21" t="s"/>
-      <c r="C39" s="20" t="s"/>
-      <c r="D39" s="20" t="s"/>
-      <c r="E39" s="21" t="s"/>
-      <c r="F39" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" s="17" t="s">
+      <c r="A39" s="23" t="s"/>
+      <c r="B39" s="24" t="s"/>
+      <c r="C39" s="23" t="s"/>
+      <c r="D39" s="15" t="s"/>
+      <c r="E39" s="24" t="s"/>
+      <c r="F39" s="20" t="s">
         <v>65</v>
       </c>
+      <c r="G39" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="40">
-      <c r="A40" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="15" t="s">
+      <c r="A40" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="14" t="n"/>
-      <c r="D40" s="14" t="n"/>
-      <c r="E40" s="15" t="n"/>
-      <c r="F40" s="17" t="s">
+      <c r="B40" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="C40" s="17" t="n"/>
+      <c r="D40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="18" t="n"/>
+      <c r="F40" s="20" t="s">
         <v>69</v>
       </c>
+      <c r="G40" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="41">
-      <c r="A41" s="20" t="s"/>
-      <c r="B41" s="21" t="s"/>
-      <c r="C41" s="20" t="s"/>
-      <c r="D41" s="20" t="s"/>
-      <c r="E41" s="21" t="s"/>
-      <c r="F41" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" s="17" t="s">
+      <c r="A41" s="23" t="s"/>
+      <c r="B41" s="24" t="s"/>
+      <c r="C41" s="23" t="s"/>
+      <c r="D41" s="15" t="s"/>
+      <c r="E41" s="24" t="s"/>
+      <c r="F41" s="20" t="s">
         <v>71</v>
       </c>
+      <c r="G41" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="42">
-      <c r="A42" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="15" t="s">
+      <c r="A42" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="14" t="n"/>
-      <c r="D42" s="14" t="n"/>
-      <c r="E42" s="15" t="n"/>
-      <c r="F42" s="17" t="s">
+      <c r="B42" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="C42" s="17" t="n"/>
+      <c r="D42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="18" t="n"/>
+      <c r="F42" s="20" t="s">
         <v>75</v>
       </c>
+      <c r="G42" s="20" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="43">
-      <c r="A43" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="15" t="s">
+      <c r="A43" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="14" t="n"/>
-      <c r="D43" s="14" t="n"/>
-      <c r="E43" s="15" t="n"/>
-      <c r="F43" s="17" t="s">
+      <c r="B43" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="C43" s="17" t="n"/>
+      <c r="D43" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="18" t="n"/>
+      <c r="F43" s="20" t="s">
         <v>79</v>
       </c>
+      <c r="G43" s="20" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="44">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="17" t="n"/>
+      <c r="D44" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="18" t="n"/>
+      <c r="F44" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="45">
+      <c r="A45" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="17" t="n"/>
+      <c r="D45" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="18" t="n"/>
+      <c r="F45" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="46">
+      <c r="A46" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="17" t="n"/>
+      <c r="D46" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="18" t="n"/>
+      <c r="F46" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="14" t="n"/>
-      <c r="D44" s="14" t="n"/>
-      <c r="E44" s="15" t="n"/>
-      <c r="F44" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="45">
-      <c r="A45" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="14" t="n"/>
-      <c r="D45" s="14" t="n"/>
-      <c r="E45" s="15" t="n"/>
-      <c r="F45" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="46">
-      <c r="A46" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="14" t="n"/>
-      <c r="D46" s="14" t="n"/>
-      <c r="E46" s="15" t="n"/>
-      <c r="F46" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="47">
-      <c r="A47" s="20" t="s"/>
-      <c r="B47" s="21" t="s"/>
-      <c r="C47" s="20" t="s"/>
-      <c r="D47" s="20" t="s"/>
-      <c r="E47" s="21" t="s"/>
-      <c r="F47" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G47" s="17" t="s">
+      <c r="A47" s="23" t="s"/>
+      <c r="B47" s="24" t="s"/>
+      <c r="C47" s="23" t="s"/>
+      <c r="D47" s="15" t="s"/>
+      <c r="E47" s="24" t="s"/>
+      <c r="F47" s="20" t="s">
         <v>92</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>93</v>
       </c>
     </row>
     <row outlineLevel="0" r="48">
       <c r="A48" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" s="7" t="s"/>
       <c r="C48" s="7" t="s"/>
@@ -2924,51 +2968,53 @@
       <c r="G48" s="8" t="s"/>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="49">
-      <c r="A49" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="15" t="s">
+      <c r="A49" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="14" t="n"/>
-      <c r="D49" s="14" t="n"/>
-      <c r="E49" s="15" t="n"/>
-      <c r="F49" s="17" t="s">
+      <c r="B49" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G49" s="17" t="s">
-        <v>83</v>
+      <c r="C49" s="17" t="n"/>
+      <c r="D49" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="18" t="n"/>
+      <c r="F49" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="50">
-      <c r="A50" s="18" t="s"/>
-      <c r="B50" s="19" t="s"/>
-      <c r="C50" s="18" t="s"/>
-      <c r="D50" s="18" t="s"/>
-      <c r="E50" s="19" t="s"/>
-      <c r="F50" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G50" s="17" t="s">
+      <c r="A50" s="21" t="s"/>
+      <c r="B50" s="22" t="s"/>
+      <c r="C50" s="21" t="s"/>
+      <c r="D50" s="13" t="s"/>
+      <c r="E50" s="22" t="s"/>
+      <c r="F50" s="20" t="s">
         <v>98</v>
       </c>
+      <c r="G50" s="20" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="51">
-      <c r="A51" s="20" t="s"/>
-      <c r="B51" s="21" t="s"/>
-      <c r="C51" s="20" t="s"/>
-      <c r="D51" s="20" t="s"/>
-      <c r="E51" s="21" t="s"/>
-      <c r="F51" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G51" s="17" t="s">
+      <c r="A51" s="23" t="s"/>
+      <c r="B51" s="24" t="s"/>
+      <c r="C51" s="23" t="s"/>
+      <c r="D51" s="15" t="s"/>
+      <c r="E51" s="24" t="s"/>
+      <c r="F51" s="20" t="s">
         <v>100</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>101</v>
       </c>
     </row>
     <row outlineLevel="0" r="52">
       <c r="A52" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52" s="7" t="s"/>
       <c r="C52" s="7" t="s"/>
@@ -2978,115 +3024,123 @@
       <c r="G52" s="8" t="s"/>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="53">
-      <c r="A53" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="22" t="s">
+      <c r="A53" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="14" t="n"/>
-      <c r="D53" s="14" t="n"/>
-      <c r="E53" s="15" t="n"/>
-      <c r="F53" s="17" t="s">
+      <c r="B53" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="G53" s="17" t="s">
-        <v>79</v>
+      <c r="C53" s="17" t="n"/>
+      <c r="D53" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="18" t="n"/>
+      <c r="F53" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>80</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="54">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="17" t="n"/>
+      <c r="D54" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="18" t="n"/>
+      <c r="F54" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="14" t="n"/>
-      <c r="D54" s="14" t="n"/>
-      <c r="E54" s="15" t="n"/>
-      <c r="F54" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>79</v>
+      <c r="G54" s="20" t="s">
+        <v>80</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="55">
-      <c r="A55" s="20" t="s"/>
-      <c r="B55" s="23" t="s"/>
-      <c r="C55" s="20" t="s"/>
-      <c r="D55" s="20" t="s"/>
-      <c r="E55" s="21" t="s"/>
-      <c r="F55" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G55" s="17" t="s">
+      <c r="A55" s="23" t="s"/>
+      <c r="B55" s="26" t="s"/>
+      <c r="C55" s="23" t="s"/>
+      <c r="D55" s="15" t="s"/>
+      <c r="E55" s="24" t="s"/>
+      <c r="F55" s="20" t="s">
         <v>108</v>
       </c>
+      <c r="G55" s="20" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="56">
-      <c r="A56" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B56" s="22" t="s">
+      <c r="A56" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="14" t="n"/>
-      <c r="D56" s="14" t="n"/>
-      <c r="E56" s="15" t="n"/>
-      <c r="F56" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>79</v>
+      <c r="B56" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="17" t="n"/>
+      <c r="D56" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="18" t="n"/>
+      <c r="F56" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>80</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="57">
-      <c r="A57" s="20" t="s"/>
-      <c r="B57" s="23" t="s"/>
-      <c r="C57" s="20" t="s"/>
-      <c r="D57" s="20" t="s"/>
-      <c r="E57" s="21" t="s"/>
-      <c r="F57" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>92</v>
+      <c r="A57" s="23" t="s"/>
+      <c r="B57" s="26" t="s"/>
+      <c r="C57" s="23" t="s"/>
+      <c r="D57" s="15" t="s"/>
+      <c r="E57" s="24" t="s"/>
+      <c r="F57" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>93</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="58">
-      <c r="A58" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B58" s="22" t="s">
+      <c r="A58" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="14" t="n"/>
-      <c r="D58" s="14" t="n"/>
-      <c r="E58" s="15" t="n"/>
-      <c r="F58" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G58" s="17" t="s">
-        <v>79</v>
+      <c r="B58" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="17" t="n"/>
+      <c r="D58" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="18" t="n"/>
+      <c r="F58" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>80</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="59">
-      <c r="A59" s="20" t="s"/>
-      <c r="B59" s="23" t="s"/>
-      <c r="C59" s="20" t="s"/>
-      <c r="D59" s="20" t="s"/>
-      <c r="E59" s="21" t="s"/>
-      <c r="F59" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="G59" s="24" t="s">
+      <c r="A59" s="23" t="s"/>
+      <c r="B59" s="26" t="s"/>
+      <c r="C59" s="23" t="s"/>
+      <c r="D59" s="15" t="s"/>
+      <c r="E59" s="24" t="s"/>
+      <c r="F59" s="20" t="s">
         <v>115</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>116</v>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B60" s="7" t="s"/>
       <c r="C60" s="7" t="s"/>
@@ -3096,106 +3150,116 @@
       <c r="G60" s="8" t="s"/>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="61">
-      <c r="A61" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B61" s="22" t="s">
+      <c r="A61" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="14" t="n"/>
-      <c r="D61" s="14" t="n"/>
-      <c r="E61" s="15" t="n"/>
-      <c r="F61" s="17" t="s">
+      <c r="B61" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G61" s="17" t="s">
+      <c r="C61" s="17" t="n"/>
+      <c r="D61" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="18" t="n"/>
+      <c r="F61" s="20" t="s">
         <v>120</v>
       </c>
+      <c r="G61" s="20" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="62">
-      <c r="A62" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" s="22" t="s">
+      <c r="A62" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="14" t="n"/>
-      <c r="D62" s="14" t="n"/>
-      <c r="E62" s="15" t="n"/>
-      <c r="F62" s="17" t="s">
+      <c r="B62" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="G62" s="17" t="s">
+      <c r="C62" s="17" t="n"/>
+      <c r="D62" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="18" t="n"/>
+      <c r="F62" s="20" t="s">
         <v>124</v>
       </c>
+      <c r="G62" s="20" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="63">
-      <c r="A63" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B63" s="22" t="s">
+      <c r="A63" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="14" t="n"/>
-      <c r="D63" s="14" t="n"/>
-      <c r="E63" s="15" t="n"/>
-      <c r="F63" s="17" t="s">
+      <c r="B63" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="G63" s="17" t="s">
+      <c r="C63" s="17" t="n"/>
+      <c r="D63" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="18" t="n"/>
+      <c r="F63" s="20" t="s">
         <v>128</v>
       </c>
+      <c r="G63" s="20" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="64">
-      <c r="A64" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64" s="22" t="s">
+      <c r="A64" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="14" t="n"/>
-      <c r="D64" s="14" t="n"/>
-      <c r="E64" s="15" t="n"/>
-      <c r="F64" s="17" t="s">
+      <c r="B64" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="G64" s="17" t="s">
+      <c r="C64" s="17" t="n"/>
+      <c r="D64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="18" t="n"/>
+      <c r="F64" s="20" t="s">
         <v>132</v>
       </c>
+      <c r="G64" s="20" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="65">
-      <c r="A65" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B65" s="22" t="s">
+      <c r="A65" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="14" t="n"/>
-      <c r="D65" s="14" t="n"/>
-      <c r="E65" s="15" t="n"/>
-      <c r="F65" s="17" t="s">
+      <c r="B65" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="G65" s="17" t="s">
+      <c r="C65" s="17" t="n"/>
+      <c r="D65" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="18" t="n"/>
+      <c r="F65" s="20" t="s">
         <v>136</v>
       </c>
+      <c r="G65" s="20" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="66">
-      <c r="A66" s="20" t="s"/>
-      <c r="B66" s="23" t="s"/>
-      <c r="C66" s="20" t="s"/>
-      <c r="D66" s="20" t="s"/>
-      <c r="E66" s="21" t="s"/>
-      <c r="F66" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G66" s="17" t="s">
+      <c r="A66" s="23" t="s"/>
+      <c r="B66" s="26" t="s"/>
+      <c r="C66" s="23" t="s"/>
+      <c r="D66" s="15" t="s"/>
+      <c r="E66" s="24" t="s"/>
+      <c r="F66" s="20" t="s">
         <v>138</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>139</v>
       </c>
     </row>
     <row outlineLevel="0" r="67">
       <c r="A67" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B67" s="7" t="s"/>
       <c r="C67" s="7" t="s"/>
@@ -3205,314 +3269,324 @@
       <c r="G67" s="8" t="s"/>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="68">
-      <c r="A68" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B68" s="22" t="s">
+      <c r="A68" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C68" s="14" t="n"/>
-      <c r="D68" s="14" t="n"/>
-      <c r="E68" s="15" t="n"/>
-      <c r="F68" s="17" t="s">
+      <c r="B68" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="G68" s="17" t="s">
-        <v>128</v>
+      <c r="C68" s="17" t="n"/>
+      <c r="D68" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="18" t="n"/>
+      <c r="F68" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>129</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="69">
-      <c r="A69" s="18" t="s"/>
-      <c r="B69" s="25" t="s"/>
-      <c r="C69" s="18" t="s"/>
-      <c r="D69" s="18" t="s"/>
-      <c r="E69" s="19" t="s"/>
-      <c r="F69" s="17" t="s">
+      <c r="A69" s="21" t="s"/>
+      <c r="B69" s="28" t="s"/>
+      <c r="C69" s="21" t="s"/>
+      <c r="D69" s="13" t="s"/>
+      <c r="E69" s="22" t="s"/>
+      <c r="F69" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="70">
+      <c r="A70" s="23" t="s"/>
+      <c r="B70" s="26" t="s"/>
+      <c r="C70" s="23" t="s"/>
+      <c r="D70" s="15" t="s"/>
+      <c r="E70" s="24" t="s"/>
+      <c r="F70" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G70" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="71">
+      <c r="A71" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="17" t="n"/>
+      <c r="D71" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="18" t="n"/>
+      <c r="F71" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="G69" s="17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="70">
-      <c r="A70" s="20" t="s"/>
-      <c r="B70" s="23" t="s"/>
-      <c r="C70" s="20" t="s"/>
-      <c r="D70" s="20" t="s"/>
-      <c r="E70" s="21" t="s"/>
-      <c r="F70" s="17" t="s">
+      <c r="G71" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="72">
+      <c r="A72" s="21" t="s"/>
+      <c r="B72" s="28" t="s"/>
+      <c r="C72" s="21" t="s"/>
+      <c r="D72" s="13" t="s"/>
+      <c r="E72" s="22" t="s"/>
+      <c r="F72" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="73">
+      <c r="A73" s="23" t="s"/>
+      <c r="B73" s="26" t="s"/>
+      <c r="C73" s="23" t="s"/>
+      <c r="D73" s="15" t="s"/>
+      <c r="E73" s="24" t="s"/>
+      <c r="F73" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G73" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="74">
+      <c r="A74" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" s="17" t="n"/>
+      <c r="D74" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="18" t="n"/>
+      <c r="F74" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G74" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="75">
+      <c r="A75" s="21" t="s"/>
+      <c r="B75" s="28" t="s"/>
+      <c r="C75" s="21" t="s"/>
+      <c r="D75" s="13" t="s"/>
+      <c r="E75" s="22" t="s"/>
+      <c r="F75" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G75" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="G70" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="71">
-      <c r="A71" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" s="14" t="n"/>
-      <c r="D71" s="14" t="n"/>
-      <c r="E71" s="15" t="n"/>
-      <c r="F71" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="G71" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="72">
-      <c r="A72" s="18" t="s"/>
-      <c r="B72" s="25" t="s"/>
-      <c r="C72" s="18" t="s"/>
-      <c r="D72" s="18" t="s"/>
-      <c r="E72" s="19" t="s"/>
-      <c r="F72" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="G72" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="73">
-      <c r="A73" s="20" t="s"/>
-      <c r="B73" s="23" t="s"/>
-      <c r="C73" s="20" t="s"/>
-      <c r="D73" s="20" t="s"/>
-      <c r="E73" s="21" t="s"/>
-      <c r="F73" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="G73" s="17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="74">
-      <c r="A74" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B74" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C74" s="14" t="n"/>
-      <c r="D74" s="14" t="n"/>
-      <c r="E74" s="15" t="n"/>
-      <c r="F74" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="75">
-      <c r="A75" s="18" t="s"/>
-      <c r="B75" s="25" t="s"/>
-      <c r="C75" s="18" t="s"/>
-      <c r="D75" s="18" t="s"/>
-      <c r="E75" s="19" t="s"/>
-      <c r="F75" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="G75" s="17" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="76">
-      <c r="A76" s="18" t="s"/>
-      <c r="B76" s="25" t="s"/>
-      <c r="C76" s="18" t="s"/>
-      <c r="D76" s="18" t="s"/>
-      <c r="E76" s="19" t="s"/>
-      <c r="F76" s="17" t="s">
+      <c r="A76" s="21" t="s"/>
+      <c r="B76" s="28" t="s"/>
+      <c r="C76" s="21" t="s"/>
+      <c r="D76" s="13" t="s"/>
+      <c r="E76" s="22" t="s"/>
+      <c r="F76" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G76" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="77">
+      <c r="A77" s="23" t="s"/>
+      <c r="B77" s="26" t="s"/>
+      <c r="C77" s="23" t="s"/>
+      <c r="D77" s="15" t="s"/>
+      <c r="E77" s="24" t="s"/>
+      <c r="F77" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G77" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="78">
+      <c r="A78" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="17" t="n"/>
+      <c r="D78" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="18" t="n"/>
+      <c r="F78" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G78" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="79">
+      <c r="A79" s="21" t="s"/>
+      <c r="B79" s="28" t="s"/>
+      <c r="C79" s="21" t="s"/>
+      <c r="D79" s="13" t="s"/>
+      <c r="E79" s="22" t="s"/>
+      <c r="F79" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="G76" s="17" t="s">
+      <c r="G79" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="80">
+      <c r="A80" s="21" t="s"/>
+      <c r="B80" s="28" t="s"/>
+      <c r="C80" s="21" t="s"/>
+      <c r="D80" s="13" t="s"/>
+      <c r="E80" s="22" t="s"/>
+      <c r="F80" s="20" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="77">
-      <c r="A77" s="20" t="s"/>
-      <c r="B77" s="23" t="s"/>
-      <c r="C77" s="20" t="s"/>
-      <c r="D77" s="20" t="s"/>
-      <c r="E77" s="21" t="s"/>
-      <c r="F77" s="17" t="s">
+      <c r="G80" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="G77" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="78">
-      <c r="A78" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B78" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C78" s="14" t="n"/>
-      <c r="D78" s="14" t="n"/>
-      <c r="E78" s="15" t="n"/>
-      <c r="F78" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="79">
-      <c r="A79" s="18" t="s"/>
-      <c r="B79" s="25" t="s"/>
-      <c r="C79" s="18" t="s"/>
-      <c r="D79" s="18" t="s"/>
-      <c r="E79" s="19" t="s"/>
-      <c r="F79" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="G79" s="17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="80">
-      <c r="A80" s="18" t="s"/>
-      <c r="B80" s="25" t="s"/>
-      <c r="C80" s="18" t="s"/>
-      <c r="D80" s="18" t="s"/>
-      <c r="E80" s="19" t="s"/>
-      <c r="F80" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="G80" s="17" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="81">
-      <c r="A81" s="18" t="s"/>
-      <c r="B81" s="25" t="s"/>
-      <c r="C81" s="18" t="s"/>
-      <c r="D81" s="18" t="s"/>
-      <c r="E81" s="19" t="s"/>
-      <c r="F81" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="G81" s="17" t="s">
+      <c r="A81" s="21" t="s"/>
+      <c r="B81" s="28" t="s"/>
+      <c r="C81" s="21" t="s"/>
+      <c r="D81" s="13" t="s"/>
+      <c r="E81" s="22" t="s"/>
+      <c r="F81" s="20" t="s">
         <v>163</v>
       </c>
+      <c r="G81" s="20" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="82">
-      <c r="A82" s="18" t="s"/>
-      <c r="B82" s="25" t="s"/>
-      <c r="C82" s="18" t="s"/>
-      <c r="D82" s="18" t="s"/>
-      <c r="E82" s="19" t="s"/>
-      <c r="F82" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="G82" s="17" t="s">
+      <c r="A82" s="21" t="s"/>
+      <c r="B82" s="28" t="s"/>
+      <c r="C82" s="21" t="s"/>
+      <c r="D82" s="13" t="s"/>
+      <c r="E82" s="22" t="s"/>
+      <c r="F82" s="20" t="s">
         <v>165</v>
       </c>
+      <c r="G82" s="20" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="83">
-      <c r="A83" s="18" t="s"/>
-      <c r="B83" s="25" t="s"/>
-      <c r="C83" s="18" t="s"/>
-      <c r="D83" s="18" t="s"/>
-      <c r="E83" s="19" t="s"/>
-      <c r="F83" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="G83" s="17" t="s">
+      <c r="A83" s="21" t="s"/>
+      <c r="B83" s="28" t="s"/>
+      <c r="C83" s="21" t="s"/>
+      <c r="D83" s="13" t="s"/>
+      <c r="E83" s="22" t="s"/>
+      <c r="F83" s="20" t="s">
         <v>167</v>
       </c>
+      <c r="G83" s="20" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="84">
-      <c r="A84" s="18" t="s"/>
-      <c r="B84" s="25" t="s"/>
-      <c r="C84" s="18" t="s"/>
-      <c r="D84" s="18" t="s"/>
-      <c r="E84" s="19" t="s"/>
-      <c r="F84" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="G84" s="17" t="s">
+      <c r="A84" s="21" t="s"/>
+      <c r="B84" s="28" t="s"/>
+      <c r="C84" s="21" t="s"/>
+      <c r="D84" s="13" t="s"/>
+      <c r="E84" s="22" t="s"/>
+      <c r="F84" s="20" t="s">
         <v>169</v>
       </c>
+      <c r="G84" s="20" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="85">
-      <c r="A85" s="18" t="s"/>
-      <c r="B85" s="25" t="s"/>
-      <c r="C85" s="18" t="s"/>
-      <c r="D85" s="18" t="s"/>
-      <c r="E85" s="19" t="s"/>
-      <c r="F85" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="G85" s="17" t="s">
+      <c r="A85" s="21" t="s"/>
+      <c r="B85" s="28" t="s"/>
+      <c r="C85" s="21" t="s"/>
+      <c r="D85" s="13" t="s"/>
+      <c r="E85" s="22" t="s"/>
+      <c r="F85" s="20" t="s">
         <v>171</v>
       </c>
+      <c r="G85" s="20" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="86">
-      <c r="A86" s="18" t="s"/>
-      <c r="B86" s="25" t="s"/>
-      <c r="C86" s="18" t="s"/>
-      <c r="D86" s="18" t="s"/>
-      <c r="E86" s="19" t="s"/>
-      <c r="F86" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="G86" s="17" t="s">
+      <c r="A86" s="21" t="s"/>
+      <c r="B86" s="28" t="s"/>
+      <c r="C86" s="21" t="s"/>
+      <c r="D86" s="13" t="s"/>
+      <c r="E86" s="22" t="s"/>
+      <c r="F86" s="20" t="s">
         <v>173</v>
       </c>
+      <c r="G86" s="20" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="87">
-      <c r="A87" s="20" t="s"/>
-      <c r="B87" s="23" t="s"/>
-      <c r="C87" s="20" t="s"/>
-      <c r="D87" s="20" t="s"/>
-      <c r="E87" s="21" t="s"/>
-      <c r="F87" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G87" s="17" t="s">
+      <c r="A87" s="23" t="s"/>
+      <c r="B87" s="26" t="s"/>
+      <c r="C87" s="23" t="s"/>
+      <c r="D87" s="15" t="s"/>
+      <c r="E87" s="24" t="s"/>
+      <c r="F87" s="20" t="s">
         <v>175</v>
       </c>
+      <c r="G87" s="20" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="88">
-      <c r="A88" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="B88" s="22" t="s">
+      <c r="A88" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C88" s="14" t="n"/>
-      <c r="D88" s="14" t="n"/>
-      <c r="E88" s="15" t="n"/>
-      <c r="F88" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="G88" s="17" t="s">
-        <v>128</v>
+      <c r="B88" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" s="17" t="n"/>
+      <c r="D88" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="18" t="n"/>
+      <c r="F88" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G88" s="20" t="s">
+        <v>129</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="89">
-      <c r="A89" s="20" t="s"/>
-      <c r="B89" s="23" t="s"/>
-      <c r="C89" s="20" t="s"/>
-      <c r="D89" s="20" t="s"/>
-      <c r="E89" s="21" t="s"/>
-      <c r="F89" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G89" s="17" t="s">
-        <v>92</v>
+      <c r="A89" s="23" t="s"/>
+      <c r="B89" s="26" t="s"/>
+      <c r="C89" s="23" t="s"/>
+      <c r="D89" s="15" t="s"/>
+      <c r="E89" s="24" t="s"/>
+      <c r="F89" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G89" s="20" t="s">
+        <v>93</v>
       </c>
     </row>
     <row outlineLevel="0" r="90">
       <c r="A90" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B90" s="7" t="s"/>
       <c r="C90" s="7" t="s"/>
@@ -3522,141 +3596,149 @@
       <c r="G90" s="8" t="s"/>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="91">
-      <c r="A91" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B91" s="22" t="s">
+      <c r="A91" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="C91" s="14" t="n"/>
-      <c r="D91" s="14" t="n"/>
-      <c r="E91" s="15" t="n"/>
-      <c r="F91" s="17" t="s">
+      <c r="B91" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="G91" s="17" t="s">
+      <c r="C91" s="17" t="n"/>
+      <c r="D91" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="18" t="n"/>
+      <c r="F91" s="20" t="s">
         <v>183</v>
       </c>
+      <c r="G91" s="20" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="92">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="17" t="n"/>
+      <c r="D92" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="18" t="n"/>
+      <c r="F92" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G92" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="B92" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="C92" s="14" t="n"/>
-      <c r="D92" s="14" t="n"/>
-      <c r="E92" s="15" t="n"/>
-      <c r="F92" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G92" s="17" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="93">
+      <c r="A93" s="21" t="s"/>
+      <c r="B93" s="28" t="s"/>
+      <c r="C93" s="21" t="s"/>
+      <c r="D93" s="13" t="s"/>
+      <c r="E93" s="22" t="s"/>
+      <c r="F93" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G93" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="94">
+      <c r="A94" s="23" t="s"/>
+      <c r="B94" s="26" t="s"/>
+      <c r="C94" s="23" t="s"/>
+      <c r="D94" s="15" t="s"/>
+      <c r="E94" s="24" t="s"/>
+      <c r="F94" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G94" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="95">
+      <c r="A95" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" s="17" t="n"/>
+      <c r="D95" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="18" t="n"/>
+      <c r="F95" s="20" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="93">
-      <c r="A93" s="18" t="s"/>
-      <c r="B93" s="25" t="s"/>
-      <c r="C93" s="18" t="s"/>
-      <c r="D93" s="18" t="s"/>
-      <c r="E93" s="19" t="s"/>
-      <c r="F93" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="G93" s="17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="94">
-      <c r="A94" s="20" t="s"/>
-      <c r="B94" s="23" t="s"/>
-      <c r="C94" s="20" t="s"/>
-      <c r="D94" s="20" t="s"/>
-      <c r="E94" s="21" t="s"/>
-      <c r="F94" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="G94" s="17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="95">
-      <c r="A95" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B95" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="C95" s="14" t="n"/>
-      <c r="D95" s="14" t="n"/>
-      <c r="E95" s="15" t="n"/>
-      <c r="F95" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G95" s="17" t="s">
+      <c r="G95" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="96">
+      <c r="A96" s="23" t="s"/>
+      <c r="B96" s="26" t="s"/>
+      <c r="C96" s="23" t="s"/>
+      <c r="D96" s="15" t="s"/>
+      <c r="E96" s="24" t="s"/>
+      <c r="F96" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G96" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="97">
+      <c r="A97" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" s="17" t="n"/>
+      <c r="D97" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="18" t="n"/>
+      <c r="F97" s="20" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="96">
-      <c r="A96" s="20" t="s"/>
-      <c r="B96" s="23" t="s"/>
-      <c r="C96" s="20" t="s"/>
-      <c r="D96" s="20" t="s"/>
-      <c r="E96" s="21" t="s"/>
-      <c r="F96" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="G96" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="97">
-      <c r="A97" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B97" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="C97" s="14" t="n"/>
-      <c r="D97" s="14" t="n"/>
-      <c r="E97" s="15" t="n"/>
-      <c r="F97" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G97" s="17" t="s">
-        <v>183</v>
+      <c r="G97" s="20" t="s">
+        <v>184</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="98">
-      <c r="A98" s="18" t="s"/>
-      <c r="B98" s="25" t="s"/>
-      <c r="C98" s="18" t="s"/>
-      <c r="D98" s="18" t="s"/>
-      <c r="E98" s="19" t="s"/>
-      <c r="F98" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="G98" s="17" t="s">
+      <c r="A98" s="21" t="s"/>
+      <c r="B98" s="28" t="s"/>
+      <c r="C98" s="21" t="s"/>
+      <c r="D98" s="13" t="s"/>
+      <c r="E98" s="22" t="s"/>
+      <c r="F98" s="20" t="s">
         <v>197</v>
       </c>
+      <c r="G98" s="20" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="99">
-      <c r="A99" s="20" t="s"/>
-      <c r="B99" s="23" t="s"/>
-      <c r="C99" s="20" t="s"/>
-      <c r="D99" s="20" t="s"/>
-      <c r="E99" s="21" t="s"/>
-      <c r="F99" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="G99" s="17" t="s">
+      <c r="A99" s="23" t="s"/>
+      <c r="B99" s="26" t="s"/>
+      <c r="C99" s="23" t="s"/>
+      <c r="D99" s="15" t="s"/>
+      <c r="E99" s="24" t="s"/>
+      <c r="F99" s="20" t="s">
         <v>199</v>
+      </c>
+      <c r="G99" s="20" t="s">
+        <v>200</v>
       </c>
     </row>
     <row outlineLevel="0" r="100">
       <c r="A100" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B100" s="7" t="s"/>
       <c r="C100" s="7" t="s"/>
@@ -3666,500 +3748,512 @@
       <c r="G100" s="8" t="s"/>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="101">
-      <c r="A101" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="B101" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C101" s="14" t="n"/>
-      <c r="D101" s="14" t="n"/>
-      <c r="E101" s="15" t="n"/>
-      <c r="F101" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G101" s="17" t="s">
+      <c r="A101" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C101" s="17" t="n"/>
+      <c r="D101" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="18" t="n"/>
+      <c r="F101" s="20" t="s">
         <v>183</v>
       </c>
+      <c r="G101" s="20" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="102">
-      <c r="A102" s="18" t="s"/>
-      <c r="B102" s="25" t="s"/>
-      <c r="C102" s="18" t="s"/>
-      <c r="D102" s="18" t="s"/>
-      <c r="E102" s="19" t="s"/>
-      <c r="F102" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G102" s="17" t="s">
+      <c r="A102" s="21" t="s"/>
+      <c r="B102" s="28" t="s"/>
+      <c r="C102" s="21" t="s"/>
+      <c r="D102" s="13" t="s"/>
+      <c r="E102" s="22" t="s"/>
+      <c r="F102" s="20" t="s">
         <v>203</v>
       </c>
+      <c r="G102" s="20" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="103">
-      <c r="A103" s="18" t="s"/>
-      <c r="B103" s="25" t="s"/>
-      <c r="C103" s="18" t="s"/>
-      <c r="D103" s="18" t="s"/>
-      <c r="E103" s="19" t="s"/>
-      <c r="F103" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="G103" s="17" t="s">
+      <c r="A103" s="21" t="s"/>
+      <c r="B103" s="28" t="s"/>
+      <c r="C103" s="21" t="s"/>
+      <c r="D103" s="13" t="s"/>
+      <c r="E103" s="22" t="s"/>
+      <c r="F103" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G103" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="104">
+      <c r="A104" s="23" t="s"/>
+      <c r="B104" s="26" t="s"/>
+      <c r="C104" s="23" t="s"/>
+      <c r="D104" s="15" t="s"/>
+      <c r="E104" s="24" t="s"/>
+      <c r="F104" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G104" s="20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="105">
+      <c r="A105" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C105" s="17" t="n"/>
+      <c r="D105" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="18" t="n"/>
+      <c r="F105" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G105" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="106">
+      <c r="A106" s="21" t="s"/>
+      <c r="B106" s="28" t="s"/>
+      <c r="C106" s="21" t="s"/>
+      <c r="D106" s="13" t="s"/>
+      <c r="E106" s="22" t="s"/>
+      <c r="F106" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G106" s="20" t="s">
         <v>204</v>
       </c>
     </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="104">
-      <c r="A104" s="20" t="s"/>
-      <c r="B104" s="23" t="s"/>
-      <c r="C104" s="20" t="s"/>
-      <c r="D104" s="20" t="s"/>
-      <c r="E104" s="21" t="s"/>
-      <c r="F104" s="17" t="s">
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="107">
+      <c r="A107" s="21" t="s"/>
+      <c r="B107" s="28" t="s"/>
+      <c r="C107" s="21" t="s"/>
+      <c r="D107" s="13" t="s"/>
+      <c r="E107" s="22" t="s"/>
+      <c r="F107" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="G107" s="20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="108">
+      <c r="A108" s="23" t="s"/>
+      <c r="B108" s="26" t="s"/>
+      <c r="C108" s="23" t="s"/>
+      <c r="D108" s="15" t="s"/>
+      <c r="E108" s="24" t="s"/>
+      <c r="F108" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="G108" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="109">
+      <c r="A109" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C109" s="17" t="n"/>
+      <c r="D109" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="18" t="n"/>
+      <c r="F109" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G109" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="110">
+      <c r="A110" s="21" t="s"/>
+      <c r="B110" s="28" t="s"/>
+      <c r="C110" s="21" t="s"/>
+      <c r="D110" s="13" t="s"/>
+      <c r="E110" s="22" t="s"/>
+      <c r="F110" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G110" s="20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="111">
+      <c r="A111" s="21" t="s"/>
+      <c r="B111" s="28" t="s"/>
+      <c r="C111" s="21" t="s"/>
+      <c r="D111" s="13" t="s"/>
+      <c r="E111" s="22" t="s"/>
+      <c r="F111" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G111" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="G104" s="17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="105">
-      <c r="A105" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="B105" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="C105" s="14" t="n"/>
-      <c r="D105" s="14" t="n"/>
-      <c r="E105" s="15" t="n"/>
-      <c r="F105" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G105" s="17" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="112">
+      <c r="A112" s="21" t="s"/>
+      <c r="B112" s="28" t="s"/>
+      <c r="C112" s="21" t="s"/>
+      <c r="D112" s="13" t="s"/>
+      <c r="E112" s="22" t="s"/>
+      <c r="F112" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G112" s="20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="113">
+      <c r="A113" s="23" t="s"/>
+      <c r="B113" s="26" t="s"/>
+      <c r="C113" s="23" t="s"/>
+      <c r="D113" s="15" t="s"/>
+      <c r="E113" s="24" t="s"/>
+      <c r="F113" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G113" s="20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="114">
+      <c r="A114" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B114" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C114" s="17" t="n"/>
+      <c r="D114" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="18" t="n"/>
+      <c r="F114" s="20" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="106">
-      <c r="A106" s="18" t="s"/>
-      <c r="B106" s="25" t="s"/>
-      <c r="C106" s="18" t="s"/>
-      <c r="D106" s="18" t="s"/>
-      <c r="E106" s="19" t="s"/>
-      <c r="F106" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G106" s="17" t="s">
+      <c r="G114" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="115">
+      <c r="A115" s="21" t="s"/>
+      <c r="B115" s="28" t="s"/>
+      <c r="C115" s="21" t="s"/>
+      <c r="D115" s="13" t="s"/>
+      <c r="E115" s="22" t="s"/>
+      <c r="F115" s="20" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="107">
-      <c r="A107" s="18" t="s"/>
-      <c r="B107" s="25" t="s"/>
-      <c r="C107" s="18" t="s"/>
-      <c r="D107" s="18" t="s"/>
-      <c r="E107" s="19" t="s"/>
-      <c r="F107" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="G107" s="17" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="108">
-      <c r="A108" s="20" t="s"/>
-      <c r="B108" s="23" t="s"/>
-      <c r="C108" s="20" t="s"/>
-      <c r="D108" s="20" t="s"/>
-      <c r="E108" s="21" t="s"/>
-      <c r="F108" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="G108" s="17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="109">
-      <c r="A109" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="B109" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="C109" s="14" t="n"/>
-      <c r="D109" s="14" t="n"/>
-      <c r="E109" s="15" t="n"/>
-      <c r="F109" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G109" s="17" t="s">
+      <c r="G115" s="20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="116">
+      <c r="A116" s="21" t="s"/>
+      <c r="B116" s="28" t="s"/>
+      <c r="C116" s="21" t="s"/>
+      <c r="D116" s="13" t="s"/>
+      <c r="E116" s="22" t="s"/>
+      <c r="F116" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G116" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="117">
+      <c r="A117" s="21" t="s"/>
+      <c r="B117" s="28" t="s"/>
+      <c r="C117" s="21" t="s"/>
+      <c r="D117" s="13" t="s"/>
+      <c r="E117" s="22" t="s"/>
+      <c r="F117" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G117" s="20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="118">
+      <c r="A118" s="21" t="s"/>
+      <c r="B118" s="28" t="s"/>
+      <c r="C118" s="21" t="s"/>
+      <c r="D118" s="13" t="s"/>
+      <c r="E118" s="22" t="s"/>
+      <c r="F118" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="G118" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="119">
+      <c r="A119" s="21" t="s"/>
+      <c r="B119" s="28" t="s"/>
+      <c r="C119" s="21" t="s"/>
+      <c r="D119" s="13" t="s"/>
+      <c r="E119" s="22" t="s"/>
+      <c r="F119" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="G119" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="120">
+      <c r="A120" s="21" t="s"/>
+      <c r="B120" s="28" t="s"/>
+      <c r="C120" s="21" t="s"/>
+      <c r="D120" s="13" t="s"/>
+      <c r="E120" s="22" t="s"/>
+      <c r="F120" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="G120" s="20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="121">
+      <c r="A121" s="21" t="s"/>
+      <c r="B121" s="28" t="s"/>
+      <c r="C121" s="21" t="s"/>
+      <c r="D121" s="13" t="s"/>
+      <c r="E121" s="22" t="s"/>
+      <c r="F121" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="G121" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="122">
+      <c r="A122" s="21" t="s"/>
+      <c r="B122" s="28" t="s"/>
+      <c r="C122" s="21" t="s"/>
+      <c r="D122" s="13" t="s"/>
+      <c r="E122" s="22" t="s"/>
+      <c r="F122" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="G122" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="123">
+      <c r="A123" s="21" t="s"/>
+      <c r="B123" s="28" t="s"/>
+      <c r="C123" s="21" t="s"/>
+      <c r="D123" s="13" t="s"/>
+      <c r="E123" s="22" t="s"/>
+      <c r="F123" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="G123" s="20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="124">
+      <c r="A124" s="23" t="s"/>
+      <c r="B124" s="26" t="s"/>
+      <c r="C124" s="23" t="s"/>
+      <c r="D124" s="15" t="s"/>
+      <c r="E124" s="24" t="s"/>
+      <c r="F124" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="G124" s="20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="125">
+      <c r="A125" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B125" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C125" s="17" t="n"/>
+      <c r="D125" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="18" t="n"/>
+      <c r="F125" s="20" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="110">
-      <c r="A110" s="18" t="s"/>
-      <c r="B110" s="25" t="s"/>
-      <c r="C110" s="18" t="s"/>
-      <c r="D110" s="18" t="s"/>
-      <c r="E110" s="19" t="s"/>
-      <c r="F110" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G110" s="17" t="s">
+      <c r="G125" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="126">
+      <c r="A126" s="21" t="s"/>
+      <c r="B126" s="28" t="s"/>
+      <c r="C126" s="21" t="s"/>
+      <c r="D126" s="13" t="s"/>
+      <c r="E126" s="22" t="s"/>
+      <c r="F126" s="20" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="111">
-      <c r="A111" s="18" t="s"/>
-      <c r="B111" s="25" t="s"/>
-      <c r="C111" s="18" t="s"/>
-      <c r="D111" s="18" t="s"/>
-      <c r="E111" s="19" t="s"/>
-      <c r="F111" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="G111" s="17" t="s">
+      <c r="G126" s="20" t="s">
         <v>204</v>
       </c>
     </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="112">
-      <c r="A112" s="18" t="s"/>
-      <c r="B112" s="25" t="s"/>
-      <c r="C112" s="18" t="s"/>
-      <c r="D112" s="18" t="s"/>
-      <c r="E112" s="19" t="s"/>
-      <c r="F112" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="G112" s="17" t="s">
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="127">
+      <c r="A127" s="21" t="s"/>
+      <c r="B127" s="28" t="s"/>
+      <c r="C127" s="21" t="s"/>
+      <c r="D127" s="13" t="s"/>
+      <c r="E127" s="22" t="s"/>
+      <c r="F127" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G127" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="128">
+      <c r="A128" s="21" t="s"/>
+      <c r="B128" s="28" t="s"/>
+      <c r="C128" s="21" t="s"/>
+      <c r="D128" s="13" t="s"/>
+      <c r="E128" s="22" t="s"/>
+      <c r="F128" s="20" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="113">
-      <c r="A113" s="20" t="s"/>
-      <c r="B113" s="23" t="s"/>
-      <c r="C113" s="20" t="s"/>
-      <c r="D113" s="20" t="s"/>
-      <c r="E113" s="21" t="s"/>
-      <c r="F113" s="17" t="s">
+      <c r="G128" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="G113" s="17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="114">
-      <c r="A114" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="B114" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="C114" s="14" t="n"/>
-      <c r="D114" s="14" t="n"/>
-      <c r="E114" s="15" t="n"/>
-      <c r="F114" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G114" s="17" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="129">
+      <c r="A129" s="21" t="s"/>
+      <c r="B129" s="28" t="s"/>
+      <c r="C129" s="21" t="s"/>
+      <c r="D129" s="13" t="s"/>
+      <c r="E129" s="22" t="s"/>
+      <c r="F129" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="G129" s="20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="130">
+      <c r="A130" s="23" t="s"/>
+      <c r="B130" s="26" t="s"/>
+      <c r="C130" s="23" t="s"/>
+      <c r="D130" s="15" t="s"/>
+      <c r="E130" s="24" t="s"/>
+      <c r="F130" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="G130" s="20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="131">
+      <c r="A131" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B131" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C131" s="17" t="n"/>
+      <c r="D131" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="18" t="n"/>
+      <c r="F131" s="20" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="115">
-      <c r="A115" s="18" t="s"/>
-      <c r="B115" s="25" t="s"/>
-      <c r="C115" s="18" t="s"/>
-      <c r="D115" s="18" t="s"/>
-      <c r="E115" s="19" t="s"/>
-      <c r="F115" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G115" s="17" t="s">
+      <c r="G131" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="132">
+      <c r="A132" s="21" t="s"/>
+      <c r="B132" s="28" t="s"/>
+      <c r="C132" s="21" t="s"/>
+      <c r="D132" s="13" t="s"/>
+      <c r="E132" s="22" t="s"/>
+      <c r="F132" s="20" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="116">
-      <c r="A116" s="18" t="s"/>
-      <c r="B116" s="25" t="s"/>
-      <c r="C116" s="18" t="s"/>
-      <c r="D116" s="18" t="s"/>
-      <c r="E116" s="19" t="s"/>
-      <c r="F116" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="G116" s="17" t="s">
+      <c r="G132" s="20" t="s">
         <v>204</v>
       </c>
     </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="117">
-      <c r="A117" s="18" t="s"/>
-      <c r="B117" s="25" t="s"/>
-      <c r="C117" s="18" t="s"/>
-      <c r="D117" s="18" t="s"/>
-      <c r="E117" s="19" t="s"/>
-      <c r="F117" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="G117" s="17" t="s">
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="133">
+      <c r="A133" s="21" t="s"/>
+      <c r="B133" s="28" t="s"/>
+      <c r="C133" s="21" t="s"/>
+      <c r="D133" s="13" t="s"/>
+      <c r="E133" s="22" t="s"/>
+      <c r="F133" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G133" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="134">
+      <c r="A134" s="21" t="s"/>
+      <c r="B134" s="28" t="s"/>
+      <c r="C134" s="21" t="s"/>
+      <c r="D134" s="13" t="s"/>
+      <c r="E134" s="22" t="s"/>
+      <c r="F134" s="20" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="118">
-      <c r="A118" s="18" t="s"/>
-      <c r="B118" s="25" t="s"/>
-      <c r="C118" s="18" t="s"/>
-      <c r="D118" s="18" t="s"/>
-      <c r="E118" s="19" t="s"/>
-      <c r="F118" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="G118" s="17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="119">
-      <c r="A119" s="18" t="s"/>
-      <c r="B119" s="25" t="s"/>
-      <c r="C119" s="18" t="s"/>
-      <c r="D119" s="18" t="s"/>
-      <c r="E119" s="19" t="s"/>
-      <c r="F119" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="G119" s="17" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="120">
-      <c r="A120" s="18" t="s"/>
-      <c r="B120" s="25" t="s"/>
-      <c r="C120" s="18" t="s"/>
-      <c r="D120" s="18" t="s"/>
-      <c r="E120" s="19" t="s"/>
-      <c r="F120" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="G120" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="121">
-      <c r="A121" s="18" t="s"/>
-      <c r="B121" s="25" t="s"/>
-      <c r="C121" s="18" t="s"/>
-      <c r="D121" s="18" t="s"/>
-      <c r="E121" s="19" t="s"/>
-      <c r="F121" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="G121" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="122">
-      <c r="A122" s="18" t="s"/>
-      <c r="B122" s="25" t="s"/>
-      <c r="C122" s="18" t="s"/>
-      <c r="D122" s="18" t="s"/>
-      <c r="E122" s="19" t="s"/>
-      <c r="F122" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="G122" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="123">
-      <c r="A123" s="18" t="s"/>
-      <c r="B123" s="25" t="s"/>
-      <c r="C123" s="18" t="s"/>
-      <c r="D123" s="18" t="s"/>
-      <c r="E123" s="19" t="s"/>
-      <c r="F123" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="G123" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="124">
-      <c r="A124" s="20" t="s"/>
-      <c r="B124" s="23" t="s"/>
-      <c r="C124" s="20" t="s"/>
-      <c r="D124" s="20" t="s"/>
-      <c r="E124" s="21" t="s"/>
-      <c r="F124" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="G124" s="17" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="125">
-      <c r="A125" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="B125" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="C125" s="14" t="n"/>
-      <c r="D125" s="14" t="n"/>
-      <c r="E125" s="15" t="n"/>
-      <c r="F125" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G125" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="126">
-      <c r="A126" s="18" t="s"/>
-      <c r="B126" s="25" t="s"/>
-      <c r="C126" s="18" t="s"/>
-      <c r="D126" s="18" t="s"/>
-      <c r="E126" s="19" t="s"/>
-      <c r="F126" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G126" s="17" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="127">
-      <c r="A127" s="18" t="s"/>
-      <c r="B127" s="25" t="s"/>
-      <c r="C127" s="18" t="s"/>
-      <c r="D127" s="18" t="s"/>
-      <c r="E127" s="19" t="s"/>
-      <c r="F127" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="G127" s="17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="128">
-      <c r="A128" s="18" t="s"/>
-      <c r="B128" s="25" t="s"/>
-      <c r="C128" s="18" t="s"/>
-      <c r="D128" s="18" t="s"/>
-      <c r="E128" s="19" t="s"/>
-      <c r="F128" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="G128" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="129">
-      <c r="A129" s="18" t="s"/>
-      <c r="B129" s="25" t="s"/>
-      <c r="C129" s="18" t="s"/>
-      <c r="D129" s="18" t="s"/>
-      <c r="E129" s="19" t="s"/>
-      <c r="F129" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="G129" s="17" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="130">
-      <c r="A130" s="20" t="s"/>
-      <c r="B130" s="23" t="s"/>
-      <c r="C130" s="20" t="s"/>
-      <c r="D130" s="20" t="s"/>
-      <c r="E130" s="21" t="s"/>
-      <c r="F130" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="G130" s="17" t="s">
+      <c r="G134" s="20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="135">
+      <c r="A135" s="21" t="s"/>
+      <c r="B135" s="28" t="s"/>
+      <c r="C135" s="21" t="s"/>
+      <c r="D135" s="13" t="s"/>
+      <c r="E135" s="22" t="s"/>
+      <c r="F135" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="G135" s="20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="136">
+      <c r="A136" s="23" t="s"/>
+      <c r="B136" s="26" t="s"/>
+      <c r="C136" s="23" t="s"/>
+      <c r="D136" s="15" t="s"/>
+      <c r="E136" s="24" t="s"/>
+      <c r="F136" s="20" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="131">
-      <c r="A131" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B131" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="C131" s="14" t="n"/>
-      <c r="D131" s="14" t="n"/>
-      <c r="E131" s="15" t="n"/>
-      <c r="F131" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G131" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="132">
-      <c r="A132" s="18" t="s"/>
-      <c r="B132" s="25" t="s"/>
-      <c r="C132" s="18" t="s"/>
-      <c r="D132" s="18" t="s"/>
-      <c r="E132" s="19" t="s"/>
-      <c r="F132" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G132" s="17" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="133">
-      <c r="A133" s="18" t="s"/>
-      <c r="B133" s="25" t="s"/>
-      <c r="C133" s="18" t="s"/>
-      <c r="D133" s="18" t="s"/>
-      <c r="E133" s="19" t="s"/>
-      <c r="F133" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="G133" s="17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="134">
-      <c r="A134" s="18" t="s"/>
-      <c r="B134" s="25" t="s"/>
-      <c r="C134" s="18" t="s"/>
-      <c r="D134" s="18" t="s"/>
-      <c r="E134" s="19" t="s"/>
-      <c r="F134" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="G134" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="135">
-      <c r="A135" s="18" t="s"/>
-      <c r="B135" s="25" t="s"/>
-      <c r="C135" s="18" t="s"/>
-      <c r="D135" s="18" t="s"/>
-      <c r="E135" s="19" t="s"/>
-      <c r="F135" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="G135" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="136">
-      <c r="A136" s="20" t="s"/>
-      <c r="B136" s="23" t="s"/>
-      <c r="C136" s="20" t="s"/>
-      <c r="D136" s="20" t="s"/>
-      <c r="E136" s="21" t="s"/>
-      <c r="F136" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="G136" s="17" t="s">
-        <v>245</v>
+      <c r="G136" s="20" t="s">
+        <v>246</v>
       </c>
     </row>
     <row outlineLevel="0" r="137">
       <c r="A137" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B137" s="7" t="s"/>
       <c r="C137" s="7" t="s"/>
@@ -4169,596 +4263,604 @@
       <c r="G137" s="8" t="s"/>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="138">
-      <c r="A138" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="B138" s="22" t="s">
+      <c r="A138" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="C138" s="14" t="n"/>
-      <c r="D138" s="14" t="n"/>
-      <c r="E138" s="15" t="n"/>
-      <c r="F138" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G138" s="17" t="s">
+      <c r="B138" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C138" s="17" t="n"/>
+      <c r="D138" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="18" t="n"/>
+      <c r="F138" s="20" t="s">
         <v>183</v>
       </c>
+      <c r="G138" s="20" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="139">
-      <c r="A139" s="18" t="s"/>
-      <c r="B139" s="25" t="s"/>
-      <c r="C139" s="18" t="s"/>
-      <c r="D139" s="18" t="s"/>
-      <c r="E139" s="19" t="s"/>
-      <c r="F139" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="G139" s="17" t="s">
+      <c r="A139" s="21" t="s"/>
+      <c r="B139" s="28" t="s"/>
+      <c r="C139" s="21" t="s"/>
+      <c r="D139" s="13" t="s"/>
+      <c r="E139" s="22" t="s"/>
+      <c r="F139" s="20" t="s">
         <v>250</v>
       </c>
+      <c r="G139" s="20" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="140">
-      <c r="A140" s="18" t="s"/>
-      <c r="B140" s="25" t="s"/>
-      <c r="C140" s="18" t="s"/>
-      <c r="D140" s="18" t="s"/>
-      <c r="E140" s="19" t="s"/>
-      <c r="F140" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="G140" s="17" t="s">
-        <v>204</v>
+      <c r="A140" s="21" t="s"/>
+      <c r="B140" s="28" t="s"/>
+      <c r="C140" s="21" t="s"/>
+      <c r="D140" s="13" t="s"/>
+      <c r="E140" s="22" t="s"/>
+      <c r="F140" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G140" s="20" t="s">
+        <v>205</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="141">
-      <c r="A141" s="18" t="s"/>
-      <c r="B141" s="25" t="s"/>
-      <c r="C141" s="18" t="s"/>
-      <c r="D141" s="18" t="s"/>
-      <c r="E141" s="19" t="s"/>
-      <c r="F141" s="17" t="s">
+      <c r="A141" s="21" t="s"/>
+      <c r="B141" s="28" t="s"/>
+      <c r="C141" s="21" t="s"/>
+      <c r="D141" s="13" t="s"/>
+      <c r="E141" s="22" t="s"/>
+      <c r="F141" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="G141" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="142">
+      <c r="A142" s="23" t="s"/>
+      <c r="B142" s="26" t="s"/>
+      <c r="C142" s="23" t="s"/>
+      <c r="D142" s="15" t="s"/>
+      <c r="E142" s="24" t="s"/>
+      <c r="F142" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="G142" s="20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="143">
+      <c r="A143" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B143" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C143" s="17" t="n"/>
+      <c r="D143" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="18" t="n"/>
+      <c r="F143" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G143" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="144">
+      <c r="A144" s="21" t="s"/>
+      <c r="B144" s="28" t="s"/>
+      <c r="C144" s="21" t="s"/>
+      <c r="D144" s="13" t="s"/>
+      <c r="E144" s="22" t="s"/>
+      <c r="F144" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="G144" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="G141" s="17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="142">
-      <c r="A142" s="20" t="s"/>
-      <c r="B142" s="23" t="s"/>
-      <c r="C142" s="20" t="s"/>
-      <c r="D142" s="20" t="s"/>
-      <c r="E142" s="21" t="s"/>
-      <c r="F142" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="G142" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="143">
-      <c r="A143" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="B143" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C143" s="14" t="n"/>
-      <c r="D143" s="14" t="n"/>
-      <c r="E143" s="15" t="n"/>
-      <c r="F143" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G143" s="17" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="145">
+      <c r="A145" s="21" t="s"/>
+      <c r="B145" s="28" t="s"/>
+      <c r="C145" s="21" t="s"/>
+      <c r="D145" s="13" t="s"/>
+      <c r="E145" s="22" t="s"/>
+      <c r="F145" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="G145" s="20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="146">
+      <c r="A146" s="21" t="s"/>
+      <c r="B146" s="28" t="s"/>
+      <c r="C146" s="21" t="s"/>
+      <c r="D146" s="13" t="s"/>
+      <c r="E146" s="22" t="s"/>
+      <c r="F146" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="G146" s="20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="147">
+      <c r="A147" s="21" t="s"/>
+      <c r="B147" s="28" t="s"/>
+      <c r="C147" s="21" t="s"/>
+      <c r="D147" s="13" t="s"/>
+      <c r="E147" s="22" t="s"/>
+      <c r="F147" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="G147" s="20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="148">
+      <c r="A148" s="21" t="s"/>
+      <c r="B148" s="28" t="s"/>
+      <c r="C148" s="21" t="s"/>
+      <c r="D148" s="13" t="s"/>
+      <c r="E148" s="22" t="s"/>
+      <c r="F148" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="G148" s="20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="149">
+      <c r="A149" s="21" t="s"/>
+      <c r="B149" s="28" t="s"/>
+      <c r="C149" s="21" t="s"/>
+      <c r="D149" s="13" t="s"/>
+      <c r="E149" s="22" t="s"/>
+      <c r="F149" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="G149" s="20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="150">
+      <c r="A150" s="21" t="s"/>
+      <c r="B150" s="28" t="s"/>
+      <c r="C150" s="21" t="s"/>
+      <c r="D150" s="13" t="s"/>
+      <c r="E150" s="22" t="s"/>
+      <c r="F150" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="G150" s="20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="151">
+      <c r="A151" s="21" t="s"/>
+      <c r="B151" s="28" t="s"/>
+      <c r="C151" s="21" t="s"/>
+      <c r="D151" s="13" t="s"/>
+      <c r="E151" s="22" t="s"/>
+      <c r="F151" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="G151" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="152">
+      <c r="A152" s="21" t="s"/>
+      <c r="B152" s="28" t="s"/>
+      <c r="C152" s="21" t="s"/>
+      <c r="D152" s="13" t="s"/>
+      <c r="E152" s="22" t="s"/>
+      <c r="F152" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="G152" s="20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="153">
+      <c r="A153" s="21" t="s"/>
+      <c r="B153" s="28" t="s"/>
+      <c r="C153" s="21" t="s"/>
+      <c r="D153" s="13" t="s"/>
+      <c r="E153" s="22" t="s"/>
+      <c r="F153" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="G153" s="20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="154">
+      <c r="A154" s="23" t="s"/>
+      <c r="B154" s="26" t="s"/>
+      <c r="C154" s="23" t="s"/>
+      <c r="D154" s="15" t="s"/>
+      <c r="E154" s="24" t="s"/>
+      <c r="F154" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="G154" s="20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="155">
+      <c r="A155" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B155" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="C155" s="17" t="n"/>
+      <c r="D155" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="18" t="n"/>
+      <c r="F155" s="20" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="144">
-      <c r="A144" s="18" t="s"/>
-      <c r="B144" s="25" t="s"/>
-      <c r="C144" s="18" t="s"/>
-      <c r="D144" s="18" t="s"/>
-      <c r="E144" s="19" t="s"/>
-      <c r="F144" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="G144" s="17" t="s">
+      <c r="G155" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="156">
+      <c r="A156" s="21" t="s"/>
+      <c r="B156" s="28" t="s"/>
+      <c r="C156" s="21" t="s"/>
+      <c r="D156" s="13" t="s"/>
+      <c r="E156" s="22" t="s"/>
+      <c r="F156" s="20" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="145">
-      <c r="A145" s="18" t="s"/>
-      <c r="B145" s="25" t="s"/>
-      <c r="C145" s="18" t="s"/>
-      <c r="D145" s="18" t="s"/>
-      <c r="E145" s="19" t="s"/>
-      <c r="F145" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="G145" s="17" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="146">
-      <c r="A146" s="18" t="s"/>
-      <c r="B146" s="25" t="s"/>
-      <c r="C146" s="18" t="s"/>
-      <c r="D146" s="18" t="s"/>
-      <c r="E146" s="19" t="s"/>
-      <c r="F146" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="G146" s="17" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="147">
-      <c r="A147" s="18" t="s"/>
-      <c r="B147" s="25" t="s"/>
-      <c r="C147" s="18" t="s"/>
-      <c r="D147" s="18" t="s"/>
-      <c r="E147" s="19" t="s"/>
-      <c r="F147" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G147" s="17" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="148">
-      <c r="A148" s="18" t="s"/>
-      <c r="B148" s="25" t="s"/>
-      <c r="C148" s="18" t="s"/>
-      <c r="D148" s="18" t="s"/>
-      <c r="E148" s="19" t="s"/>
-      <c r="F148" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="G148" s="17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="149">
-      <c r="A149" s="18" t="s"/>
-      <c r="B149" s="25" t="s"/>
-      <c r="C149" s="18" t="s"/>
-      <c r="D149" s="18" t="s"/>
-      <c r="E149" s="19" t="s"/>
-      <c r="F149" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="G149" s="17" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="150">
-      <c r="A150" s="18" t="s"/>
-      <c r="B150" s="25" t="s"/>
-      <c r="C150" s="18" t="s"/>
-      <c r="D150" s="18" t="s"/>
-      <c r="E150" s="19" t="s"/>
-      <c r="F150" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="G150" s="17" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="151">
-      <c r="A151" s="18" t="s"/>
-      <c r="B151" s="25" t="s"/>
-      <c r="C151" s="18" t="s"/>
-      <c r="D151" s="18" t="s"/>
-      <c r="E151" s="19" t="s"/>
-      <c r="F151" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="G151" s="17" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="152">
-      <c r="A152" s="18" t="s"/>
-      <c r="B152" s="25" t="s"/>
-      <c r="C152" s="18" t="s"/>
-      <c r="D152" s="18" t="s"/>
-      <c r="E152" s="19" t="s"/>
-      <c r="F152" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="G152" s="17" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="153">
-      <c r="A153" s="18" t="s"/>
-      <c r="B153" s="25" t="s"/>
-      <c r="C153" s="18" t="s"/>
-      <c r="D153" s="18" t="s"/>
-      <c r="E153" s="19" t="s"/>
-      <c r="F153" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="G153" s="17" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="154">
-      <c r="A154" s="20" t="s"/>
-      <c r="B154" s="23" t="s"/>
-      <c r="C154" s="20" t="s"/>
-      <c r="D154" s="20" t="s"/>
-      <c r="E154" s="21" t="s"/>
-      <c r="F154" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="G154" s="17" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="155">
-      <c r="A155" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="B155" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="C155" s="14" t="n"/>
-      <c r="D155" s="14" t="n"/>
-      <c r="E155" s="15" t="n"/>
-      <c r="F155" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G155" s="17" t="s">
+      <c r="G156" s="20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="157">
+      <c r="A157" s="21" t="s"/>
+      <c r="B157" s="28" t="s"/>
+      <c r="C157" s="21" t="s"/>
+      <c r="D157" s="13" t="s"/>
+      <c r="E157" s="22" t="s"/>
+      <c r="F157" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G157" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="158">
+      <c r="A158" s="21" t="s"/>
+      <c r="B158" s="28" t="s"/>
+      <c r="C158" s="21" t="s"/>
+      <c r="D158" s="13" t="s"/>
+      <c r="E158" s="22" t="s"/>
+      <c r="F158" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="G158" s="20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="159">
+      <c r="A159" s="21" t="s"/>
+      <c r="B159" s="28" t="s"/>
+      <c r="C159" s="21" t="s"/>
+      <c r="D159" s="13" t="s"/>
+      <c r="E159" s="22" t="s"/>
+      <c r="F159" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="G159" s="20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="160">
+      <c r="A160" s="21" t="s"/>
+      <c r="B160" s="28" t="s"/>
+      <c r="C160" s="21" t="s"/>
+      <c r="D160" s="13" t="s"/>
+      <c r="E160" s="22" t="s"/>
+      <c r="F160" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="G160" s="20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="161">
+      <c r="A161" s="21" t="s"/>
+      <c r="B161" s="28" t="s"/>
+      <c r="C161" s="21" t="s"/>
+      <c r="D161" s="13" t="s"/>
+      <c r="E161" s="22" t="s"/>
+      <c r="F161" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G161" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="162">
+      <c r="A162" s="21" t="s"/>
+      <c r="B162" s="28" t="s"/>
+      <c r="C162" s="21" t="s"/>
+      <c r="D162" s="13" t="s"/>
+      <c r="E162" s="22" t="s"/>
+      <c r="F162" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="G162" s="20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="163">
+      <c r="A163" s="21" t="s"/>
+      <c r="B163" s="28" t="s"/>
+      <c r="C163" s="21" t="s"/>
+      <c r="D163" s="13" t="s"/>
+      <c r="E163" s="22" t="s"/>
+      <c r="F163" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="G163" s="20" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="164">
+      <c r="A164" s="21" t="s"/>
+      <c r="B164" s="28" t="s"/>
+      <c r="C164" s="21" t="s"/>
+      <c r="D164" s="13" t="s"/>
+      <c r="E164" s="22" t="s"/>
+      <c r="F164" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="G164" s="20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="165">
+      <c r="A165" s="21" t="s"/>
+      <c r="B165" s="28" t="s"/>
+      <c r="C165" s="21" t="s"/>
+      <c r="D165" s="13" t="s"/>
+      <c r="E165" s="22" t="s"/>
+      <c r="F165" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="G165" s="20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="166">
+      <c r="A166" s="21" t="s"/>
+      <c r="B166" s="28" t="s"/>
+      <c r="C166" s="21" t="s"/>
+      <c r="D166" s="13" t="s"/>
+      <c r="E166" s="22" t="s"/>
+      <c r="F166" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="G166" s="20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="167">
+      <c r="A167" s="23" t="s"/>
+      <c r="B167" s="26" t="s"/>
+      <c r="C167" s="23" t="s"/>
+      <c r="D167" s="15" t="s"/>
+      <c r="E167" s="24" t="s"/>
+      <c r="F167" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="G167" s="20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="168">
+      <c r="A168" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="B168" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="C168" s="17" t="n"/>
+      <c r="D168" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" s="18" t="n"/>
+      <c r="F168" s="20" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="156">
-      <c r="A156" s="18" t="s"/>
-      <c r="B156" s="25" t="s"/>
-      <c r="C156" s="18" t="s"/>
-      <c r="D156" s="18" t="s"/>
-      <c r="E156" s="19" t="s"/>
-      <c r="F156" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="G156" s="17" t="s">
+      <c r="G168" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="169">
+      <c r="A169" s="21" t="s"/>
+      <c r="B169" s="28" t="s"/>
+      <c r="C169" s="21" t="s"/>
+      <c r="D169" s="13" t="s"/>
+      <c r="E169" s="22" t="s"/>
+      <c r="F169" s="20" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="157">
-      <c r="A157" s="18" t="s"/>
-      <c r="B157" s="25" t="s"/>
-      <c r="C157" s="18" t="s"/>
-      <c r="D157" s="18" t="s"/>
-      <c r="E157" s="19" t="s"/>
-      <c r="F157" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="G157" s="17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="158">
-      <c r="A158" s="18" t="s"/>
-      <c r="B158" s="25" t="s"/>
-      <c r="C158" s="18" t="s"/>
-      <c r="D158" s="18" t="s"/>
-      <c r="E158" s="19" t="s"/>
-      <c r="F158" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G158" s="17" t="s">
+      <c r="G169" s="20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="170">
+      <c r="A170" s="21" t="s"/>
+      <c r="B170" s="28" t="s"/>
+      <c r="C170" s="21" t="s"/>
+      <c r="D170" s="13" t="s"/>
+      <c r="E170" s="22" t="s"/>
+      <c r="F170" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G170" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="171">
+      <c r="A171" s="21" t="s"/>
+      <c r="B171" s="28" t="s"/>
+      <c r="C171" s="21" t="s"/>
+      <c r="D171" s="13" t="s"/>
+      <c r="E171" s="22" t="s"/>
+      <c r="F171" s="20" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="159">
-      <c r="A159" s="18" t="s"/>
-      <c r="B159" s="25" t="s"/>
-      <c r="C159" s="18" t="s"/>
-      <c r="D159" s="18" t="s"/>
-      <c r="E159" s="19" t="s"/>
-      <c r="F159" s="17" t="s">
+      <c r="G171" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="G159" s="17" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="172">
+      <c r="A172" s="21" t="s"/>
+      <c r="B172" s="28" t="s"/>
+      <c r="C172" s="21" t="s"/>
+      <c r="D172" s="13" t="s"/>
+      <c r="E172" s="22" t="s"/>
+      <c r="F172" s="20" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="160">
-      <c r="A160" s="18" t="s"/>
-      <c r="B160" s="25" t="s"/>
-      <c r="C160" s="18" t="s"/>
-      <c r="D160" s="18" t="s"/>
-      <c r="E160" s="19" t="s"/>
-      <c r="F160" s="17" t="s">
+      <c r="G172" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="G160" s="17" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="173">
+      <c r="A173" s="21" t="s"/>
+      <c r="B173" s="28" t="s"/>
+      <c r="C173" s="21" t="s"/>
+      <c r="D173" s="13" t="s"/>
+      <c r="E173" s="22" t="s"/>
+      <c r="F173" s="20" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="161">
-      <c r="A161" s="18" t="s"/>
-      <c r="B161" s="25" t="s"/>
-      <c r="C161" s="18" t="s"/>
-      <c r="D161" s="18" t="s"/>
-      <c r="E161" s="19" t="s"/>
-      <c r="F161" s="17" t="s">
+      <c r="G173" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="G161" s="17" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="174">
+      <c r="A174" s="21" t="s"/>
+      <c r="B174" s="28" t="s"/>
+      <c r="C174" s="21" t="s"/>
+      <c r="D174" s="13" t="s"/>
+      <c r="E174" s="22" t="s"/>
+      <c r="F174" s="20" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="162">
-      <c r="A162" s="18" t="s"/>
-      <c r="B162" s="25" t="s"/>
-      <c r="C162" s="18" t="s"/>
-      <c r="D162" s="18" t="s"/>
-      <c r="E162" s="19" t="s"/>
-      <c r="F162" s="17" t="s">
+      <c r="G174" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="G162" s="17" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="175">
+      <c r="A175" s="21" t="s"/>
+      <c r="B175" s="28" t="s"/>
+      <c r="C175" s="21" t="s"/>
+      <c r="D175" s="13" t="s"/>
+      <c r="E175" s="22" t="s"/>
+      <c r="F175" s="20" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="163">
-      <c r="A163" s="18" t="s"/>
-      <c r="B163" s="25" t="s"/>
-      <c r="C163" s="18" t="s"/>
-      <c r="D163" s="18" t="s"/>
-      <c r="E163" s="19" t="s"/>
-      <c r="F163" s="17" t="s">
+      <c r="G175" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="G163" s="17" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="176">
+      <c r="A176" s="21" t="s"/>
+      <c r="B176" s="28" t="s"/>
+      <c r="C176" s="21" t="s"/>
+      <c r="D176" s="13" t="s"/>
+      <c r="E176" s="22" t="s"/>
+      <c r="F176" s="20" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="164">
-      <c r="A164" s="18" t="s"/>
-      <c r="B164" s="25" t="s"/>
-      <c r="C164" s="18" t="s"/>
-      <c r="D164" s="18" t="s"/>
-      <c r="E164" s="19" t="s"/>
-      <c r="F164" s="17" t="s">
+      <c r="G176" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="G164" s="17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="165">
-      <c r="A165" s="18" t="s"/>
-      <c r="B165" s="25" t="s"/>
-      <c r="C165" s="18" t="s"/>
-      <c r="D165" s="18" t="s"/>
-      <c r="E165" s="19" t="s"/>
-      <c r="F165" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="G165" s="17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="166">
-      <c r="A166" s="18" t="s"/>
-      <c r="B166" s="25" t="s"/>
-      <c r="C166" s="18" t="s"/>
-      <c r="D166" s="18" t="s"/>
-      <c r="E166" s="19" t="s"/>
-      <c r="F166" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="G166" s="17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="167">
-      <c r="A167" s="20" t="s"/>
-      <c r="B167" s="23" t="s"/>
-      <c r="C167" s="20" t="s"/>
-      <c r="D167" s="20" t="s"/>
-      <c r="E167" s="21" t="s"/>
-      <c r="F167" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="G167" s="17" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="168">
-      <c r="A168" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="B168" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="C168" s="14" t="n"/>
-      <c r="D168" s="14" t="n"/>
-      <c r="E168" s="15" t="n"/>
-      <c r="F168" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G168" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="169">
-      <c r="A169" s="18" t="s"/>
-      <c r="B169" s="25" t="s"/>
-      <c r="C169" s="18" t="s"/>
-      <c r="D169" s="18" t="s"/>
-      <c r="E169" s="19" t="s"/>
-      <c r="F169" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="G169" s="17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="170">
-      <c r="A170" s="18" t="s"/>
-      <c r="B170" s="25" t="s"/>
-      <c r="C170" s="18" t="s"/>
-      <c r="D170" s="18" t="s"/>
-      <c r="E170" s="19" t="s"/>
-      <c r="F170" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="G170" s="17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="171">
-      <c r="A171" s="18" t="s"/>
-      <c r="B171" s="25" t="s"/>
-      <c r="C171" s="18" t="s"/>
-      <c r="D171" s="18" t="s"/>
-      <c r="E171" s="19" t="s"/>
-      <c r="F171" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="G171" s="17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="172">
-      <c r="A172" s="18" t="s"/>
-      <c r="B172" s="25" t="s"/>
-      <c r="C172" s="18" t="s"/>
-      <c r="D172" s="18" t="s"/>
-      <c r="E172" s="19" t="s"/>
-      <c r="F172" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="G172" s="17" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="173">
-      <c r="A173" s="18" t="s"/>
-      <c r="B173" s="25" t="s"/>
-      <c r="C173" s="18" t="s"/>
-      <c r="D173" s="18" t="s"/>
-      <c r="E173" s="19" t="s"/>
-      <c r="F173" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G173" s="17" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="174">
-      <c r="A174" s="18" t="s"/>
-      <c r="B174" s="25" t="s"/>
-      <c r="C174" s="18" t="s"/>
-      <c r="D174" s="18" t="s"/>
-      <c r="E174" s="19" t="s"/>
-      <c r="F174" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="G174" s="17" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="175">
-      <c r="A175" s="18" t="s"/>
-      <c r="B175" s="25" t="s"/>
-      <c r="C175" s="18" t="s"/>
-      <c r="D175" s="18" t="s"/>
-      <c r="E175" s="19" t="s"/>
-      <c r="F175" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G175" s="17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="176">
-      <c r="A176" s="18" t="s"/>
-      <c r="B176" s="25" t="s"/>
-      <c r="C176" s="18" t="s"/>
-      <c r="D176" s="18" t="s"/>
-      <c r="E176" s="19" t="s"/>
-      <c r="F176" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="G176" s="17" t="s">
-        <v>289</v>
-      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="177">
-      <c r="A177" s="18" t="s"/>
-      <c r="B177" s="25" t="s"/>
-      <c r="C177" s="18" t="s"/>
-      <c r="D177" s="18" t="s"/>
-      <c r="E177" s="19" t="s"/>
-      <c r="F177" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="G177" s="17" t="s">
+      <c r="A177" s="21" t="s"/>
+      <c r="B177" s="28" t="s"/>
+      <c r="C177" s="21" t="s"/>
+      <c r="D177" s="13" t="s"/>
+      <c r="E177" s="22" t="s"/>
+      <c r="F177" s="20" t="s">
         <v>300</v>
       </c>
+      <c r="G177" s="20" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="178">
-      <c r="A178" s="18" t="s"/>
-      <c r="B178" s="25" t="s"/>
-      <c r="C178" s="18" t="s"/>
-      <c r="D178" s="18" t="s"/>
-      <c r="E178" s="19" t="s"/>
-      <c r="F178" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="G178" s="17" t="s">
+      <c r="A178" s="21" t="s"/>
+      <c r="B178" s="28" t="s"/>
+      <c r="C178" s="21" t="s"/>
+      <c r="D178" s="13" t="s"/>
+      <c r="E178" s="22" t="s"/>
+      <c r="F178" s="20" t="s">
         <v>302</v>
       </c>
+      <c r="G178" s="20" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="179">
-      <c r="A179" s="18" t="s"/>
-      <c r="B179" s="25" t="s"/>
-      <c r="C179" s="18" t="s"/>
-      <c r="D179" s="18" t="s"/>
-      <c r="E179" s="19" t="s"/>
-      <c r="F179" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="G179" s="17" t="s">
+      <c r="A179" s="21" t="s"/>
+      <c r="B179" s="28" t="s"/>
+      <c r="C179" s="21" t="s"/>
+      <c r="D179" s="13" t="s"/>
+      <c r="E179" s="22" t="s"/>
+      <c r="F179" s="20" t="s">
         <v>304</v>
       </c>
+      <c r="G179" s="20" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="180">
-      <c r="A180" s="18" t="s"/>
-      <c r="B180" s="25" t="s"/>
-      <c r="C180" s="18" t="s"/>
-      <c r="D180" s="18" t="s"/>
-      <c r="E180" s="19" t="s"/>
-      <c r="F180" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="G180" s="17" t="s">
+      <c r="A180" s="21" t="s"/>
+      <c r="B180" s="28" t="s"/>
+      <c r="C180" s="21" t="s"/>
+      <c r="D180" s="13" t="s"/>
+      <c r="E180" s="22" t="s"/>
+      <c r="F180" s="20" t="s">
         <v>306</v>
       </c>
+      <c r="G180" s="20" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="181">
-      <c r="A181" s="20" t="s"/>
-      <c r="B181" s="23" t="s"/>
-      <c r="C181" s="20" t="s"/>
-      <c r="D181" s="20" t="s"/>
-      <c r="E181" s="21" t="s"/>
-      <c r="F181" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="G181" s="17" t="s">
+      <c r="A181" s="23" t="s"/>
+      <c r="B181" s="26" t="s"/>
+      <c r="C181" s="23" t="s"/>
+      <c r="D181" s="15" t="s"/>
+      <c r="E181" s="24" t="s"/>
+      <c r="F181" s="20" t="s">
         <v>308</v>
+      </c>
+      <c r="G181" s="20" t="s">
+        <v>309</v>
       </c>
     </row>
     <row outlineLevel="0" r="182">
       <c r="A182" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B182" s="7" t="s"/>
       <c r="C182" s="7" t="s"/>
@@ -4768,478 +4870,492 @@
       <c r="G182" s="8" t="s"/>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="183">
-      <c r="A183" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="B183" s="22" t="s">
+      <c r="A183" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="C183" s="14" t="n"/>
-      <c r="D183" s="14" t="n"/>
-      <c r="E183" s="15" t="n"/>
-      <c r="F183" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G183" s="17" t="s">
+      <c r="B183" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="C183" s="17" t="n"/>
+      <c r="D183" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" s="18" t="n"/>
+      <c r="F183" s="20" t="s">
         <v>183</v>
       </c>
+      <c r="G183" s="20" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="184">
-      <c r="A184" s="18" t="s"/>
-      <c r="B184" s="25" t="s"/>
-      <c r="C184" s="18" t="s"/>
-      <c r="D184" s="18" t="s"/>
-      <c r="E184" s="19" t="s"/>
-      <c r="F184" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="G184" s="17" t="s">
+      <c r="A184" s="21" t="s"/>
+      <c r="B184" s="28" t="s"/>
+      <c r="C184" s="21" t="s"/>
+      <c r="D184" s="13" t="s"/>
+      <c r="E184" s="22" t="s"/>
+      <c r="F184" s="20" t="s">
         <v>193</v>
       </c>
+      <c r="G184" s="20" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="185">
-      <c r="A185" s="18" t="s"/>
-      <c r="B185" s="25" t="s"/>
-      <c r="C185" s="18" t="s"/>
-      <c r="D185" s="18" t="s"/>
-      <c r="E185" s="19" t="s"/>
-      <c r="F185" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="G185" s="17" t="s">
+      <c r="A185" s="21" t="s"/>
+      <c r="B185" s="28" t="s"/>
+      <c r="C185" s="21" t="s"/>
+      <c r="D185" s="13" t="s"/>
+      <c r="E185" s="22" t="s"/>
+      <c r="F185" s="20" t="s">
         <v>313</v>
       </c>
+      <c r="G185" s="20" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="186">
-      <c r="A186" s="20" t="s"/>
-      <c r="B186" s="23" t="s"/>
-      <c r="C186" s="20" t="s"/>
-      <c r="D186" s="20" t="s"/>
-      <c r="E186" s="21" t="s"/>
-      <c r="F186" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="G186" s="17" t="s">
+      <c r="A186" s="23" t="s"/>
+      <c r="B186" s="26" t="s"/>
+      <c r="C186" s="23" t="s"/>
+      <c r="D186" s="15" t="s"/>
+      <c r="E186" s="24" t="s"/>
+      <c r="F186" s="20" t="s">
         <v>315</v>
       </c>
+      <c r="G186" s="20" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="187">
-      <c r="A187" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="B187" s="22" t="s">
+      <c r="A187" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="C187" s="14" t="n"/>
-      <c r="D187" s="14" t="n"/>
-      <c r="E187" s="15" t="n"/>
-      <c r="F187" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G187" s="17" t="s">
+      <c r="B187" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="C187" s="17" t="n"/>
+      <c r="D187" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" s="18" t="n"/>
+      <c r="F187" s="20" t="s">
         <v>183</v>
       </c>
+      <c r="G187" s="20" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="188">
-      <c r="A188" s="18" t="s"/>
-      <c r="B188" s="25" t="s"/>
-      <c r="C188" s="18" t="s"/>
-      <c r="D188" s="18" t="s"/>
-      <c r="E188" s="19" t="s"/>
-      <c r="F188" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="G188" s="17" t="s">
+      <c r="A188" s="21" t="s"/>
+      <c r="B188" s="28" t="s"/>
+      <c r="C188" s="21" t="s"/>
+      <c r="D188" s="13" t="s"/>
+      <c r="E188" s="22" t="s"/>
+      <c r="F188" s="20" t="s">
         <v>193</v>
       </c>
+      <c r="G188" s="20" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="189">
-      <c r="A189" s="18" t="s"/>
-      <c r="B189" s="25" t="s"/>
-      <c r="C189" s="18" t="s"/>
-      <c r="D189" s="18" t="s"/>
-      <c r="E189" s="19" t="s"/>
-      <c r="F189" s="17" t="s">
+      <c r="A189" s="21" t="s"/>
+      <c r="B189" s="28" t="s"/>
+      <c r="C189" s="21" t="s"/>
+      <c r="D189" s="13" t="s"/>
+      <c r="E189" s="22" t="s"/>
+      <c r="F189" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="G189" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="190">
+      <c r="A190" s="21" t="s"/>
+      <c r="B190" s="28" t="s"/>
+      <c r="C190" s="21" t="s"/>
+      <c r="D190" s="13" t="s"/>
+      <c r="E190" s="22" t="s"/>
+      <c r="F190" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="G190" s="20" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="191">
+      <c r="A191" s="23" t="s"/>
+      <c r="B191" s="26" t="s"/>
+      <c r="C191" s="23" t="s"/>
+      <c r="D191" s="15" t="s"/>
+      <c r="E191" s="24" t="s"/>
+      <c r="F191" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="G191" s="20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="192">
+      <c r="A192" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="B192" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="G189" s="17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="190">
-      <c r="A190" s="18" t="s"/>
-      <c r="B190" s="25" t="s"/>
-      <c r="C190" s="18" t="s"/>
-      <c r="D190" s="18" t="s"/>
-      <c r="E190" s="19" t="s"/>
-      <c r="F190" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="G190" s="17" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="191">
-      <c r="A191" s="20" t="s"/>
-      <c r="B191" s="23" t="s"/>
-      <c r="C191" s="20" t="s"/>
-      <c r="D191" s="20" t="s"/>
-      <c r="E191" s="21" t="s"/>
-      <c r="F191" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="G191" s="17" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="192">
-      <c r="A192" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="B192" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="C192" s="14" t="n"/>
-      <c r="D192" s="14" t="n"/>
-      <c r="E192" s="15" t="n"/>
-      <c r="F192" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G192" s="17" t="s">
+      <c r="C192" s="17" t="n"/>
+      <c r="D192" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192" s="18" t="n"/>
+      <c r="F192" s="20" t="s">
         <v>183</v>
       </c>
+      <c r="G192" s="20" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="193">
-      <c r="A193" s="18" t="s"/>
-      <c r="B193" s="25" t="s"/>
-      <c r="C193" s="18" t="s"/>
-      <c r="D193" s="18" t="s"/>
-      <c r="E193" s="19" t="s"/>
-      <c r="F193" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="G193" s="17" t="s">
+      <c r="A193" s="21" t="s"/>
+      <c r="B193" s="28" t="s"/>
+      <c r="C193" s="21" t="s"/>
+      <c r="D193" s="13" t="s"/>
+      <c r="E193" s="22" t="s"/>
+      <c r="F193" s="20" t="s">
         <v>193</v>
       </c>
+      <c r="G193" s="20" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="194">
-      <c r="A194" s="18" t="s"/>
-      <c r="B194" s="25" t="s"/>
-      <c r="C194" s="18" t="s"/>
-      <c r="D194" s="18" t="s"/>
-      <c r="E194" s="19" t="s"/>
-      <c r="F194" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="G194" s="17" t="s">
+      <c r="A194" s="21" t="s"/>
+      <c r="B194" s="28" t="s"/>
+      <c r="C194" s="21" t="s"/>
+      <c r="D194" s="13" t="s"/>
+      <c r="E194" s="22" t="s"/>
+      <c r="F194" s="20" t="s">
         <v>325</v>
       </c>
+      <c r="G194" s="20" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="195">
-      <c r="A195" s="20" t="s"/>
-      <c r="B195" s="23" t="s"/>
-      <c r="C195" s="20" t="s"/>
-      <c r="D195" s="20" t="s"/>
-      <c r="E195" s="21" t="s"/>
-      <c r="F195" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="G195" s="17" t="s">
-        <v>326</v>
+      <c r="A195" s="23" t="s"/>
+      <c r="B195" s="26" t="s"/>
+      <c r="C195" s="23" t="s"/>
+      <c r="D195" s="15" t="s"/>
+      <c r="E195" s="24" t="s"/>
+      <c r="F195" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="G195" s="20" t="s">
+        <v>327</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="196">
-      <c r="A196" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="B196" s="22" t="s">
+      <c r="A196" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="C196" s="14" t="n"/>
-      <c r="D196" s="14" t="n"/>
-      <c r="E196" s="15" t="n"/>
-      <c r="F196" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G196" s="17" t="s">
+      <c r="B196" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="C196" s="17" t="n"/>
+      <c r="D196" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E196" s="18" t="n"/>
+      <c r="F196" s="20" t="s">
         <v>183</v>
       </c>
+      <c r="G196" s="20" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="197">
-      <c r="A197" s="18" t="s"/>
-      <c r="B197" s="25" t="s"/>
-      <c r="C197" s="18" t="s"/>
-      <c r="D197" s="18" t="s"/>
-      <c r="E197" s="19" t="s"/>
-      <c r="F197" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="G197" s="17" t="s">
+      <c r="A197" s="21" t="s"/>
+      <c r="B197" s="28" t="s"/>
+      <c r="C197" s="21" t="s"/>
+      <c r="D197" s="13" t="s"/>
+      <c r="E197" s="22" t="s"/>
+      <c r="F197" s="20" t="s">
         <v>193</v>
       </c>
+      <c r="G197" s="20" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="198">
-      <c r="A198" s="18" t="s"/>
-      <c r="B198" s="25" t="s"/>
-      <c r="C198" s="18" t="s"/>
-      <c r="D198" s="18" t="s"/>
-      <c r="E198" s="19" t="s"/>
-      <c r="F198" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="G198" s="17" t="s">
+      <c r="A198" s="21" t="s"/>
+      <c r="B198" s="28" t="s"/>
+      <c r="C198" s="21" t="s"/>
+      <c r="D198" s="13" t="s"/>
+      <c r="E198" s="22" t="s"/>
+      <c r="F198" s="20" t="s">
         <v>330</v>
       </c>
+      <c r="G198" s="20" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="199">
-      <c r="A199" s="18" t="s"/>
-      <c r="B199" s="25" t="s"/>
-      <c r="C199" s="18" t="s"/>
-      <c r="D199" s="18" t="s"/>
-      <c r="E199" s="19" t="s"/>
-      <c r="F199" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="G199" s="17" t="s">
+      <c r="A199" s="21" t="s"/>
+      <c r="B199" s="28" t="s"/>
+      <c r="C199" s="21" t="s"/>
+      <c r="D199" s="13" t="s"/>
+      <c r="E199" s="22" t="s"/>
+      <c r="F199" s="20" t="s">
         <v>332</v>
       </c>
+      <c r="G199" s="20" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="200">
-      <c r="A200" s="18" t="s"/>
-      <c r="B200" s="25" t="s"/>
-      <c r="C200" s="18" t="s"/>
-      <c r="D200" s="18" t="s"/>
-      <c r="E200" s="19" t="s"/>
-      <c r="F200" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="G200" s="17" t="s">
+      <c r="A200" s="21" t="s"/>
+      <c r="B200" s="28" t="s"/>
+      <c r="C200" s="21" t="s"/>
+      <c r="D200" s="13" t="s"/>
+      <c r="E200" s="22" t="s"/>
+      <c r="F200" s="20" t="s">
         <v>334</v>
       </c>
+      <c r="G200" s="20" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="201">
-      <c r="A201" s="20" t="s"/>
-      <c r="B201" s="23" t="s"/>
-      <c r="C201" s="20" t="s"/>
-      <c r="D201" s="20" t="s"/>
-      <c r="E201" s="21" t="s"/>
-      <c r="F201" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="G201" s="17" t="s">
+      <c r="A201" s="23" t="s"/>
+      <c r="B201" s="26" t="s"/>
+      <c r="C201" s="23" t="s"/>
+      <c r="D201" s="15" t="s"/>
+      <c r="E201" s="24" t="s"/>
+      <c r="F201" s="20" t="s">
         <v>336</v>
       </c>
+      <c r="G201" s="20" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="202">
-      <c r="A202" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="B202" s="22" t="s">
+      <c r="A202" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="C202" s="14" t="n"/>
-      <c r="D202" s="14" t="n"/>
-      <c r="E202" s="15" t="n"/>
-      <c r="F202" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G202" s="17" t="s">
+      <c r="B202" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C202" s="17" t="n"/>
+      <c r="D202" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202" s="18" t="n"/>
+      <c r="F202" s="20" t="s">
         <v>183</v>
       </c>
+      <c r="G202" s="20" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="203">
-      <c r="A203" s="18" t="s"/>
-      <c r="B203" s="25" t="s"/>
-      <c r="C203" s="18" t="s"/>
-      <c r="D203" s="18" t="s"/>
-      <c r="E203" s="19" t="s"/>
-      <c r="F203" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="G203" s="17" t="s">
+      <c r="A203" s="21" t="s"/>
+      <c r="B203" s="28" t="s"/>
+      <c r="C203" s="21" t="s"/>
+      <c r="D203" s="13" t="s"/>
+      <c r="E203" s="22" t="s"/>
+      <c r="F203" s="20" t="s">
         <v>193</v>
       </c>
+      <c r="G203" s="20" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="204">
-      <c r="A204" s="18" t="s"/>
-      <c r="B204" s="25" t="s"/>
-      <c r="C204" s="18" t="s"/>
-      <c r="D204" s="18" t="s"/>
-      <c r="E204" s="19" t="s"/>
-      <c r="F204" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="G204" s="17" t="s">
+      <c r="A204" s="21" t="s"/>
+      <c r="B204" s="28" t="s"/>
+      <c r="C204" s="21" t="s"/>
+      <c r="D204" s="13" t="s"/>
+      <c r="E204" s="22" t="s"/>
+      <c r="F204" s="20" t="s">
         <v>340</v>
       </c>
+      <c r="G204" s="20" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="205">
-      <c r="A205" s="18" t="s"/>
-      <c r="B205" s="25" t="s"/>
-      <c r="C205" s="18" t="s"/>
-      <c r="D205" s="18" t="s"/>
-      <c r="E205" s="19" t="s"/>
-      <c r="F205" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="G205" s="17" t="s">
+      <c r="A205" s="21" t="s"/>
+      <c r="B205" s="28" t="s"/>
+      <c r="C205" s="21" t="s"/>
+      <c r="D205" s="13" t="s"/>
+      <c r="E205" s="22" t="s"/>
+      <c r="F205" s="20" t="s">
         <v>342</v>
       </c>
+      <c r="G205" s="20" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="206">
-      <c r="A206" s="18" t="s"/>
-      <c r="B206" s="25" t="s"/>
-      <c r="C206" s="18" t="s"/>
-      <c r="D206" s="18" t="s"/>
-      <c r="E206" s="19" t="s"/>
-      <c r="F206" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="G206" s="17" t="s">
-        <v>343</v>
+      <c r="A206" s="21" t="s"/>
+      <c r="B206" s="28" t="s"/>
+      <c r="C206" s="21" t="s"/>
+      <c r="D206" s="13" t="s"/>
+      <c r="E206" s="22" t="s"/>
+      <c r="F206" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="G206" s="20" t="s">
+        <v>344</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="207">
-      <c r="A207" s="20" t="s"/>
-      <c r="B207" s="23" t="s"/>
-      <c r="C207" s="20" t="s"/>
-      <c r="D207" s="20" t="s"/>
-      <c r="E207" s="21" t="s"/>
-      <c r="F207" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="G207" s="17" t="s">
-        <v>344</v>
+      <c r="A207" s="23" t="s"/>
+      <c r="B207" s="26" t="s"/>
+      <c r="C207" s="23" t="s"/>
+      <c r="D207" s="15" t="s"/>
+      <c r="E207" s="24" t="s"/>
+      <c r="F207" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="G207" s="20" t="s">
+        <v>345</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="208">
-      <c r="A208" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B208" s="22" t="s">
+      <c r="A208" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="C208" s="14" t="n"/>
-      <c r="D208" s="14" t="n"/>
-      <c r="E208" s="15" t="n"/>
-      <c r="F208" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G208" s="17" t="s">
+      <c r="B208" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="C208" s="17" t="n"/>
+      <c r="D208" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E208" s="18" t="n"/>
+      <c r="F208" s="20" t="s">
         <v>183</v>
       </c>
+      <c r="G208" s="20" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="209">
-      <c r="A209" s="18" t="s"/>
-      <c r="B209" s="25" t="s"/>
-      <c r="C209" s="18" t="s"/>
-      <c r="D209" s="18" t="s"/>
-      <c r="E209" s="19" t="s"/>
-      <c r="F209" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="G209" s="17" t="s">
+      <c r="A209" s="21" t="s"/>
+      <c r="B209" s="28" t="s"/>
+      <c r="C209" s="21" t="s"/>
+      <c r="D209" s="13" t="s"/>
+      <c r="E209" s="22" t="s"/>
+      <c r="F209" s="20" t="s">
         <v>193</v>
       </c>
+      <c r="G209" s="20" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="210">
-      <c r="A210" s="18" t="s"/>
-      <c r="B210" s="25" t="s"/>
-      <c r="C210" s="18" t="s"/>
-      <c r="D210" s="18" t="s"/>
-      <c r="E210" s="19" t="s"/>
-      <c r="F210" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="G210" s="17" t="s">
+      <c r="A210" s="21" t="s"/>
+      <c r="B210" s="28" t="s"/>
+      <c r="C210" s="21" t="s"/>
+      <c r="D210" s="13" t="s"/>
+      <c r="E210" s="22" t="s"/>
+      <c r="F210" s="20" t="s">
         <v>348</v>
       </c>
+      <c r="G210" s="20" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="211">
-      <c r="A211" s="18" t="s"/>
-      <c r="B211" s="25" t="s"/>
-      <c r="C211" s="18" t="s"/>
-      <c r="D211" s="18" t="s"/>
-      <c r="E211" s="19" t="s"/>
-      <c r="F211" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="G211" s="17" t="s">
-        <v>349</v>
+      <c r="A211" s="21" t="s"/>
+      <c r="B211" s="28" t="s"/>
+      <c r="C211" s="21" t="s"/>
+      <c r="D211" s="13" t="s"/>
+      <c r="E211" s="22" t="s"/>
+      <c r="F211" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="G211" s="20" t="s">
+        <v>350</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="212">
-      <c r="A212" s="20" t="s"/>
-      <c r="B212" s="23" t="s"/>
-      <c r="C212" s="20" t="s"/>
-      <c r="D212" s="20" t="s"/>
-      <c r="E212" s="21" t="s"/>
-      <c r="F212" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="G212" s="17" t="s">
+      <c r="A212" s="23" t="s"/>
+      <c r="B212" s="26" t="s"/>
+      <c r="C212" s="23" t="s"/>
+      <c r="D212" s="15" t="s"/>
+      <c r="E212" s="24" t="s"/>
+      <c r="F212" s="20" t="s">
         <v>351</v>
       </c>
+      <c r="G212" s="20" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="213">
-      <c r="A213" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="B213" s="22" t="s">
+      <c r="A213" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C213" s="14" t="n"/>
-      <c r="D213" s="14" t="n"/>
-      <c r="E213" s="15" t="n"/>
-      <c r="F213" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G213" s="17" t="s">
+      <c r="B213" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="C213" s="17" t="n"/>
+      <c r="D213" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E213" s="18" t="n"/>
+      <c r="F213" s="20" t="s">
         <v>183</v>
       </c>
+      <c r="G213" s="20" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="214">
-      <c r="A214" s="18" t="s"/>
-      <c r="B214" s="25" t="s"/>
-      <c r="C214" s="18" t="s"/>
-      <c r="D214" s="18" t="s"/>
-      <c r="E214" s="19" t="s"/>
-      <c r="F214" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="G214" s="17" t="s">
+      <c r="A214" s="21" t="s"/>
+      <c r="B214" s="28" t="s"/>
+      <c r="C214" s="21" t="s"/>
+      <c r="D214" s="13" t="s"/>
+      <c r="E214" s="22" t="s"/>
+      <c r="F214" s="20" t="s">
         <v>193</v>
       </c>
+      <c r="G214" s="20" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="215">
-      <c r="A215" s="18" t="s"/>
-      <c r="B215" s="25" t="s"/>
-      <c r="C215" s="18" t="s"/>
-      <c r="D215" s="18" t="s"/>
-      <c r="E215" s="19" t="s"/>
-      <c r="F215" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="G215" s="17" t="s">
+      <c r="A215" s="21" t="s"/>
+      <c r="B215" s="28" t="s"/>
+      <c r="C215" s="21" t="s"/>
+      <c r="D215" s="13" t="s"/>
+      <c r="E215" s="22" t="s"/>
+      <c r="F215" s="20" t="s">
         <v>355</v>
       </c>
+      <c r="G215" s="20" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="216">
-      <c r="A216" s="20" t="s"/>
-      <c r="B216" s="23" t="s"/>
-      <c r="C216" s="20" t="s"/>
-      <c r="D216" s="20" t="s"/>
-      <c r="E216" s="21" t="s"/>
-      <c r="F216" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="G216" s="17" t="s">
-        <v>356</v>
+      <c r="A216" s="23" t="s"/>
+      <c r="B216" s="26" t="s"/>
+      <c r="C216" s="23" t="s"/>
+      <c r="D216" s="15" t="s"/>
+      <c r="E216" s="24" t="s"/>
+      <c r="F216" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="G216" s="20" t="s">
+        <v>357</v>
       </c>
     </row>
     <row outlineLevel="0" r="217">
       <c r="A217" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B217" s="7" t="s"/>
       <c r="C217" s="7" t="s"/>
@@ -5249,355 +5365,361 @@
       <c r="G217" s="8" t="s"/>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="218">
-      <c r="A218" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="B218" s="22" t="s">
+      <c r="A218" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="C218" s="14" t="n"/>
-      <c r="D218" s="14" t="n"/>
-      <c r="E218" s="15" t="n"/>
-      <c r="F218" s="17" t="s">
+      <c r="B218" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="G218" s="17" t="s">
-        <v>79</v>
+      <c r="C218" s="17" t="n"/>
+      <c r="D218" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E218" s="18" t="n"/>
+      <c r="F218" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="G218" s="20" t="s">
+        <v>80</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="219">
-      <c r="A219" s="20" t="s"/>
-      <c r="B219" s="23" t="s"/>
-      <c r="C219" s="20" t="s"/>
-      <c r="D219" s="20" t="s"/>
-      <c r="E219" s="21" t="s"/>
-      <c r="F219" s="17" t="s">
+      <c r="A219" s="23" t="s"/>
+      <c r="B219" s="26" t="s"/>
+      <c r="C219" s="23" t="s"/>
+      <c r="D219" s="15" t="s"/>
+      <c r="E219" s="24" t="s"/>
+      <c r="F219" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="G219" s="20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="220">
+      <c r="A220" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="B220" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="C220" s="17" t="n"/>
+      <c r="D220" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E220" s="18" t="n"/>
+      <c r="F220" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="G219" s="17" t="s">
+      <c r="G220" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="221">
+      <c r="A221" s="21" t="s"/>
+      <c r="B221" s="28" t="s"/>
+      <c r="C221" s="21" t="s"/>
+      <c r="D221" s="13" t="s"/>
+      <c r="E221" s="22" t="s"/>
+      <c r="F221" s="20" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="220">
-      <c r="A220" s="14" t="s">
+      <c r="G221" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="B220" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="C220" s="14" t="n"/>
-      <c r="D220" s="14" t="n"/>
-      <c r="E220" s="15" t="n"/>
-      <c r="F220" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="G220" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="221">
-      <c r="A221" s="18" t="s"/>
-      <c r="B221" s="25" t="s"/>
-      <c r="C221" s="18" t="s"/>
-      <c r="D221" s="18" t="s"/>
-      <c r="E221" s="19" t="s"/>
-      <c r="F221" s="17" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="222">
+      <c r="A222" s="23" t="s"/>
+      <c r="B222" s="26" t="s"/>
+      <c r="C222" s="23" t="s"/>
+      <c r="D222" s="15" t="s"/>
+      <c r="E222" s="24" t="s"/>
+      <c r="F222" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="G222" s="20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="223">
+      <c r="A223" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="B223" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="C223" s="17" t="n"/>
+      <c r="D223" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E223" s="18" t="n"/>
+      <c r="F223" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="G221" s="17" t="s">
+      <c r="G223" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="224">
+      <c r="A224" s="21" t="s"/>
+      <c r="B224" s="28" t="s"/>
+      <c r="C224" s="21" t="s"/>
+      <c r="D224" s="13" t="s"/>
+      <c r="E224" s="22" t="s"/>
+      <c r="F224" s="20" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="222">
-      <c r="A222" s="20" t="s"/>
-      <c r="B222" s="23" t="s"/>
-      <c r="C222" s="20" t="s"/>
-      <c r="D222" s="20" t="s"/>
-      <c r="E222" s="21" t="s"/>
-      <c r="F222" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="G222" s="17" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="223">
-      <c r="A223" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="B223" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="C223" s="14" t="n"/>
-      <c r="D223" s="14" t="n"/>
-      <c r="E223" s="15" t="n"/>
-      <c r="F223" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="G223" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="224">
-      <c r="A224" s="18" t="s"/>
-      <c r="B224" s="25" t="s"/>
-      <c r="C224" s="18" t="s"/>
-      <c r="D224" s="18" t="s"/>
-      <c r="E224" s="19" t="s"/>
-      <c r="F224" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="G224" s="17" t="s">
-        <v>362</v>
+      <c r="G224" s="20" t="s">
+        <v>363</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="225">
-      <c r="A225" s="20" t="s"/>
-      <c r="B225" s="23" t="s"/>
-      <c r="C225" s="20" t="s"/>
-      <c r="D225" s="20" t="s"/>
-      <c r="E225" s="21" t="s"/>
-      <c r="F225" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="G225" s="17" t="s">
+      <c r="A225" s="23" t="s"/>
+      <c r="B225" s="26" t="s"/>
+      <c r="C225" s="23" t="s"/>
+      <c r="D225" s="15" t="s"/>
+      <c r="E225" s="24" t="s"/>
+      <c r="F225" s="20" t="s">
         <v>370</v>
+      </c>
+      <c r="G225" s="20" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="232">
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A7:G7"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="A8:A11"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A90:G90"/>
+    <mergeCell ref="A217:G217"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="A182:G182"/>
+    <mergeCell ref="A100:G100"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="E196:E201"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E114:E124"/>
+    <mergeCell ref="E187:E191"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="A56:A57"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A187:A191"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A168:A181"/>
+    <mergeCell ref="A192:A195"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A131:A136"/>
+    <mergeCell ref="A213:A216"/>
+    <mergeCell ref="A202:A207"/>
+    <mergeCell ref="A143:A154"/>
+    <mergeCell ref="A220:A222"/>
+    <mergeCell ref="A196:A201"/>
+    <mergeCell ref="A155:A167"/>
+    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A114:A124"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A208:A212"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="A223:A225"/>
+    <mergeCell ref="A183:A186"/>
+    <mergeCell ref="A78:A87"/>
+    <mergeCell ref="A38:A39"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B213:B216"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B114:B124"/>
+    <mergeCell ref="B125:B130"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="B187:B191"/>
+    <mergeCell ref="B223:B225"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="C187:C191"/>
+    <mergeCell ref="C213:C216"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C125:C130"/>
+    <mergeCell ref="C223:C225"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C202:C207"/>
+    <mergeCell ref="C114:C124"/>
+    <mergeCell ref="C131:C136"/>
+    <mergeCell ref="C143:C154"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="C78:C87"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C138:C142"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="C196:C201"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C208:C212"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C168:C181"/>
+    <mergeCell ref="C109:C113"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C220:C222"/>
+    <mergeCell ref="C155:C167"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="C183:C186"/>
+    <mergeCell ref="B208:B212"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B78:B87"/>
+    <mergeCell ref="B168:B181"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B220:B222"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B202:B207"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B196:B201"/>
+    <mergeCell ref="B143:B154"/>
+    <mergeCell ref="B155:B167"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B192:B195"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B138:B142"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="B131:B136"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B183:B186"/>
+    <mergeCell ref="B88:B89"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E223:E225"/>
+    <mergeCell ref="E218:E219"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E138:E142"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="E109:E113"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="E192:E195"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="E220:E222"/>
+    <mergeCell ref="E213:E216"/>
+    <mergeCell ref="E183:E186"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="E105:E108"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="E168:E181"/>
     <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="E155:E167"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="E208:E212"/>
     <mergeCell ref="E54:E55"/>
     <mergeCell ref="E58:E59"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E202:E207"/>
+    <mergeCell ref="E131:E136"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E20:E23"/>
     <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E78:E87"/>
+    <mergeCell ref="E143:E154"/>
+    <mergeCell ref="E125:E130"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D208:D212"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D125:D130"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D187:D191"/>
+    <mergeCell ref="D114:D124"/>
+    <mergeCell ref="D131:D136"/>
+    <mergeCell ref="D143:D154"/>
+    <mergeCell ref="D168:D181"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D196:D201"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="D202:D207"/>
+    <mergeCell ref="D138:D142"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="D88:D89"/>
     <mergeCell ref="D65:D66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="D109:D113"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D155:D167"/>
+    <mergeCell ref="D105:D108"/>
+    <mergeCell ref="D78:D87"/>
+    <mergeCell ref="D183:D186"/>
+    <mergeCell ref="D223:D225"/>
+    <mergeCell ref="D213:D216"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D220:D222"/>
+    <mergeCell ref="D192:D195"/>
+    <mergeCell ref="D97:D99"/>
     <mergeCell ref="D68:D70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="A217:G217"/>
-    <mergeCell ref="A220:A222"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="C220:C222"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="C223:C225"/>
-    <mergeCell ref="E223:E225"/>
-    <mergeCell ref="D223:D225"/>
-    <mergeCell ref="D220:D222"/>
-    <mergeCell ref="E220:E222"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="E218:E219"/>
-    <mergeCell ref="A223:A225"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="B223:B225"/>
-    <mergeCell ref="B220:B222"/>
-    <mergeCell ref="D196:D201"/>
-    <mergeCell ref="E196:E201"/>
-    <mergeCell ref="E202:E207"/>
-    <mergeCell ref="D208:D212"/>
-    <mergeCell ref="E208:E212"/>
-    <mergeCell ref="D202:D207"/>
-    <mergeCell ref="E183:E186"/>
-    <mergeCell ref="E187:E191"/>
-    <mergeCell ref="E192:E195"/>
-    <mergeCell ref="D183:D186"/>
-    <mergeCell ref="D187:D191"/>
-    <mergeCell ref="D192:D195"/>
-    <mergeCell ref="C183:C186"/>
-    <mergeCell ref="C187:C191"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="C196:C201"/>
-    <mergeCell ref="E213:E216"/>
-    <mergeCell ref="D213:D216"/>
-    <mergeCell ref="C208:C212"/>
-    <mergeCell ref="C213:C216"/>
-    <mergeCell ref="C202:C207"/>
-    <mergeCell ref="A213:A216"/>
-    <mergeCell ref="A208:A212"/>
-    <mergeCell ref="B213:B216"/>
-    <mergeCell ref="A192:A195"/>
-    <mergeCell ref="B192:B195"/>
-    <mergeCell ref="B183:B186"/>
-    <mergeCell ref="A196:A201"/>
-    <mergeCell ref="A202:A207"/>
-    <mergeCell ref="A183:A186"/>
-    <mergeCell ref="B208:B212"/>
-    <mergeCell ref="B196:B201"/>
-    <mergeCell ref="B202:B207"/>
-    <mergeCell ref="B187:B191"/>
-    <mergeCell ref="A182:G182"/>
-    <mergeCell ref="C168:C181"/>
-    <mergeCell ref="B168:B181"/>
-    <mergeCell ref="E168:E181"/>
-    <mergeCell ref="A168:A181"/>
-    <mergeCell ref="D168:D181"/>
-    <mergeCell ref="C155:C167"/>
-    <mergeCell ref="D155:D167"/>
-    <mergeCell ref="E155:E167"/>
-    <mergeCell ref="A155:A167"/>
-    <mergeCell ref="C143:C154"/>
-    <mergeCell ref="E143:E154"/>
-    <mergeCell ref="B143:B154"/>
-    <mergeCell ref="A143:A154"/>
-    <mergeCell ref="D143:D154"/>
-    <mergeCell ref="D138:D142"/>
-    <mergeCell ref="C138:C142"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="E138:E142"/>
-    <mergeCell ref="B155:B167"/>
-    <mergeCell ref="B138:B142"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="A131:A136"/>
-    <mergeCell ref="D131:D136"/>
-    <mergeCell ref="C131:C136"/>
-    <mergeCell ref="B131:B136"/>
-    <mergeCell ref="C125:C130"/>
-    <mergeCell ref="C114:C124"/>
-    <mergeCell ref="C109:C113"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="D125:D130"/>
-    <mergeCell ref="D114:D124"/>
-    <mergeCell ref="B125:B130"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B114:B124"/>
-    <mergeCell ref="E78:E87"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="E131:E136"/>
-    <mergeCell ref="E101:E104"/>
-    <mergeCell ref="E109:E113"/>
-    <mergeCell ref="E125:E130"/>
-    <mergeCell ref="E114:E124"/>
-    <mergeCell ref="E105:E108"/>
-    <mergeCell ref="D78:D87"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="C78:C87"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="D105:D108"/>
-    <mergeCell ref="D109:D113"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="B78:B87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="A90:G90"/>
-    <mergeCell ref="A100:G100"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="A114:A124"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A78:A87"/>
-    <mergeCell ref="A187:A191"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="A125:A130"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D38:D39"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink display="https://drive.google.com/drive/u/0/folders/14Sl8CAiIzFqtyXx6BAmWVlbu3_cXXzH1" r:id="rId1" ref="F3"/>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -212,10 +212,10 @@
     <t>Отображение списка новостей</t>
   </si>
   <si>
-    <t>1. Авторизоваться</t>
-  </si>
-  <si>
-    <t>1. Открылась "Главная страница" со списком новостей</t>
+    <t>2. Авторизоваться</t>
+  </si>
+  <si>
+    <t>2. Открылась "Главная страница" со списком новостей</t>
   </si>
   <si>
     <t>ТК-9</t>
@@ -224,6 +224,9 @@
     <t>Свернуть/развернуть полный список новостей</t>
   </si>
   <si>
+    <t>Приложение "Мобильный хоспис" должно быть запущено</t>
+  </si>
+  <si>
     <t>1. Нажать кнопку свернуть/развернуть новости</t>
   </si>
   <si>
@@ -326,6 +329,15 @@
     <t>Свернуть/развернуть цитату</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Приложение "Мобильный хоспис" должно быть запущено</t>
+    </r>
+  </si>
+  <si>
     <t>1. Нажать кнопку "Цитаты" (бабочка) на главной странице</t>
   </si>
   <si>
@@ -1397,6 +1409,37 @@
         <sz val="10"/>
       </rPr>
       <t>ТК-44</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Создание новости в категории "День рождения" с вводом времени публикации вручную</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Выбрать категорию "День рождения"</t>
+  </si>
+  <si>
+    <t>4. Поле категория заполнено значением: День рождения</t>
+  </si>
+  <si>
+    <t>5. В поле "Заголовок" ввести : "У меня"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Поле "Заголовок" заполнено значением: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10"/>
+      </rPr>
+      <t>У меня"</t>
     </r>
   </si>
   <si>
@@ -1930,7 +1973,7 @@
       <alignment shrinkToFit="false" vertical="bottom" wrapText="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment shrinkToFit="false" vertical="bottom" wrapText="false"/>
     </xf>
@@ -2002,6 +2045,9 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment vertical="center" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment vertical="center" wrapText="true"/>
     </xf>
@@ -2012,6 +2058,15 @@
       <alignment horizontal="left" shrinkToFit="false" vertical="center" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2232,7 +2287,7 @@
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
   </sheetPr>
-  <dimension ref="A1:G225"/>
+  <dimension ref="A1:G226"/>
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
@@ -2778,233 +2833,243 @@
       </c>
       <c r="E37" s="18" t="n"/>
       <c r="F37" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="38">
+      <c r="A38" s="23" t="s"/>
+      <c r="B38" s="23" t="s"/>
+      <c r="C38" s="23" t="s"/>
+      <c r="D38" s="15" t="s"/>
+      <c r="E38" s="24" t="s"/>
+      <c r="F38" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G38" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="38">
-      <c r="A38" s="17" t="s">
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="39">
+      <c r="A39" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B39" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="17" t="n"/>
-      <c r="D38" s="11" t="s">
+      <c r="C39" s="17" t="n"/>
+      <c r="D39" s="11" t="n"/>
+      <c r="E39" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="40">
+      <c r="A40" s="23" t="s"/>
+      <c r="B40" s="24" t="s"/>
+      <c r="C40" s="23" t="s"/>
+      <c r="D40" s="15" t="s"/>
+      <c r="E40" s="25" t="s"/>
+      <c r="F40" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="41">
+      <c r="A41" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="17" t="n"/>
+      <c r="D41" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="18" t="n"/>
-      <c r="F38" s="20" t="s">
+      <c r="E41" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G38" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="39">
-      <c r="A39" s="23" t="s"/>
-      <c r="B39" s="24" t="s"/>
-      <c r="C39" s="23" t="s"/>
-      <c r="D39" s="15" t="s"/>
-      <c r="E39" s="24" t="s"/>
-      <c r="F39" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="40">
-      <c r="A40" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="17" t="n"/>
-      <c r="D40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="18" t="n"/>
-      <c r="F40" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G40" s="20" t="s">
+      <c r="F41" s="20" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="41">
-      <c r="A41" s="23" t="s"/>
-      <c r="B41" s="24" t="s"/>
-      <c r="C41" s="23" t="s"/>
-      <c r="D41" s="15" t="s"/>
-      <c r="E41" s="24" t="s"/>
-      <c r="F41" s="20" t="s">
+      <c r="G41" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="G41" s="20" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="42">
+      <c r="A42" s="23" t="s"/>
+      <c r="B42" s="24" t="s"/>
+      <c r="C42" s="23" t="s"/>
+      <c r="D42" s="15" t="s"/>
+      <c r="E42" s="25" t="s"/>
+      <c r="F42" s="20" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="42">
-      <c r="A42" s="17" t="s">
+      <c r="G42" s="20" t="s">
         <v>73</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="17" t="n"/>
-      <c r="D42" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="18" t="n"/>
-      <c r="F42" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>76</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="43">
       <c r="A43" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C43" s="17" t="n"/>
       <c r="D43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="18" t="n"/>
+      <c r="E43" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="F43" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="44">
       <c r="A44" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C44" s="17" t="n"/>
       <c r="D44" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="18" t="n"/>
+      <c r="E44" s="25" t="s"/>
       <c r="F44" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="45">
       <c r="A45" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C45" s="17" t="n"/>
       <c r="D45" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="18" t="n"/>
+      <c r="E45" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="F45" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="46">
       <c r="A46" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C46" s="17" t="n"/>
       <c r="D46" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="18" t="n"/>
+      <c r="E46" s="25" t="s"/>
       <c r="F46" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="47">
+      <c r="A47" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G46" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="47">
-      <c r="A47" s="23" t="s"/>
-      <c r="B47" s="24" t="s"/>
-      <c r="C47" s="23" t="s"/>
-      <c r="D47" s="15" t="s"/>
-      <c r="E47" s="24" t="s"/>
+      <c r="C47" s="17" t="n"/>
+      <c r="D47" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="F47" s="20" t="s">
         <v>92</v>
       </c>
       <c r="G47" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="48">
+      <c r="A48" s="23" t="s"/>
+      <c r="B48" s="24" t="s"/>
+      <c r="C48" s="23" t="s"/>
+      <c r="D48" s="15" t="s"/>
+      <c r="E48" s="25" t="s"/>
+      <c r="F48" s="20" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row outlineLevel="0" r="48">
-      <c r="A48" s="6" t="s">
+      <c r="G48" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="7" t="s"/>
-      <c r="C48" s="7" t="s"/>
-      <c r="D48" s="7" t="s"/>
-      <c r="E48" s="7" t="s"/>
-      <c r="F48" s="7" t="s"/>
-      <c r="G48" s="8" t="s"/>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="49">
-      <c r="A49" s="17" t="s">
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="7" t="s"/>
+      <c r="C49" s="7" t="s"/>
+      <c r="D49" s="7" t="s"/>
+      <c r="E49" s="7" t="s"/>
+      <c r="F49" s="7" t="s"/>
+      <c r="G49" s="8" t="s"/>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="50">
+      <c r="A50" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="17" t="n"/>
-      <c r="D49" s="11" t="s">
+      <c r="B50" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="17" t="n"/>
+      <c r="D50" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="18" t="n"/>
-      <c r="F49" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="50">
-      <c r="A50" s="21" t="s"/>
-      <c r="B50" s="22" t="s"/>
-      <c r="C50" s="21" t="s"/>
-      <c r="D50" s="13" t="s"/>
-      <c r="E50" s="22" t="s"/>
+      <c r="E50" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F50" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="51">
-      <c r="A51" s="23" t="s"/>
-      <c r="B51" s="24" t="s"/>
-      <c r="C51" s="23" t="s"/>
-      <c r="D51" s="15" t="s"/>
-      <c r="E51" s="24" t="s"/>
+      <c r="A51" s="21" t="s"/>
+      <c r="B51" s="22" t="s"/>
+      <c r="C51" s="21" t="s"/>
+      <c r="D51" s="13" t="s"/>
+      <c r="E51" s="22" t="s"/>
       <c r="F51" s="20" t="s">
         <v>100</v>
       </c>
@@ -3012,244 +3077,262 @@
         <v>101</v>
       </c>
     </row>
-    <row outlineLevel="0" r="52">
-      <c r="A52" s="6" t="s">
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="52">
+      <c r="A52" s="23" t="s"/>
+      <c r="B52" s="24" t="s"/>
+      <c r="C52" s="23" t="s"/>
+      <c r="D52" s="15" t="s"/>
+      <c r="E52" s="24" t="s"/>
+      <c r="F52" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="7" t="s"/>
-      <c r="C52" s="7" t="s"/>
-      <c r="D52" s="7" t="s"/>
-      <c r="E52" s="7" t="s"/>
-      <c r="F52" s="7" t="s"/>
-      <c r="G52" s="8" t="s"/>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="53">
-      <c r="A53" s="17" t="s">
+      <c r="G52" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="25" t="s">
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="17" t="n"/>
-      <c r="D53" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="18" t="n"/>
-      <c r="F53" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="B53" s="7" t="s"/>
+      <c r="C53" s="7" t="s"/>
+      <c r="D53" s="7" t="s"/>
+      <c r="E53" s="7" t="s"/>
+      <c r="F53" s="7" t="s"/>
+      <c r="G53" s="8" t="s"/>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="54">
       <c r="A54" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="26" t="s">
         <v>106</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>107</v>
       </c>
       <c r="C54" s="17" t="n"/>
       <c r="D54" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="18" t="n"/>
+      <c r="E54" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F54" s="20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="55">
-      <c r="A55" s="23" t="s"/>
-      <c r="B55" s="26" t="s"/>
-      <c r="C55" s="23" t="s"/>
-      <c r="D55" s="15" t="s"/>
-      <c r="E55" s="24" t="s"/>
+      <c r="A55" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="17" t="n"/>
+      <c r="D55" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F55" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="56">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="23" t="s"/>
+      <c r="B56" s="27" t="s"/>
+      <c r="C56" s="23" t="s"/>
+      <c r="D56" s="15" t="s"/>
+      <c r="E56" s="24" t="s"/>
+      <c r="F56" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="G56" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="17" t="n"/>
-      <c r="D56" s="11" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="57">
+      <c r="A57" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="17" t="n"/>
+      <c r="D57" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="18" t="n"/>
-      <c r="F56" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G56" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="57">
-      <c r="A57" s="23" t="s"/>
-      <c r="B57" s="26" t="s"/>
-      <c r="C57" s="23" t="s"/>
-      <c r="D57" s="15" t="s"/>
-      <c r="E57" s="24" t="s"/>
+      <c r="E57" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F57" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="58">
-      <c r="A58" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" s="25" t="s">
+      <c r="A58" s="23" t="s"/>
+      <c r="B58" s="27" t="s"/>
+      <c r="C58" s="23" t="s"/>
+      <c r="D58" s="15" t="s"/>
+      <c r="E58" s="24" t="s"/>
+      <c r="F58" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="17" t="n"/>
-      <c r="D58" s="11" t="s">
+      <c r="G58" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="59">
+      <c r="A59" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="17" t="n"/>
+      <c r="D59" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="18" t="n"/>
-      <c r="F58" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="59">
-      <c r="A59" s="23" t="s"/>
-      <c r="B59" s="26" t="s"/>
-      <c r="C59" s="23" t="s"/>
-      <c r="D59" s="15" t="s"/>
-      <c r="E59" s="24" t="s"/>
+      <c r="E59" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F59" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="G59" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="60">
-      <c r="A60" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="60">
+      <c r="A60" s="23" t="s"/>
+      <c r="B60" s="27" t="s"/>
+      <c r="C60" s="23" t="s"/>
+      <c r="D60" s="15" t="s"/>
+      <c r="E60" s="24" t="s"/>
+      <c r="F60" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B60" s="7" t="s"/>
-      <c r="C60" s="7" t="s"/>
-      <c r="D60" s="7" t="s"/>
-      <c r="E60" s="7" t="s"/>
-      <c r="F60" s="7" t="s"/>
-      <c r="G60" s="8" t="s"/>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="61">
-      <c r="A61" s="17" t="s">
+      <c r="G60" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="25" t="s">
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="17" t="n"/>
-      <c r="D61" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="18" t="n"/>
-      <c r="F61" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="G61" s="20" t="s">
-        <v>121</v>
-      </c>
+      <c r="B61" s="7" t="s"/>
+      <c r="C61" s="7" t="s"/>
+      <c r="D61" s="7" t="s"/>
+      <c r="E61" s="7" t="s"/>
+      <c r="F61" s="7" t="s"/>
+      <c r="G61" s="8" t="s"/>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="62">
       <c r="A62" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>121</v>
       </c>
       <c r="C62" s="17" t="n"/>
       <c r="D62" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="18" t="n"/>
+      <c r="E62" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F62" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="63">
       <c r="A63" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" s="25" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>125</v>
       </c>
       <c r="C63" s="17" t="n"/>
       <c r="D63" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="18" t="n"/>
+      <c r="E63" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F63" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="64">
       <c r="A64" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>129</v>
       </c>
       <c r="C64" s="17" t="n"/>
       <c r="D64" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="18" t="n"/>
+      <c r="E64" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F64" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="65">
       <c r="A65" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>133</v>
       </c>
       <c r="C65" s="17" t="n"/>
       <c r="D65" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="18" t="n"/>
+      <c r="E65" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F65" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="66">
+      <c r="A66" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="G65" s="20" t="s">
+      <c r="B66" s="26" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="66">
-      <c r="A66" s="23" t="s"/>
-      <c r="B66" s="26" t="s"/>
-      <c r="C66" s="23" t="s"/>
-      <c r="D66" s="15" t="s"/>
-      <c r="E66" s="24" t="s"/>
+      <c r="C66" s="17" t="n"/>
+      <c r="D66" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F66" s="20" t="s">
         <v>138</v>
       </c>
@@ -3257,55 +3340,57 @@
         <v>139</v>
       </c>
     </row>
-    <row outlineLevel="0" r="67">
-      <c r="A67" s="6" t="s">
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="67">
+      <c r="A67" s="23" t="s"/>
+      <c r="B67" s="27" t="s"/>
+      <c r="C67" s="23" t="s"/>
+      <c r="D67" s="15" t="s"/>
+      <c r="E67" s="24" t="s"/>
+      <c r="F67" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="7" t="s"/>
-      <c r="C67" s="7" t="s"/>
-      <c r="D67" s="7" t="s"/>
-      <c r="E67" s="7" t="s"/>
-      <c r="F67" s="7" t="s"/>
-      <c r="G67" s="8" t="s"/>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="68">
-      <c r="A68" s="17" t="s">
+      <c r="G67" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="B68" s="25" t="s">
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="17" t="n"/>
-      <c r="D68" s="11" t="s">
+      <c r="B68" s="7" t="s"/>
+      <c r="C68" s="7" t="s"/>
+      <c r="D68" s="7" t="s"/>
+      <c r="E68" s="7" t="s"/>
+      <c r="F68" s="7" t="s"/>
+      <c r="G68" s="8" t="s"/>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="69">
+      <c r="A69" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="17" t="n"/>
+      <c r="D69" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="18" t="n"/>
-      <c r="F68" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="G68" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="69">
-      <c r="A69" s="21" t="s"/>
-      <c r="B69" s="28" t="s"/>
-      <c r="C69" s="21" t="s"/>
-      <c r="D69" s="13" t="s"/>
-      <c r="E69" s="22" t="s"/>
+      <c r="E69" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F69" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="70">
-      <c r="A70" s="23" t="s"/>
-      <c r="B70" s="26" t="s"/>
-      <c r="C70" s="23" t="s"/>
-      <c r="D70" s="15" t="s"/>
-      <c r="E70" s="24" t="s"/>
+      <c r="A70" s="21" t="s"/>
+      <c r="B70" s="29" t="s"/>
+      <c r="C70" s="21" t="s"/>
+      <c r="D70" s="13" t="s"/>
+      <c r="E70" s="22" t="s"/>
       <c r="F70" s="20" t="s">
         <v>146</v>
       </c>
@@ -3314,43 +3399,45 @@
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="71">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="23" t="s"/>
+      <c r="B71" s="27" t="s"/>
+      <c r="C71" s="23" t="s"/>
+      <c r="D71" s="15" t="s"/>
+      <c r="E71" s="24" t="s"/>
+      <c r="F71" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="G71" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C71" s="17" t="n"/>
-      <c r="D71" s="11" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="72">
+      <c r="A72" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="17" t="n"/>
+      <c r="D72" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="18" t="n"/>
-      <c r="F71" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="G71" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="72">
-      <c r="A72" s="21" t="s"/>
-      <c r="B72" s="28" t="s"/>
-      <c r="C72" s="21" t="s"/>
-      <c r="D72" s="13" t="s"/>
-      <c r="E72" s="22" t="s"/>
+      <c r="E72" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F72" s="20" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="73">
-      <c r="A73" s="23" t="s"/>
-      <c r="B73" s="26" t="s"/>
-      <c r="C73" s="23" t="s"/>
-      <c r="D73" s="15" t="s"/>
-      <c r="E73" s="24" t="s"/>
+      <c r="A73" s="21" t="s"/>
+      <c r="B73" s="29" t="s"/>
+      <c r="C73" s="21" t="s"/>
+      <c r="D73" s="13" t="s"/>
+      <c r="E73" s="22" t="s"/>
       <c r="F73" s="20" t="s">
         <v>152</v>
       </c>
@@ -3359,56 +3446,58 @@
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="74">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="23" t="s"/>
+      <c r="B74" s="27" t="s"/>
+      <c r="C74" s="23" t="s"/>
+      <c r="D74" s="15" t="s"/>
+      <c r="E74" s="24" t="s"/>
+      <c r="F74" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="G74" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C74" s="17" t="n"/>
-      <c r="D74" s="11" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="75">
+      <c r="A75" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="17" t="n"/>
+      <c r="D75" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="18" t="n"/>
-      <c r="F74" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="G74" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="75">
-      <c r="A75" s="21" t="s"/>
-      <c r="B75" s="28" t="s"/>
-      <c r="C75" s="21" t="s"/>
-      <c r="D75" s="13" t="s"/>
-      <c r="E75" s="22" t="s"/>
+      <c r="E75" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F75" s="20" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="76">
       <c r="A76" s="21" t="s"/>
-      <c r="B76" s="28" t="s"/>
+      <c r="B76" s="29" t="s"/>
       <c r="C76" s="21" t="s"/>
       <c r="D76" s="13" t="s"/>
       <c r="E76" s="22" t="s"/>
       <c r="F76" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="77">
-      <c r="A77" s="23" t="s"/>
-      <c r="B77" s="26" t="s"/>
-      <c r="C77" s="23" t="s"/>
-      <c r="D77" s="15" t="s"/>
-      <c r="E77" s="24" t="s"/>
+      <c r="A77" s="21" t="s"/>
+      <c r="B77" s="29" t="s"/>
+      <c r="C77" s="21" t="s"/>
+      <c r="D77" s="13" t="s"/>
+      <c r="E77" s="22" t="s"/>
       <c r="F77" s="20" t="s">
         <v>159</v>
       </c>
@@ -3417,66 +3506,68 @@
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="78">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="23" t="s"/>
+      <c r="B78" s="27" t="s"/>
+      <c r="C78" s="23" t="s"/>
+      <c r="D78" s="15" t="s"/>
+      <c r="E78" s="24" t="s"/>
+      <c r="F78" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="B78" s="25" t="s">
+      <c r="G78" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C78" s="17" t="n"/>
-      <c r="D78" s="11" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="79">
+      <c r="A79" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="17" t="n"/>
+      <c r="D79" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E78" s="18" t="n"/>
-      <c r="F78" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="G78" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="79">
-      <c r="A79" s="21" t="s"/>
-      <c r="B79" s="28" t="s"/>
-      <c r="C79" s="21" t="s"/>
-      <c r="D79" s="13" t="s"/>
-      <c r="E79" s="22" t="s"/>
+      <c r="E79" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F79" s="20" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="80">
       <c r="A80" s="21" t="s"/>
-      <c r="B80" s="28" t="s"/>
+      <c r="B80" s="29" t="s"/>
       <c r="C80" s="21" t="s"/>
       <c r="D80" s="13" t="s"/>
       <c r="E80" s="22" t="s"/>
       <c r="F80" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="81">
       <c r="A81" s="21" t="s"/>
-      <c r="B81" s="28" t="s"/>
+      <c r="B81" s="29" t="s"/>
       <c r="C81" s="21" t="s"/>
       <c r="D81" s="13" t="s"/>
       <c r="E81" s="22" t="s"/>
       <c r="F81" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="82">
       <c r="A82" s="21" t="s"/>
-      <c r="B82" s="28" t="s"/>
+      <c r="B82" s="29" t="s"/>
       <c r="C82" s="21" t="s"/>
       <c r="D82" s="13" t="s"/>
       <c r="E82" s="22" t="s"/>
@@ -3489,7 +3580,7 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="83">
       <c r="A83" s="21" t="s"/>
-      <c r="B83" s="28" t="s"/>
+      <c r="B83" s="29" t="s"/>
       <c r="C83" s="21" t="s"/>
       <c r="D83" s="13" t="s"/>
       <c r="E83" s="22" t="s"/>
@@ -3502,7 +3593,7 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="84">
       <c r="A84" s="21" t="s"/>
-      <c r="B84" s="28" t="s"/>
+      <c r="B84" s="29" t="s"/>
       <c r="C84" s="21" t="s"/>
       <c r="D84" s="13" t="s"/>
       <c r="E84" s="22" t="s"/>
@@ -3515,7 +3606,7 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="85">
       <c r="A85" s="21" t="s"/>
-      <c r="B85" s="28" t="s"/>
+      <c r="B85" s="29" t="s"/>
       <c r="C85" s="21" t="s"/>
       <c r="D85" s="13" t="s"/>
       <c r="E85" s="22" t="s"/>
@@ -3528,7 +3619,7 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="86">
       <c r="A86" s="21" t="s"/>
-      <c r="B86" s="28" t="s"/>
+      <c r="B86" s="29" t="s"/>
       <c r="C86" s="21" t="s"/>
       <c r="D86" s="13" t="s"/>
       <c r="E86" s="22" t="s"/>
@@ -3540,11 +3631,11 @@
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="87">
-      <c r="A87" s="23" t="s"/>
-      <c r="B87" s="26" t="s"/>
-      <c r="C87" s="23" t="s"/>
-      <c r="D87" s="15" t="s"/>
-      <c r="E87" s="24" t="s"/>
+      <c r="A87" s="21" t="s"/>
+      <c r="B87" s="29" t="s"/>
+      <c r="C87" s="21" t="s"/>
+      <c r="D87" s="13" t="s"/>
+      <c r="E87" s="22" t="s"/>
       <c r="F87" s="20" t="s">
         <v>175</v>
       </c>
@@ -3553,105 +3644,111 @@
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="88">
-      <c r="A88" s="17" t="s">
+      <c r="A88" s="23" t="s"/>
+      <c r="B88" s="27" t="s"/>
+      <c r="C88" s="23" t="s"/>
+      <c r="D88" s="15" t="s"/>
+      <c r="E88" s="24" t="s"/>
+      <c r="F88" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B88" s="25" t="s">
+      <c r="G88" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="C88" s="17" t="n"/>
-      <c r="D88" s="11" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="89">
+      <c r="A89" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="17" t="n"/>
+      <c r="D89" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E88" s="18" t="n"/>
-      <c r="F88" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="G88" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="89">
-      <c r="A89" s="23" t="s"/>
-      <c r="B89" s="26" t="s"/>
-      <c r="C89" s="23" t="s"/>
-      <c r="D89" s="15" t="s"/>
-      <c r="E89" s="24" t="s"/>
+      <c r="E89" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F89" s="20" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="90">
-      <c r="A90" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B90" s="7" t="s"/>
-      <c r="C90" s="7" t="s"/>
-      <c r="D90" s="7" t="s"/>
-      <c r="E90" s="7" t="s"/>
-      <c r="F90" s="7" t="s"/>
-      <c r="G90" s="8" t="s"/>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="91">
-      <c r="A91" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="90">
+      <c r="A90" s="23" t="s"/>
+      <c r="B90" s="27" t="s"/>
+      <c r="C90" s="23" t="s"/>
+      <c r="D90" s="15" t="s"/>
+      <c r="E90" s="24" t="s"/>
+      <c r="F90" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B91" s="25" t="s">
+      <c r="G90" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C91" s="17" t="n"/>
-      <c r="D91" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="18" t="n"/>
-      <c r="F91" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G91" s="20" t="s">
-        <v>184</v>
-      </c>
+      <c r="B91" s="7" t="s"/>
+      <c r="C91" s="7" t="s"/>
+      <c r="D91" s="7" t="s"/>
+      <c r="E91" s="7" t="s"/>
+      <c r="F91" s="7" t="s"/>
+      <c r="G91" s="8" t="s"/>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="92">
       <c r="A92" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="B92" s="25" t="s">
-        <v>186</v>
+        <v>183</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>184</v>
       </c>
       <c r="C92" s="17" t="n"/>
       <c r="D92" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E92" s="18" t="n"/>
+      <c r="E92" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F92" s="20" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="93">
-      <c r="A93" s="21" t="s"/>
-      <c r="B93" s="28" t="s"/>
-      <c r="C93" s="21" t="s"/>
-      <c r="D93" s="13" t="s"/>
-      <c r="E93" s="22" t="s"/>
+      <c r="A93" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="17" t="n"/>
+      <c r="D93" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F93" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="94">
-      <c r="A94" s="23" t="s"/>
-      <c r="B94" s="26" t="s"/>
-      <c r="C94" s="23" t="s"/>
-      <c r="D94" s="15" t="s"/>
-      <c r="E94" s="24" t="s"/>
+      <c r="A94" s="21" t="s"/>
+      <c r="B94" s="29" t="s"/>
+      <c r="C94" s="21" t="s"/>
+      <c r="D94" s="13" t="s"/>
+      <c r="E94" s="22" t="s"/>
       <c r="F94" s="20" t="s">
         <v>189</v>
       </c>
@@ -3660,75 +3757,79 @@
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="95">
-      <c r="A95" s="17" t="s">
+      <c r="A95" s="23" t="s"/>
+      <c r="B95" s="27" t="s"/>
+      <c r="C95" s="23" t="s"/>
+      <c r="D95" s="15" t="s"/>
+      <c r="E95" s="24" t="s"/>
+      <c r="F95" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="B95" s="25" t="s">
+      <c r="G95" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="C95" s="17" t="n"/>
-      <c r="D95" s="11" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="96">
+      <c r="A96" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="17" t="n"/>
+      <c r="D96" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E95" s="18" t="n"/>
-      <c r="F95" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G95" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="96">
-      <c r="A96" s="23" t="s"/>
-      <c r="B96" s="26" t="s"/>
-      <c r="C96" s="23" t="s"/>
-      <c r="D96" s="15" t="s"/>
-      <c r="E96" s="24" t="s"/>
+      <c r="E96" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F96" s="20" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="97">
-      <c r="A97" s="17" t="s">
+      <c r="A97" s="23" t="s"/>
+      <c r="B97" s="27" t="s"/>
+      <c r="C97" s="23" t="s"/>
+      <c r="D97" s="15" t="s"/>
+      <c r="E97" s="24" t="s"/>
+      <c r="F97" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="B97" s="25" t="s">
+      <c r="G97" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="C97" s="17" t="n"/>
-      <c r="D97" s="11" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="98">
+      <c r="A98" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" s="17" t="n"/>
+      <c r="D98" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E97" s="18" t="n"/>
-      <c r="F97" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G97" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="98">
-      <c r="A98" s="21" t="s"/>
-      <c r="B98" s="28" t="s"/>
-      <c r="C98" s="21" t="s"/>
-      <c r="D98" s="13" t="s"/>
-      <c r="E98" s="22" t="s"/>
+      <c r="E98" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F98" s="20" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="99">
-      <c r="A99" s="23" t="s"/>
-      <c r="B99" s="26" t="s"/>
-      <c r="C99" s="23" t="s"/>
-      <c r="D99" s="15" t="s"/>
-      <c r="E99" s="24" t="s"/>
+      <c r="A99" s="21" t="s"/>
+      <c r="B99" s="29" t="s"/>
+      <c r="C99" s="21" t="s"/>
+      <c r="D99" s="13" t="s"/>
+      <c r="E99" s="22" t="s"/>
       <c r="F99" s="20" t="s">
         <v>199</v>
       </c>
@@ -3736,126 +3837,130 @@
         <v>200</v>
       </c>
     </row>
-    <row outlineLevel="0" r="100">
-      <c r="A100" s="6" t="s">
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="100">
+      <c r="A100" s="23" t="s"/>
+      <c r="B100" s="27" t="s"/>
+      <c r="C100" s="23" t="s"/>
+      <c r="D100" s="15" t="s"/>
+      <c r="E100" s="24" t="s"/>
+      <c r="F100" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="B100" s="7" t="s"/>
-      <c r="C100" s="7" t="s"/>
-      <c r="D100" s="7" t="s"/>
-      <c r="E100" s="7" t="s"/>
-      <c r="F100" s="7" t="s"/>
-      <c r="G100" s="8" t="s"/>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="101">
-      <c r="A101" s="17" t="s">
+      <c r="G100" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="B101" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C101" s="17" t="n"/>
-      <c r="D101" s="11" t="s">
+    </row>
+    <row outlineLevel="0" r="101">
+      <c r="A101" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="7" t="s"/>
+      <c r="C101" s="7" t="s"/>
+      <c r="D101" s="7" t="s"/>
+      <c r="E101" s="7" t="s"/>
+      <c r="F101" s="7" t="s"/>
+      <c r="G101" s="8" t="s"/>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="102">
+      <c r="A102" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C102" s="17" t="n"/>
+      <c r="D102" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E101" s="18" t="n"/>
-      <c r="F101" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G101" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="102">
-      <c r="A102" s="21" t="s"/>
-      <c r="B102" s="28" t="s"/>
-      <c r="C102" s="21" t="s"/>
-      <c r="D102" s="13" t="s"/>
-      <c r="E102" s="22" t="s"/>
+      <c r="E102" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F102" s="20" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="G102" s="20" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="103">
       <c r="A103" s="21" t="s"/>
-      <c r="B103" s="28" t="s"/>
+      <c r="B103" s="29" t="s"/>
       <c r="C103" s="21" t="s"/>
       <c r="D103" s="13" t="s"/>
       <c r="E103" s="22" t="s"/>
       <c r="F103" s="20" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="104">
-      <c r="A104" s="23" t="s"/>
-      <c r="B104" s="26" t="s"/>
-      <c r="C104" s="23" t="s"/>
-      <c r="D104" s="15" t="s"/>
-      <c r="E104" s="24" t="s"/>
+      <c r="A104" s="21" t="s"/>
+      <c r="B104" s="29" t="s"/>
+      <c r="C104" s="21" t="s"/>
+      <c r="D104" s="13" t="s"/>
+      <c r="E104" s="22" t="s"/>
       <c r="F104" s="20" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="G104" s="20" t="s">
         <v>207</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="105">
-      <c r="A105" s="17" t="s">
+      <c r="A105" s="23" t="s"/>
+      <c r="B105" s="27" t="s"/>
+      <c r="C105" s="23" t="s"/>
+      <c r="D105" s="15" t="s"/>
+      <c r="E105" s="24" t="s"/>
+      <c r="F105" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="B105" s="25" t="s">
+      <c r="G105" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="C105" s="17" t="n"/>
-      <c r="D105" s="11" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="106">
+      <c r="A106" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C106" s="17" t="n"/>
+      <c r="D106" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E105" s="18" t="n"/>
-      <c r="F105" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G105" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="106">
-      <c r="A106" s="21" t="s"/>
-      <c r="B106" s="28" t="s"/>
-      <c r="C106" s="21" t="s"/>
-      <c r="D106" s="13" t="s"/>
-      <c r="E106" s="22" t="s"/>
+      <c r="E106" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F106" s="20" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="107">
       <c r="A107" s="21" t="s"/>
-      <c r="B107" s="28" t="s"/>
+      <c r="B107" s="29" t="s"/>
       <c r="C107" s="21" t="s"/>
       <c r="D107" s="13" t="s"/>
       <c r="E107" s="22" t="s"/>
       <c r="F107" s="20" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="108">
-      <c r="A108" s="23" t="s"/>
-      <c r="B108" s="26" t="s"/>
-      <c r="C108" s="23" t="s"/>
-      <c r="D108" s="15" t="s"/>
-      <c r="E108" s="24" t="s"/>
+      <c r="A108" s="21" t="s"/>
+      <c r="B108" s="29" t="s"/>
+      <c r="C108" s="21" t="s"/>
+      <c r="D108" s="13" t="s"/>
+      <c r="E108" s="22" t="s"/>
       <c r="F108" s="20" t="s">
         <v>212</v>
       </c>
@@ -3864,69 +3969,71 @@
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="109">
-      <c r="A109" s="17" t="s">
+      <c r="A109" s="23" t="s"/>
+      <c r="B109" s="27" t="s"/>
+      <c r="C109" s="23" t="s"/>
+      <c r="D109" s="15" t="s"/>
+      <c r="E109" s="24" t="s"/>
+      <c r="F109" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="B109" s="25" t="s">
+      <c r="G109" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="C109" s="17" t="n"/>
-      <c r="D109" s="11" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="110">
+      <c r="A110" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C110" s="17" t="n"/>
+      <c r="D110" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E109" s="18" t="n"/>
-      <c r="F109" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G109" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="110">
-      <c r="A110" s="21" t="s"/>
-      <c r="B110" s="28" t="s"/>
-      <c r="C110" s="21" t="s"/>
-      <c r="D110" s="13" t="s"/>
-      <c r="E110" s="22" t="s"/>
+      <c r="E110" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F110" s="20" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="G110" s="20" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="111">
       <c r="A111" s="21" t="s"/>
-      <c r="B111" s="28" t="s"/>
+      <c r="B111" s="29" t="s"/>
       <c r="C111" s="21" t="s"/>
       <c r="D111" s="13" t="s"/>
       <c r="E111" s="22" t="s"/>
       <c r="F111" s="20" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="G111" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="112">
       <c r="A112" s="21" t="s"/>
-      <c r="B112" s="28" t="s"/>
+      <c r="B112" s="29" t="s"/>
       <c r="C112" s="21" t="s"/>
       <c r="D112" s="13" t="s"/>
       <c r="E112" s="22" t="s"/>
       <c r="F112" s="20" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="G112" s="20" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="113">
-      <c r="A113" s="23" t="s"/>
-      <c r="B113" s="26" t="s"/>
-      <c r="C113" s="23" t="s"/>
-      <c r="D113" s="15" t="s"/>
-      <c r="E113" s="24" t="s"/>
+      <c r="A113" s="21" t="s"/>
+      <c r="B113" s="29" t="s"/>
+      <c r="C113" s="21" t="s"/>
+      <c r="D113" s="13" t="s"/>
+      <c r="E113" s="22" t="s"/>
       <c r="F113" s="20" t="s">
         <v>218</v>
       </c>
@@ -3935,79 +4042,81 @@
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="114">
-      <c r="A114" s="17" t="s">
+      <c r="A114" s="23" t="s"/>
+      <c r="B114" s="27" t="s"/>
+      <c r="C114" s="23" t="s"/>
+      <c r="D114" s="15" t="s"/>
+      <c r="E114" s="24" t="s"/>
+      <c r="F114" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="B114" s="25" t="s">
+      <c r="G114" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C114" s="17" t="n"/>
-      <c r="D114" s="11" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="115">
+      <c r="A115" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B115" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C115" s="17" t="n"/>
+      <c r="D115" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E114" s="18" t="n"/>
-      <c r="F114" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G114" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="115">
-      <c r="A115" s="21" t="s"/>
-      <c r="B115" s="28" t="s"/>
-      <c r="C115" s="21" t="s"/>
-      <c r="D115" s="13" t="s"/>
-      <c r="E115" s="22" t="s"/>
+      <c r="E115" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F115" s="20" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="G115" s="20" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="116">
       <c r="A116" s="21" t="s"/>
-      <c r="B116" s="28" t="s"/>
+      <c r="B116" s="29" t="s"/>
       <c r="C116" s="21" t="s"/>
       <c r="D116" s="13" t="s"/>
       <c r="E116" s="22" t="s"/>
       <c r="F116" s="20" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="G116" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="117">
       <c r="A117" s="21" t="s"/>
-      <c r="B117" s="28" t="s"/>
+      <c r="B117" s="29" t="s"/>
       <c r="C117" s="21" t="s"/>
       <c r="D117" s="13" t="s"/>
       <c r="E117" s="22" t="s"/>
       <c r="F117" s="20" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="G117" s="20" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="118">
       <c r="A118" s="21" t="s"/>
-      <c r="B118" s="28" t="s"/>
+      <c r="B118" s="29" t="s"/>
       <c r="C118" s="21" t="s"/>
       <c r="D118" s="13" t="s"/>
       <c r="E118" s="22" t="s"/>
       <c r="F118" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G118" s="20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="119">
       <c r="A119" s="21" t="s"/>
-      <c r="B119" s="28" t="s"/>
+      <c r="B119" s="29" t="s"/>
       <c r="C119" s="21" t="s"/>
       <c r="D119" s="13" t="s"/>
       <c r="E119" s="22" t="s"/>
@@ -4020,7 +4129,7 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="120">
       <c r="A120" s="21" t="s"/>
-      <c r="B120" s="28" t="s"/>
+      <c r="B120" s="29" t="s"/>
       <c r="C120" s="21" t="s"/>
       <c r="D120" s="13" t="s"/>
       <c r="E120" s="22" t="s"/>
@@ -4033,7 +4142,7 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="121">
       <c r="A121" s="21" t="s"/>
-      <c r="B121" s="28" t="s"/>
+      <c r="B121" s="29" t="s"/>
       <c r="C121" s="21" t="s"/>
       <c r="D121" s="13" t="s"/>
       <c r="E121" s="22" t="s"/>
@@ -4046,7 +4155,7 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="122">
       <c r="A122" s="21" t="s"/>
-      <c r="B122" s="28" t="s"/>
+      <c r="B122" s="29" t="s"/>
       <c r="C122" s="21" t="s"/>
       <c r="D122" s="13" t="s"/>
       <c r="E122" s="22" t="s"/>
@@ -4059,7 +4168,7 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="123">
       <c r="A123" s="21" t="s"/>
-      <c r="B123" s="28" t="s"/>
+      <c r="B123" s="29" t="s"/>
       <c r="C123" s="21" t="s"/>
       <c r="D123" s="13" t="s"/>
       <c r="E123" s="22" t="s"/>
@@ -4071,11 +4180,11 @@
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="124">
-      <c r="A124" s="23" t="s"/>
-      <c r="B124" s="26" t="s"/>
-      <c r="C124" s="23" t="s"/>
-      <c r="D124" s="15" t="s"/>
-      <c r="E124" s="24" t="s"/>
+      <c r="A124" s="21" t="s"/>
+      <c r="B124" s="29" t="s"/>
+      <c r="C124" s="21" t="s"/>
+      <c r="D124" s="13" t="s"/>
+      <c r="E124" s="22" t="s"/>
       <c r="F124" s="20" t="s">
         <v>234</v>
       </c>
@@ -4084,82 +4193,84 @@
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="125">
-      <c r="A125" s="17" t="s">
+      <c r="A125" s="23" t="s"/>
+      <c r="B125" s="27" t="s"/>
+      <c r="C125" s="23" t="s"/>
+      <c r="D125" s="15" t="s"/>
+      <c r="E125" s="24" t="s"/>
+      <c r="F125" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="B125" s="25" t="s">
+      <c r="G125" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="C125" s="17" t="n"/>
-      <c r="D125" s="11" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="126">
+      <c r="A126" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B126" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C126" s="17" t="n"/>
+      <c r="D126" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E125" s="18" t="n"/>
-      <c r="F125" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G125" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="126">
-      <c r="A126" s="21" t="s"/>
-      <c r="B126" s="28" t="s"/>
-      <c r="C126" s="21" t="s"/>
-      <c r="D126" s="13" t="s"/>
-      <c r="E126" s="22" t="s"/>
+      <c r="E126" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F126" s="20" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="G126" s="20" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="127">
       <c r="A127" s="21" t="s"/>
-      <c r="B127" s="28" t="s"/>
+      <c r="B127" s="29" t="s"/>
       <c r="C127" s="21" t="s"/>
       <c r="D127" s="13" t="s"/>
       <c r="E127" s="22" t="s"/>
       <c r="F127" s="20" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="G127" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="128">
       <c r="A128" s="21" t="s"/>
-      <c r="B128" s="28" t="s"/>
+      <c r="B128" s="29" t="s"/>
       <c r="C128" s="21" t="s"/>
       <c r="D128" s="13" t="s"/>
       <c r="E128" s="22" t="s"/>
       <c r="F128" s="20" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="G128" s="20" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="129">
       <c r="A129" s="21" t="s"/>
-      <c r="B129" s="28" t="s"/>
+      <c r="B129" s="29" t="s"/>
       <c r="C129" s="21" t="s"/>
       <c r="D129" s="13" t="s"/>
       <c r="E129" s="22" t="s"/>
       <c r="F129" s="20" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G129" s="20" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="130">
-      <c r="A130" s="23" t="s"/>
-      <c r="B130" s="26" t="s"/>
-      <c r="C130" s="23" t="s"/>
-      <c r="D130" s="15" t="s"/>
-      <c r="E130" s="24" t="s"/>
+      <c r="A130" s="21" t="s"/>
+      <c r="B130" s="29" t="s"/>
+      <c r="C130" s="21" t="s"/>
+      <c r="D130" s="13" t="s"/>
+      <c r="E130" s="22" t="s"/>
       <c r="F130" s="20" t="s">
         <v>240</v>
       </c>
@@ -4168,164 +4279,168 @@
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="131">
-      <c r="A131" s="17" t="s">
+      <c r="A131" s="23" t="s"/>
+      <c r="B131" s="27" t="s"/>
+      <c r="C131" s="23" t="s"/>
+      <c r="D131" s="15" t="s"/>
+      <c r="E131" s="24" t="s"/>
+      <c r="F131" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="B131" s="25" t="s">
+      <c r="G131" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="C131" s="17" t="n"/>
-      <c r="D131" s="11" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="132">
+      <c r="A132" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B132" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C132" s="17" t="n"/>
+      <c r="D132" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E131" s="18" t="n"/>
-      <c r="F131" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G131" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="132">
-      <c r="A132" s="21" t="s"/>
-      <c r="B132" s="28" t="s"/>
-      <c r="C132" s="21" t="s"/>
-      <c r="D132" s="13" t="s"/>
-      <c r="E132" s="22" t="s"/>
+      <c r="E132" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F132" s="20" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="133">
       <c r="A133" s="21" t="s"/>
-      <c r="B133" s="28" t="s"/>
+      <c r="B133" s="29" t="s"/>
       <c r="C133" s="21" t="s"/>
       <c r="D133" s="13" t="s"/>
       <c r="E133" s="22" t="s"/>
       <c r="F133" s="20" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="G133" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="134">
       <c r="A134" s="21" t="s"/>
-      <c r="B134" s="28" t="s"/>
+      <c r="B134" s="29" t="s"/>
       <c r="C134" s="21" t="s"/>
       <c r="D134" s="13" t="s"/>
       <c r="E134" s="22" t="s"/>
       <c r="F134" s="20" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="G134" s="20" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="135">
       <c r="A135" s="21" t="s"/>
-      <c r="B135" s="28" t="s"/>
+      <c r="B135" s="29" t="s"/>
       <c r="C135" s="21" t="s"/>
       <c r="D135" s="13" t="s"/>
       <c r="E135" s="22" t="s"/>
       <c r="F135" s="20" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="136">
-      <c r="A136" s="23" t="s"/>
-      <c r="B136" s="26" t="s"/>
-      <c r="C136" s="23" t="s"/>
-      <c r="D136" s="15" t="s"/>
-      <c r="E136" s="24" t="s"/>
+      <c r="A136" s="21" t="s"/>
+      <c r="B136" s="29" t="s"/>
+      <c r="C136" s="21" t="s"/>
+      <c r="D136" s="13" t="s"/>
+      <c r="E136" s="22" t="s"/>
       <c r="F136" s="20" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G136" s="20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="137">
-      <c r="A137" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B137" s="7" t="s"/>
-      <c r="C137" s="7" t="s"/>
-      <c r="D137" s="7" t="s"/>
-      <c r="E137" s="7" t="s"/>
-      <c r="F137" s="7" t="s"/>
-      <c r="G137" s="8" t="s"/>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="138">
-      <c r="A138" s="17" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="137">
+      <c r="A137" s="23" t="s"/>
+      <c r="B137" s="27" t="s"/>
+      <c r="C137" s="23" t="s"/>
+      <c r="D137" s="15" t="s"/>
+      <c r="E137" s="24" t="s"/>
+      <c r="F137" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="G137" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="B138" s="25" t="s">
+    </row>
+    <row outlineLevel="0" r="138">
+      <c r="A138" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C138" s="17" t="n"/>
-      <c r="D138" s="11" t="s">
+      <c r="B138" s="7" t="s"/>
+      <c r="C138" s="7" t="s"/>
+      <c r="D138" s="7" t="s"/>
+      <c r="E138" s="7" t="s"/>
+      <c r="F138" s="7" t="s"/>
+      <c r="G138" s="8" t="s"/>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="139">
+      <c r="A139" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B139" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C139" s="17" t="n"/>
+      <c r="D139" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E138" s="18" t="n"/>
-      <c r="F138" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G138" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="139">
-      <c r="A139" s="21" t="s"/>
-      <c r="B139" s="28" t="s"/>
-      <c r="C139" s="21" t="s"/>
-      <c r="D139" s="13" t="s"/>
-      <c r="E139" s="22" t="s"/>
+      <c r="E139" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F139" s="20" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="G139" s="20" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="140">
       <c r="A140" s="21" t="s"/>
-      <c r="B140" s="28" t="s"/>
+      <c r="B140" s="31" t="s"/>
       <c r="C140" s="21" t="s"/>
       <c r="D140" s="13" t="s"/>
       <c r="E140" s="22" t="s"/>
       <c r="F140" s="20" t="s">
-        <v>146</v>
+        <v>252</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="141">
       <c r="A141" s="21" t="s"/>
-      <c r="B141" s="28" t="s"/>
+      <c r="B141" s="31" t="s"/>
       <c r="C141" s="21" t="s"/>
       <c r="D141" s="13" t="s"/>
       <c r="E141" s="22" t="s"/>
       <c r="F141" s="20" t="s">
-        <v>252</v>
+        <v>148</v>
       </c>
       <c r="G141" s="20" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="142">
-      <c r="A142" s="23" t="s"/>
-      <c r="B142" s="26" t="s"/>
-      <c r="C142" s="23" t="s"/>
-      <c r="D142" s="15" t="s"/>
-      <c r="E142" s="24" t="s"/>
+      <c r="A142" s="21" t="s"/>
+      <c r="B142" s="31" t="s"/>
+      <c r="C142" s="21" t="s"/>
+      <c r="D142" s="13" t="s"/>
+      <c r="E142" s="22" t="s"/>
       <c r="F142" s="20" t="s">
         <v>254</v>
       </c>
@@ -4334,53 +4449,55 @@
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="143">
-      <c r="A143" s="17" t="s">
+      <c r="A143" s="23" t="s"/>
+      <c r="B143" s="32" t="s"/>
+      <c r="C143" s="23" t="s"/>
+      <c r="D143" s="15" t="s"/>
+      <c r="E143" s="24" t="s"/>
+      <c r="F143" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="B143" s="25" t="s">
+      <c r="G143" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="C143" s="17" t="n"/>
-      <c r="D143" s="11" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="144">
+      <c r="A144" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B144" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C144" s="17" t="n"/>
+      <c r="D144" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E143" s="18" t="n"/>
-      <c r="F143" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G143" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="144">
-      <c r="A144" s="21" t="s"/>
-      <c r="B144" s="28" t="s"/>
-      <c r="C144" s="21" t="s"/>
-      <c r="D144" s="13" t="s"/>
-      <c r="E144" s="22" t="s"/>
+      <c r="E144" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F144" s="20" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="G144" s="20" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="145">
       <c r="A145" s="21" t="s"/>
-      <c r="B145" s="28" t="s"/>
+      <c r="B145" s="29" t="s"/>
       <c r="C145" s="21" t="s"/>
       <c r="D145" s="13" t="s"/>
       <c r="E145" s="22" t="s"/>
       <c r="F145" s="20" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G145" s="20" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="146">
       <c r="A146" s="21" t="s"/>
-      <c r="B146" s="28" t="s"/>
+      <c r="B146" s="29" t="s"/>
       <c r="C146" s="21" t="s"/>
       <c r="D146" s="13" t="s"/>
       <c r="E146" s="22" t="s"/>
@@ -4393,7 +4510,7 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="147">
       <c r="A147" s="21" t="s"/>
-      <c r="B147" s="28" t="s"/>
+      <c r="B147" s="29" t="s"/>
       <c r="C147" s="21" t="s"/>
       <c r="D147" s="13" t="s"/>
       <c r="E147" s="22" t="s"/>
@@ -4406,7 +4523,7 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="148">
       <c r="A148" s="21" t="s"/>
-      <c r="B148" s="28" t="s"/>
+      <c r="B148" s="29" t="s"/>
       <c r="C148" s="21" t="s"/>
       <c r="D148" s="13" t="s"/>
       <c r="E148" s="22" t="s"/>
@@ -4419,7 +4536,7 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="149">
       <c r="A149" s="21" t="s"/>
-      <c r="B149" s="28" t="s"/>
+      <c r="B149" s="29" t="s"/>
       <c r="C149" s="21" t="s"/>
       <c r="D149" s="13" t="s"/>
       <c r="E149" s="22" t="s"/>
@@ -4432,7 +4549,7 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="150">
       <c r="A150" s="21" t="s"/>
-      <c r="B150" s="28" t="s"/>
+      <c r="B150" s="29" t="s"/>
       <c r="C150" s="21" t="s"/>
       <c r="D150" s="13" t="s"/>
       <c r="E150" s="22" t="s"/>
@@ -4445,7 +4562,7 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="151">
       <c r="A151" s="21" t="s"/>
-      <c r="B151" s="28" t="s"/>
+      <c r="B151" s="29" t="s"/>
       <c r="C151" s="21" t="s"/>
       <c r="D151" s="13" t="s"/>
       <c r="E151" s="22" t="s"/>
@@ -4458,36 +4575,36 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="152">
       <c r="A152" s="21" t="s"/>
-      <c r="B152" s="28" t="s"/>
+      <c r="B152" s="29" t="s"/>
       <c r="C152" s="21" t="s"/>
       <c r="D152" s="13" t="s"/>
       <c r="E152" s="22" t="s"/>
       <c r="F152" s="20" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="G152" s="20" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="153">
       <c r="A153" s="21" t="s"/>
-      <c r="B153" s="28" t="s"/>
+      <c r="B153" s="29" t="s"/>
       <c r="C153" s="21" t="s"/>
       <c r="D153" s="13" t="s"/>
       <c r="E153" s="22" t="s"/>
       <c r="F153" s="20" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="G153" s="20" t="s">
         <v>274</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="154">
-      <c r="A154" s="23" t="s"/>
-      <c r="B154" s="26" t="s"/>
-      <c r="C154" s="23" t="s"/>
-      <c r="D154" s="15" t="s"/>
-      <c r="E154" s="24" t="s"/>
+      <c r="A154" s="21" t="s"/>
+      <c r="B154" s="29" t="s"/>
+      <c r="C154" s="21" t="s"/>
+      <c r="D154" s="13" t="s"/>
+      <c r="E154" s="22" t="s"/>
       <c r="F154" s="20" t="s">
         <v>275</v>
       </c>
@@ -4496,66 +4613,68 @@
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="155">
-      <c r="A155" s="17" t="s">
+      <c r="A155" s="23" t="s"/>
+      <c r="B155" s="27" t="s"/>
+      <c r="C155" s="23" t="s"/>
+      <c r="D155" s="15" t="s"/>
+      <c r="E155" s="24" t="s"/>
+      <c r="F155" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="B155" s="25" t="s">
+      <c r="G155" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="C155" s="17" t="n"/>
-      <c r="D155" s="11" t="s">
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="156">
+      <c r="A156" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B156" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="C156" s="17" t="n"/>
+      <c r="D156" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E155" s="18" t="n"/>
-      <c r="F155" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G155" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="156">
-      <c r="A156" s="21" t="s"/>
-      <c r="B156" s="28" t="s"/>
-      <c r="C156" s="21" t="s"/>
-      <c r="D156" s="13" t="s"/>
-      <c r="E156" s="22" t="s"/>
+      <c r="E156" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F156" s="20" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="G156" s="20" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="157">
       <c r="A157" s="21" t="s"/>
-      <c r="B157" s="28" t="s"/>
+      <c r="B157" s="31" t="s"/>
       <c r="C157" s="21" t="s"/>
       <c r="D157" s="13" t="s"/>
       <c r="E157" s="22" t="s"/>
       <c r="F157" s="20" t="s">
-        <v>146</v>
+        <v>252</v>
       </c>
       <c r="G157" s="20" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="158">
       <c r="A158" s="21" t="s"/>
-      <c r="B158" s="28" t="s"/>
+      <c r="B158" s="31" t="s"/>
       <c r="C158" s="21" t="s"/>
       <c r="D158" s="13" t="s"/>
       <c r="E158" s="22" t="s"/>
       <c r="F158" s="20" t="s">
-        <v>279</v>
+        <v>148</v>
       </c>
       <c r="G158" s="20" t="s">
-        <v>280</v>
+        <v>207</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="159">
       <c r="A159" s="21" t="s"/>
-      <c r="B159" s="28" t="s"/>
+      <c r="B159" s="31" t="s"/>
       <c r="C159" s="21" t="s"/>
       <c r="D159" s="13" t="s"/>
       <c r="E159" s="22" t="s"/>
@@ -4568,7 +4687,7 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="160">
       <c r="A160" s="21" t="s"/>
-      <c r="B160" s="28" t="s"/>
+      <c r="B160" s="31" t="s"/>
       <c r="C160" s="21" t="s"/>
       <c r="D160" s="13" t="s"/>
       <c r="E160" s="22" t="s"/>
@@ -4581,7 +4700,7 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="161">
       <c r="A161" s="21" t="s"/>
-      <c r="B161" s="28" t="s"/>
+      <c r="B161" s="31" t="s"/>
       <c r="C161" s="21" t="s"/>
       <c r="D161" s="13" t="s"/>
       <c r="E161" s="22" t="s"/>
@@ -4594,7 +4713,7 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="162">
       <c r="A162" s="21" t="s"/>
-      <c r="B162" s="28" t="s"/>
+      <c r="B162" s="31" t="s"/>
       <c r="C162" s="21" t="s"/>
       <c r="D162" s="13" t="s"/>
       <c r="E162" s="22" t="s"/>
@@ -4607,7 +4726,7 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="163">
       <c r="A163" s="21" t="s"/>
-      <c r="B163" s="28" t="s"/>
+      <c r="B163" s="31" t="s"/>
       <c r="C163" s="21" t="s"/>
       <c r="D163" s="13" t="s"/>
       <c r="E163" s="22" t="s"/>
@@ -4620,7 +4739,7 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="164">
       <c r="A164" s="21" t="s"/>
-      <c r="B164" s="28" t="s"/>
+      <c r="B164" s="31" t="s"/>
       <c r="C164" s="21" t="s"/>
       <c r="D164" s="13" t="s"/>
       <c r="E164" s="22" t="s"/>
@@ -4633,7 +4752,7 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="165">
       <c r="A165" s="21" t="s"/>
-      <c r="B165" s="28" t="s"/>
+      <c r="B165" s="31" t="s"/>
       <c r="C165" s="21" t="s"/>
       <c r="D165" s="13" t="s"/>
       <c r="E165" s="22" t="s"/>
@@ -4646,7 +4765,7 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="166">
       <c r="A166" s="21" t="s"/>
-      <c r="B166" s="28" t="s"/>
+      <c r="B166" s="31" t="s"/>
       <c r="C166" s="21" t="s"/>
       <c r="D166" s="13" t="s"/>
       <c r="E166" s="22" t="s"/>
@@ -4658,11 +4777,11 @@
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="167">
-      <c r="A167" s="23" t="s"/>
-      <c r="B167" s="26" t="s"/>
-      <c r="C167" s="23" t="s"/>
-      <c r="D167" s="15" t="s"/>
-      <c r="E167" s="24" t="s"/>
+      <c r="A167" s="21" t="s"/>
+      <c r="B167" s="31" t="s"/>
+      <c r="C167" s="21" t="s"/>
+      <c r="D167" s="13" t="s"/>
+      <c r="E167" s="22" t="s"/>
       <c r="F167" s="20" t="s">
         <v>297</v>
       </c>
@@ -4671,92 +4790,94 @@
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="168">
-      <c r="A168" s="17" t="s">
+      <c r="A168" s="23" t="s"/>
+      <c r="B168" s="32" t="s"/>
+      <c r="C168" s="23" t="s"/>
+      <c r="D168" s="15" t="s"/>
+      <c r="E168" s="24" t="s"/>
+      <c r="F168" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="B168" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="C168" s="17" t="n"/>
-      <c r="D168" s="11" t="s">
+      <c r="G168" s="20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="169">
+      <c r="A169" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="B169" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="C169" s="17" t="n"/>
+      <c r="D169" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E168" s="18" t="n"/>
-      <c r="F168" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G168" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="169">
-      <c r="A169" s="21" t="s"/>
-      <c r="B169" s="28" t="s"/>
-      <c r="C169" s="21" t="s"/>
-      <c r="D169" s="13" t="s"/>
-      <c r="E169" s="22" t="s"/>
+      <c r="E169" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F169" s="20" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="G169" s="20" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="170">
       <c r="A170" s="21" t="s"/>
-      <c r="B170" s="28" t="s"/>
+      <c r="B170" s="31" t="s"/>
       <c r="C170" s="21" t="s"/>
       <c r="D170" s="13" t="s"/>
       <c r="E170" s="22" t="s"/>
       <c r="F170" s="20" t="s">
-        <v>146</v>
+        <v>252</v>
       </c>
       <c r="G170" s="20" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="171">
       <c r="A171" s="21" t="s"/>
-      <c r="B171" s="28" t="s"/>
+      <c r="B171" s="31" t="s"/>
       <c r="C171" s="21" t="s"/>
       <c r="D171" s="13" t="s"/>
       <c r="E171" s="22" t="s"/>
       <c r="F171" s="20" t="s">
-        <v>279</v>
+        <v>148</v>
       </c>
       <c r="G171" s="20" t="s">
-        <v>280</v>
+        <v>207</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="172">
       <c r="A172" s="21" t="s"/>
-      <c r="B172" s="28" t="s"/>
+      <c r="B172" s="31" t="s"/>
       <c r="C172" s="21" t="s"/>
       <c r="D172" s="13" t="s"/>
       <c r="E172" s="22" t="s"/>
       <c r="F172" s="20" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="G172" s="20" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="173">
       <c r="A173" s="21" t="s"/>
-      <c r="B173" s="28" t="s"/>
+      <c r="B173" s="31" t="s"/>
       <c r="C173" s="21" t="s"/>
       <c r="D173" s="13" t="s"/>
       <c r="E173" s="22" t="s"/>
       <c r="F173" s="20" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="G173" s="20" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="174">
       <c r="A174" s="21" t="s"/>
-      <c r="B174" s="28" t="s"/>
+      <c r="B174" s="31" t="s"/>
       <c r="C174" s="21" t="s"/>
       <c r="D174" s="13" t="s"/>
       <c r="E174" s="22" t="s"/>
@@ -4769,7 +4890,7 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="175">
       <c r="A175" s="21" t="s"/>
-      <c r="B175" s="28" t="s"/>
+      <c r="B175" s="31" t="s"/>
       <c r="C175" s="21" t="s"/>
       <c r="D175" s="13" t="s"/>
       <c r="E175" s="22" t="s"/>
@@ -4782,7 +4903,7 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="176">
       <c r="A176" s="21" t="s"/>
-      <c r="B176" s="28" t="s"/>
+      <c r="B176" s="31" t="s"/>
       <c r="C176" s="21" t="s"/>
       <c r="D176" s="13" t="s"/>
       <c r="E176" s="22" t="s"/>
@@ -4795,931 +4916,971 @@
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="177">
       <c r="A177" s="21" t="s"/>
-      <c r="B177" s="28" t="s"/>
+      <c r="B177" s="31" t="s"/>
       <c r="C177" s="21" t="s"/>
       <c r="D177" s="13" t="s"/>
       <c r="E177" s="22" t="s"/>
       <c r="F177" s="20" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G177" s="20" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="178">
       <c r="A178" s="21" t="s"/>
-      <c r="B178" s="28" t="s"/>
+      <c r="B178" s="31" t="s"/>
       <c r="C178" s="21" t="s"/>
       <c r="D178" s="13" t="s"/>
       <c r="E178" s="22" t="s"/>
       <c r="F178" s="20" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G178" s="20" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="179">
       <c r="A179" s="21" t="s"/>
-      <c r="B179" s="28" t="s"/>
+      <c r="B179" s="31" t="s"/>
       <c r="C179" s="21" t="s"/>
       <c r="D179" s="13" t="s"/>
       <c r="E179" s="22" t="s"/>
       <c r="F179" s="20" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G179" s="20" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="180">
       <c r="A180" s="21" t="s"/>
-      <c r="B180" s="28" t="s"/>
+      <c r="B180" s="31" t="s"/>
       <c r="C180" s="21" t="s"/>
       <c r="D180" s="13" t="s"/>
       <c r="E180" s="22" t="s"/>
       <c r="F180" s="20" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G180" s="20" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="181">
-      <c r="A181" s="23" t="s"/>
-      <c r="B181" s="26" t="s"/>
-      <c r="C181" s="23" t="s"/>
-      <c r="D181" s="15" t="s"/>
-      <c r="E181" s="24" t="s"/>
+      <c r="A181" s="21" t="s"/>
+      <c r="B181" s="31" t="s"/>
+      <c r="C181" s="21" t="s"/>
+      <c r="D181" s="13" t="s"/>
+      <c r="E181" s="22" t="s"/>
       <c r="F181" s="20" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G181" s="20" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="182">
-      <c r="A182" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="B182" s="7" t="s"/>
-      <c r="C182" s="7" t="s"/>
-      <c r="D182" s="7" t="s"/>
-      <c r="E182" s="7" t="s"/>
-      <c r="F182" s="7" t="s"/>
-      <c r="G182" s="8" t="s"/>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="183">
-      <c r="A183" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="B183" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="C183" s="17" t="n"/>
-      <c r="D183" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="182">
+      <c r="A182" s="23" t="s"/>
+      <c r="B182" s="32" t="s"/>
+      <c r="C182" s="23" t="s"/>
+      <c r="D182" s="15" t="s"/>
+      <c r="E182" s="24" t="s"/>
+      <c r="F182" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="G182" s="20" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="183">
+      <c r="A183" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B183" s="7" t="s"/>
+      <c r="C183" s="7" t="s"/>
+      <c r="D183" s="7" t="s"/>
+      <c r="E183" s="7" t="s"/>
+      <c r="F183" s="7" t="s"/>
+      <c r="G183" s="8" t="s"/>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="184">
+      <c r="A184" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="B184" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="C184" s="17" t="n"/>
+      <c r="D184" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E183" s="18" t="n"/>
-      <c r="F183" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G183" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="184">
-      <c r="A184" s="21" t="s"/>
-      <c r="B184" s="28" t="s"/>
-      <c r="C184" s="21" t="s"/>
-      <c r="D184" s="13" t="s"/>
-      <c r="E184" s="22" t="s"/>
+      <c r="E184" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F184" s="20" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G184" s="20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="185">
       <c r="A185" s="21" t="s"/>
-      <c r="B185" s="28" t="s"/>
+      <c r="B185" s="29" t="s"/>
       <c r="C185" s="21" t="s"/>
       <c r="D185" s="13" t="s"/>
       <c r="E185" s="22" t="s"/>
       <c r="F185" s="20" t="s">
-        <v>313</v>
+        <v>195</v>
       </c>
       <c r="G185" s="20" t="s">
-        <v>314</v>
+        <v>196</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="186">
-      <c r="A186" s="23" t="s"/>
-      <c r="B186" s="26" t="s"/>
-      <c r="C186" s="23" t="s"/>
-      <c r="D186" s="15" t="s"/>
-      <c r="E186" s="24" t="s"/>
+      <c r="A186" s="21" t="s"/>
+      <c r="B186" s="29" t="s"/>
+      <c r="C186" s="21" t="s"/>
+      <c r="D186" s="13" t="s"/>
+      <c r="E186" s="22" t="s"/>
       <c r="F186" s="20" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G186" s="20" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="187">
-      <c r="A187" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="B187" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="C187" s="17" t="n"/>
-      <c r="D187" s="11" t="s">
+      <c r="A187" s="23" t="s"/>
+      <c r="B187" s="27" t="s"/>
+      <c r="C187" s="23" t="s"/>
+      <c r="D187" s="15" t="s"/>
+      <c r="E187" s="24" t="s"/>
+      <c r="F187" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="G187" s="20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="188">
+      <c r="A188" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="B188" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="C188" s="17" t="n"/>
+      <c r="D188" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E187" s="18" t="n"/>
-      <c r="F187" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G187" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="188">
-      <c r="A188" s="21" t="s"/>
-      <c r="B188" s="28" t="s"/>
-      <c r="C188" s="21" t="s"/>
-      <c r="D188" s="13" t="s"/>
-      <c r="E188" s="22" t="s"/>
+      <c r="E188" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F188" s="20" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G188" s="20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="189">
       <c r="A189" s="21" t="s"/>
-      <c r="B189" s="28" t="s"/>
+      <c r="B189" s="29" t="s"/>
       <c r="C189" s="21" t="s"/>
       <c r="D189" s="13" t="s"/>
       <c r="E189" s="22" t="s"/>
       <c r="F189" s="20" t="s">
-        <v>319</v>
+        <v>195</v>
       </c>
       <c r="G189" s="20" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="190">
       <c r="A190" s="21" t="s"/>
-      <c r="B190" s="28" t="s"/>
+      <c r="B190" s="29" t="s"/>
       <c r="C190" s="21" t="s"/>
       <c r="D190" s="13" t="s"/>
       <c r="E190" s="22" t="s"/>
       <c r="F190" s="20" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="G190" s="20" t="s">
-        <v>321</v>
+        <v>207</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="191">
-      <c r="A191" s="23" t="s"/>
-      <c r="B191" s="26" t="s"/>
-      <c r="C191" s="23" t="s"/>
-      <c r="D191" s="15" t="s"/>
-      <c r="E191" s="24" t="s"/>
+      <c r="A191" s="21" t="s"/>
+      <c r="B191" s="29" t="s"/>
+      <c r="C191" s="21" t="s"/>
+      <c r="D191" s="13" t="s"/>
+      <c r="E191" s="22" t="s"/>
       <c r="F191" s="20" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G191" s="20" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="192">
-      <c r="A192" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="B192" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="C192" s="17" t="n"/>
-      <c r="D192" s="11" t="s">
+      <c r="A192" s="23" t="s"/>
+      <c r="B192" s="27" t="s"/>
+      <c r="C192" s="23" t="s"/>
+      <c r="D192" s="15" t="s"/>
+      <c r="E192" s="24" t="s"/>
+      <c r="F192" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="G192" s="20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="193">
+      <c r="A193" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="B193" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="C193" s="17" t="n"/>
+      <c r="D193" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E192" s="18" t="n"/>
-      <c r="F192" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G192" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="193">
-      <c r="A193" s="21" t="s"/>
-      <c r="B193" s="28" t="s"/>
-      <c r="C193" s="21" t="s"/>
-      <c r="D193" s="13" t="s"/>
-      <c r="E193" s="22" t="s"/>
+      <c r="E193" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F193" s="20" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G193" s="20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="194">
       <c r="A194" s="21" t="s"/>
-      <c r="B194" s="28" t="s"/>
+      <c r="B194" s="29" t="s"/>
       <c r="C194" s="21" t="s"/>
       <c r="D194" s="13" t="s"/>
       <c r="E194" s="22" t="s"/>
       <c r="F194" s="20" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="G194" s="20" t="s">
-        <v>326</v>
+        <v>196</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="195">
-      <c r="A195" s="23" t="s"/>
-      <c r="B195" s="26" t="s"/>
-      <c r="C195" s="23" t="s"/>
-      <c r="D195" s="15" t="s"/>
-      <c r="E195" s="24" t="s"/>
+      <c r="A195" s="21" t="s"/>
+      <c r="B195" s="29" t="s"/>
+      <c r="C195" s="21" t="s"/>
+      <c r="D195" s="13" t="s"/>
+      <c r="E195" s="22" t="s"/>
       <c r="F195" s="20" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="G195" s="20" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="196">
-      <c r="A196" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="B196" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="C196" s="17" t="n"/>
-      <c r="D196" s="11" t="s">
+      <c r="A196" s="23" t="s"/>
+      <c r="B196" s="27" t="s"/>
+      <c r="C196" s="23" t="s"/>
+      <c r="D196" s="15" t="s"/>
+      <c r="E196" s="24" t="s"/>
+      <c r="F196" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="G196" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="197">
+      <c r="A197" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="B197" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="C197" s="17" t="n"/>
+      <c r="D197" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E196" s="18" t="n"/>
-      <c r="F196" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G196" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="197">
-      <c r="A197" s="21" t="s"/>
-      <c r="B197" s="28" t="s"/>
-      <c r="C197" s="21" t="s"/>
-      <c r="D197" s="13" t="s"/>
-      <c r="E197" s="22" t="s"/>
+      <c r="E197" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F197" s="20" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G197" s="20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="198">
       <c r="A198" s="21" t="s"/>
-      <c r="B198" s="28" t="s"/>
+      <c r="B198" s="29" t="s"/>
       <c r="C198" s="21" t="s"/>
       <c r="D198" s="13" t="s"/>
       <c r="E198" s="22" t="s"/>
       <c r="F198" s="20" t="s">
-        <v>330</v>
+        <v>195</v>
       </c>
       <c r="G198" s="20" t="s">
-        <v>331</v>
+        <v>196</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="199">
       <c r="A199" s="21" t="s"/>
-      <c r="B199" s="28" t="s"/>
+      <c r="B199" s="29" t="s"/>
       <c r="C199" s="21" t="s"/>
       <c r="D199" s="13" t="s"/>
       <c r="E199" s="22" t="s"/>
       <c r="F199" s="20" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="G199" s="20" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="200">
       <c r="A200" s="21" t="s"/>
-      <c r="B200" s="28" t="s"/>
+      <c r="B200" s="29" t="s"/>
       <c r="C200" s="21" t="s"/>
       <c r="D200" s="13" t="s"/>
       <c r="E200" s="22" t="s"/>
       <c r="F200" s="20" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G200" s="20" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="201">
-      <c r="A201" s="23" t="s"/>
-      <c r="B201" s="26" t="s"/>
-      <c r="C201" s="23" t="s"/>
-      <c r="D201" s="15" t="s"/>
-      <c r="E201" s="24" t="s"/>
+      <c r="A201" s="21" t="s"/>
+      <c r="B201" s="29" t="s"/>
+      <c r="C201" s="21" t="s"/>
+      <c r="D201" s="13" t="s"/>
+      <c r="E201" s="22" t="s"/>
       <c r="F201" s="20" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G201" s="20" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="202">
-      <c r="A202" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="B202" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="C202" s="17" t="n"/>
-      <c r="D202" s="11" t="s">
+      <c r="A202" s="23" t="s"/>
+      <c r="B202" s="27" t="s"/>
+      <c r="C202" s="23" t="s"/>
+      <c r="D202" s="15" t="s"/>
+      <c r="E202" s="24" t="s"/>
+      <c r="F202" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="G202" s="20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="203">
+      <c r="A203" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="B203" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="C203" s="17" t="n"/>
+      <c r="D203" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E202" s="18" t="n"/>
-      <c r="F202" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G202" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="203">
-      <c r="A203" s="21" t="s"/>
-      <c r="B203" s="28" t="s"/>
-      <c r="C203" s="21" t="s"/>
-      <c r="D203" s="13" t="s"/>
-      <c r="E203" s="22" t="s"/>
+      <c r="E203" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F203" s="20" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G203" s="20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="204">
       <c r="A204" s="21" t="s"/>
-      <c r="B204" s="28" t="s"/>
+      <c r="B204" s="29" t="s"/>
       <c r="C204" s="21" t="s"/>
       <c r="D204" s="13" t="s"/>
       <c r="E204" s="22" t="s"/>
       <c r="F204" s="20" t="s">
-        <v>340</v>
+        <v>195</v>
       </c>
       <c r="G204" s="20" t="s">
-        <v>341</v>
+        <v>196</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="205">
       <c r="A205" s="21" t="s"/>
-      <c r="B205" s="28" t="s"/>
+      <c r="B205" s="29" t="s"/>
       <c r="C205" s="21" t="s"/>
       <c r="D205" s="13" t="s"/>
       <c r="E205" s="22" t="s"/>
       <c r="F205" s="20" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G205" s="20" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="206">
       <c r="A206" s="21" t="s"/>
-      <c r="B206" s="28" t="s"/>
+      <c r="B206" s="29" t="s"/>
       <c r="C206" s="21" t="s"/>
       <c r="D206" s="13" t="s"/>
       <c r="E206" s="22" t="s"/>
       <c r="F206" s="20" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="G206" s="20" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="207">
-      <c r="A207" s="23" t="s"/>
-      <c r="B207" s="26" t="s"/>
-      <c r="C207" s="23" t="s"/>
-      <c r="D207" s="15" t="s"/>
-      <c r="E207" s="24" t="s"/>
+      <c r="A207" s="21" t="s"/>
+      <c r="B207" s="29" t="s"/>
+      <c r="C207" s="21" t="s"/>
+      <c r="D207" s="13" t="s"/>
+      <c r="E207" s="22" t="s"/>
       <c r="F207" s="20" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G207" s="20" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="208">
-      <c r="A208" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="B208" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="C208" s="17" t="n"/>
-      <c r="D208" s="11" t="s">
+      <c r="A208" s="23" t="s"/>
+      <c r="B208" s="27" t="s"/>
+      <c r="C208" s="23" t="s"/>
+      <c r="D208" s="15" t="s"/>
+      <c r="E208" s="24" t="s"/>
+      <c r="F208" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="G208" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="209">
+      <c r="A209" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="B209" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="C209" s="17" t="n"/>
+      <c r="D209" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E208" s="18" t="n"/>
-      <c r="F208" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G208" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="209">
-      <c r="A209" s="21" t="s"/>
-      <c r="B209" s="28" t="s"/>
-      <c r="C209" s="21" t="s"/>
-      <c r="D209" s="13" t="s"/>
-      <c r="E209" s="22" t="s"/>
+      <c r="E209" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F209" s="20" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G209" s="20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="210">
       <c r="A210" s="21" t="s"/>
-      <c r="B210" s="28" t="s"/>
+      <c r="B210" s="29" t="s"/>
       <c r="C210" s="21" t="s"/>
       <c r="D210" s="13" t="s"/>
       <c r="E210" s="22" t="s"/>
       <c r="F210" s="20" t="s">
-        <v>348</v>
+        <v>195</v>
       </c>
       <c r="G210" s="20" t="s">
-        <v>349</v>
+        <v>196</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="211">
       <c r="A211" s="21" t="s"/>
-      <c r="B211" s="28" t="s"/>
+      <c r="B211" s="29" t="s"/>
       <c r="C211" s="21" t="s"/>
       <c r="D211" s="13" t="s"/>
       <c r="E211" s="22" t="s"/>
       <c r="F211" s="20" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="G211" s="20" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="212">
-      <c r="A212" s="23" t="s"/>
-      <c r="B212" s="26" t="s"/>
-      <c r="C212" s="23" t="s"/>
-      <c r="D212" s="15" t="s"/>
-      <c r="E212" s="24" t="s"/>
+      <c r="A212" s="21" t="s"/>
+      <c r="B212" s="29" t="s"/>
+      <c r="C212" s="21" t="s"/>
+      <c r="D212" s="13" t="s"/>
+      <c r="E212" s="22" t="s"/>
       <c r="F212" s="20" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="G212" s="20" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="213">
-      <c r="A213" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="B213" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="C213" s="17" t="n"/>
-      <c r="D213" s="11" t="s">
+      <c r="A213" s="23" t="s"/>
+      <c r="B213" s="27" t="s"/>
+      <c r="C213" s="23" t="s"/>
+      <c r="D213" s="15" t="s"/>
+      <c r="E213" s="24" t="s"/>
+      <c r="F213" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="G213" s="20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="214">
+      <c r="A214" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="B214" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C214" s="17" t="n"/>
+      <c r="D214" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E213" s="18" t="n"/>
-      <c r="F213" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G213" s="20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="214">
-      <c r="A214" s="21" t="s"/>
-      <c r="B214" s="28" t="s"/>
-      <c r="C214" s="21" t="s"/>
-      <c r="D214" s="13" t="s"/>
-      <c r="E214" s="22" t="s"/>
+      <c r="E214" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F214" s="20" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G214" s="20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="215">
       <c r="A215" s="21" t="s"/>
-      <c r="B215" s="28" t="s"/>
+      <c r="B215" s="29" t="s"/>
       <c r="C215" s="21" t="s"/>
       <c r="D215" s="13" t="s"/>
       <c r="E215" s="22" t="s"/>
       <c r="F215" s="20" t="s">
-        <v>355</v>
+        <v>195</v>
       </c>
       <c r="G215" s="20" t="s">
-        <v>356</v>
+        <v>196</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="216">
-      <c r="A216" s="23" t="s"/>
-      <c r="B216" s="26" t="s"/>
-      <c r="C216" s="23" t="s"/>
-      <c r="D216" s="15" t="s"/>
-      <c r="E216" s="24" t="s"/>
+      <c r="A216" s="21" t="s"/>
+      <c r="B216" s="29" t="s"/>
+      <c r="C216" s="21" t="s"/>
+      <c r="D216" s="13" t="s"/>
+      <c r="E216" s="22" t="s"/>
       <c r="F216" s="20" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="G216" s="20" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="217">
-      <c r="A217" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="B217" s="7" t="s"/>
-      <c r="C217" s="7" t="s"/>
-      <c r="D217" s="7" t="s"/>
-      <c r="E217" s="7" t="s"/>
-      <c r="F217" s="7" t="s"/>
-      <c r="G217" s="8" t="s"/>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="218">
-      <c r="A218" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="B218" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="C218" s="17" t="n"/>
-      <c r="D218" s="11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="217">
+      <c r="A217" s="23" t="s"/>
+      <c r="B217" s="27" t="s"/>
+      <c r="C217" s="23" t="s"/>
+      <c r="D217" s="15" t="s"/>
+      <c r="E217" s="24" t="s"/>
+      <c r="F217" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="G217" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="218">
+      <c r="A218" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B218" s="7" t="s"/>
+      <c r="C218" s="7" t="s"/>
+      <c r="D218" s="7" t="s"/>
+      <c r="E218" s="7" t="s"/>
+      <c r="F218" s="7" t="s"/>
+      <c r="G218" s="8" t="s"/>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="219">
+      <c r="A219" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B219" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="C219" s="17" t="n"/>
+      <c r="D219" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E218" s="18" t="n"/>
-      <c r="F218" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="G218" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="219">
-      <c r="A219" s="23" t="s"/>
-      <c r="B219" s="26" t="s"/>
-      <c r="C219" s="23" t="s"/>
-      <c r="D219" s="15" t="s"/>
-      <c r="E219" s="24" t="s"/>
+      <c r="E219" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F219" s="20" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="G219" s="20" t="s">
-        <v>363</v>
+        <v>81</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="220">
-      <c r="A220" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="B220" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="C220" s="17" t="n"/>
-      <c r="D220" s="11" t="s">
+      <c r="A220" s="23" t="s"/>
+      <c r="B220" s="27" t="s"/>
+      <c r="C220" s="23" t="s"/>
+      <c r="D220" s="15" t="s"/>
+      <c r="E220" s="24" t="s"/>
+      <c r="F220" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="G220" s="20" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="221">
+      <c r="A221" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="B221" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="C221" s="17" t="n"/>
+      <c r="D221" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E220" s="18" t="n"/>
-      <c r="F220" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="G220" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="221">
-      <c r="A221" s="21" t="s"/>
-      <c r="B221" s="28" t="s"/>
-      <c r="C221" s="21" t="s"/>
-      <c r="D221" s="13" t="s"/>
-      <c r="E221" s="22" t="s"/>
+      <c r="E221" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="F221" s="20" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="G221" s="20" t="s">
-        <v>363</v>
+        <v>81</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="222">
-      <c r="A222" s="23" t="s"/>
-      <c r="B222" s="26" t="s"/>
-      <c r="C222" s="23" t="s"/>
-      <c r="D222" s="15" t="s"/>
-      <c r="E222" s="24" t="s"/>
+      <c r="A222" s="21" t="s"/>
+      <c r="B222" s="31" t="s"/>
+      <c r="C222" s="21" t="s"/>
+      <c r="D222" s="13" t="s"/>
+      <c r="E222" s="22" t="s"/>
       <c r="F222" s="20" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G222" s="20" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="223">
-      <c r="A223" s="17" t="s">
+      <c r="A223" s="23" t="s"/>
+      <c r="B223" s="32" t="s"/>
+      <c r="C223" s="23" t="s"/>
+      <c r="D223" s="15" t="s"/>
+      <c r="E223" s="24" t="s"/>
+      <c r="F223" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="G223" s="20" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="224">
+      <c r="A224" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="B224" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="C224" s="17" t="n"/>
+      <c r="D224" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E224" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F224" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="B223" s="25" t="s">
+      <c r="G224" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="225">
+      <c r="A225" s="21" t="s"/>
+      <c r="B225" s="31" t="s"/>
+      <c r="C225" s="21" t="s"/>
+      <c r="D225" s="13" t="s"/>
+      <c r="E225" s="22" t="s"/>
+      <c r="F225" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="C223" s="17" t="n"/>
-      <c r="D223" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E223" s="18" t="n"/>
-      <c r="F223" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="G223" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="224">
-      <c r="A224" s="21" t="s"/>
-      <c r="B224" s="28" t="s"/>
-      <c r="C224" s="21" t="s"/>
-      <c r="D224" s="13" t="s"/>
-      <c r="E224" s="22" t="s"/>
-      <c r="F224" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="G224" s="20" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="225">
-      <c r="A225" s="23" t="s"/>
-      <c r="B225" s="26" t="s"/>
-      <c r="C225" s="23" t="s"/>
-      <c r="D225" s="15" t="s"/>
-      <c r="E225" s="24" t="s"/>
-      <c r="F225" s="20" t="s">
+      <c r="G225" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="G225" s="20" t="s">
-        <v>371</v>
+    </row>
+    <row customHeight="true" ht="56.6929473876953" outlineLevel="0" r="226">
+      <c r="A226" s="23" t="s"/>
+      <c r="B226" s="32" t="s"/>
+      <c r="C226" s="23" t="s"/>
+      <c r="D226" s="15" t="s"/>
+      <c r="E226" s="24" t="s"/>
+      <c r="F226" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="G226" s="20" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="239">
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
     <mergeCell ref="E3:E6"/>
+    <mergeCell ref="C3:C6"/>
     <mergeCell ref="D3:D6"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="E132:E137"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E110:E114"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A68:G68"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A101:G101"/>
+    <mergeCell ref="A138:G138"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A188:A192"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A156:A168"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A144:A155"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A110:A114"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="A209:A213"/>
+    <mergeCell ref="A197:A202"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A79:A88"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A115:A125"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A126:A131"/>
+    <mergeCell ref="A132:A137"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B221:B223"/>
+    <mergeCell ref="B214:B217"/>
+    <mergeCell ref="A218:G218"/>
+    <mergeCell ref="B197:B202"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="A184:A187"/>
+    <mergeCell ref="A183:G183"/>
+    <mergeCell ref="B169:B182"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B188:B192"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="B209:B213"/>
+    <mergeCell ref="B144:B155"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B115:B125"/>
+    <mergeCell ref="B132:B137"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B156:B168"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="B203:B208"/>
+    <mergeCell ref="B79:B88"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B126:B131"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A169:A182"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A214:A217"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A203:A208"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C110:C114"/>
+    <mergeCell ref="C169:C182"/>
+    <mergeCell ref="C126:C131"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C115:C125"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="C188:C192"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="C156:C168"/>
+    <mergeCell ref="C209:C213"/>
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="C132:C137"/>
+    <mergeCell ref="C193:C196"/>
+    <mergeCell ref="C203:C208"/>
+    <mergeCell ref="C144:C155"/>
+    <mergeCell ref="C79:C88"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C197:C202"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D132:D137"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D224:D226"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D144:D155"/>
+    <mergeCell ref="D193:D196"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D221:D223"/>
+    <mergeCell ref="D188:D192"/>
+    <mergeCell ref="D110:D114"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D209:D213"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D197:D202"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D126:D131"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D169:D182"/>
+    <mergeCell ref="D214:D217"/>
+    <mergeCell ref="D156:D168"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="D203:D208"/>
+    <mergeCell ref="D115:D125"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D79:D88"/>
+    <mergeCell ref="D139:D143"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E224:E226"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E144:E155"/>
+    <mergeCell ref="E209:E213"/>
+    <mergeCell ref="E169:E182"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="E193:E196"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="E221:E223"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="E79:E88"/>
+    <mergeCell ref="E197:E202"/>
+    <mergeCell ref="E139:E143"/>
+    <mergeCell ref="E115:E125"/>
+    <mergeCell ref="E219:E220"/>
     <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E188:E192"/>
+    <mergeCell ref="E203:E208"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="E126:E131"/>
+    <mergeCell ref="E214:E217"/>
     <mergeCell ref="E12:E15"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="E156:E168"/>
+    <mergeCell ref="D184:D187"/>
+    <mergeCell ref="D69:D71"/>
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A67:G67"/>
-    <mergeCell ref="A90:G90"/>
-    <mergeCell ref="A217:G217"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="A182:G182"/>
-    <mergeCell ref="A100:G100"/>
-    <mergeCell ref="E101:E104"/>
-    <mergeCell ref="E196:E201"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="E114:E124"/>
-    <mergeCell ref="E187:E191"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A187:A191"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A168:A181"/>
-    <mergeCell ref="A192:A195"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A131:A136"/>
-    <mergeCell ref="A213:A216"/>
-    <mergeCell ref="A202:A207"/>
-    <mergeCell ref="A143:A154"/>
-    <mergeCell ref="A220:A222"/>
-    <mergeCell ref="A196:A201"/>
-    <mergeCell ref="A155:A167"/>
-    <mergeCell ref="A125:A130"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A114:A124"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A208:A212"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="A223:A225"/>
-    <mergeCell ref="A183:A186"/>
-    <mergeCell ref="A78:A87"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B213:B216"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B114:B124"/>
-    <mergeCell ref="B125:B130"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="B187:B191"/>
-    <mergeCell ref="B223:B225"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="C187:C191"/>
-    <mergeCell ref="C213:C216"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C125:C130"/>
-    <mergeCell ref="C223:C225"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C202:C207"/>
-    <mergeCell ref="C114:C124"/>
-    <mergeCell ref="C131:C136"/>
-    <mergeCell ref="C143:C154"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="C78:C87"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C138:C142"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="C196:C201"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C208:C212"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C168:C181"/>
-    <mergeCell ref="C109:C113"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C220:C222"/>
-    <mergeCell ref="C155:C167"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="C183:C186"/>
-    <mergeCell ref="B208:B212"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B78:B87"/>
-    <mergeCell ref="B168:B181"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B220:B222"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B202:B207"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B196:B201"/>
-    <mergeCell ref="B143:B154"/>
-    <mergeCell ref="B155:B167"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B192:B195"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B138:B142"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="B131:B136"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B183:B186"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="E223:E225"/>
-    <mergeCell ref="E218:E219"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E138:E142"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="E109:E113"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="E192:E195"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="E220:E222"/>
-    <mergeCell ref="E213:E216"/>
-    <mergeCell ref="E183:E186"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="E105:E108"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="E168:E181"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E155:E167"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="E208:E212"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E202:E207"/>
-    <mergeCell ref="E131:E136"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E78:E87"/>
-    <mergeCell ref="E143:E154"/>
-    <mergeCell ref="E125:E130"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D208:D212"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D125:D130"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D187:D191"/>
-    <mergeCell ref="D114:D124"/>
-    <mergeCell ref="D131:D136"/>
-    <mergeCell ref="D143:D154"/>
-    <mergeCell ref="D168:D181"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D196:D201"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="D202:D207"/>
-    <mergeCell ref="D138:D142"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="D109:D113"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D155:D167"/>
-    <mergeCell ref="D105:D108"/>
-    <mergeCell ref="D78:D87"/>
-    <mergeCell ref="D183:D186"/>
-    <mergeCell ref="D223:D225"/>
-    <mergeCell ref="D213:D216"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D220:D222"/>
-    <mergeCell ref="D192:D195"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="D96:D97"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink display="https://drive.google.com/drive/u/0/folders/14Sl8CAiIzFqtyXx6BAmWVlbu3_cXXzH1" r:id="rId1" ref="F3"/>
